--- a/data/changemyview.xlsx
+++ b/data/changemyview.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="1226">
   <si>
     <t>changeview</t>
   </si>
@@ -5705,6 +5705,1316 @@
   <si>
     <t>This is insane and I'm glad it isn't the case in my country.</t>
   </si>
+  <si>
+    <t>So, I can't necessarily argue with the thrust of your post, which is that the priorities of the ultra-wealthy are highly likely to pass, whereas the priorities of ordinary people are not likely to pass. Which isn't great!
+However, relatively few things are actually dependent on federal legislation. Most things that affect a person's daily life are performed at the local or state level -- city and county courts, road construction budgets, unemployment and wage laws, recognition of official documents like drivers' and marriage licenses.
+And at this level, the ultrawealthy are overwhelmingly disinterested because the pool of people to transact with is smaller -- there is less money in exploiting local politics. In economics and political science, this is referred to as "concentrated benefits and diffuse costs;" individual people pay such a tiny percentage of the cost of federal policy that it can be highly lucrative to extract privileges. At the local level, things like accountability to your neighbors make giving privileges to rich people harder, and the individual share that people would have to pay to grant those carve-outs to the wealthy would be so substantial that it would never survive. That's how local officeholders get driven out.
+So American democracy has some oligarchic traits, but in general, it is more responsive than the average government. Its closest peers in the Democracy Index are Japan and Estonia, governments generally considered free and democratic.
+To be pedantic about this, gerrymandering is not a factor in Mitch McConnell's continued re-elections. The Kentucky Democratic Party is poorly organized and has a weak candidate-selection process; the last two McConnell opponents were Alison Lundergan Grimes, credibly accused of mismanagement as State SoS and linked to fundraising fraud, and Amy McGrath, who ran pro-Trump ads as a Democrat and was somehow surprised when that didn't work. McConnell could lose if the state opposition was more effectively managed.</t>
+  </si>
+  <si>
+    <t>Average Americans have a negligible impact on legislation passed regardless of the amount of popular support while gigantic corporations and those controlling them have interests that government action aligns stupid closely with, the ultra rich can do whatever they want without consequences, and if the worker class tries the same thing, we face decades in prison. The wealth gap is huge, the average american can't afford surprise expenses to save their life, and everyone under the age of 50 is a veritable wage slave in permanent debt. Police exist and always have existed to uphold the status quo, the government spies on its own citizens and assassinates prominent leftists and OPENLY ADMITS TO IT. We as a country literally fucking destabilize, invade, or otherwise attempt to destroy leftist countries and spread propaganda against them, and we never face the consequences for it. America on a local scale is so god damn gerrymandered to hell that officials control their own reelection chances rather than the people (see: Mitch mcconnell and his 15 or so percent support.) I see zero reason to classify america as a democratic country. We are a thinly veiled [plutocratic] oligarchy with fake elections every four years for candidates that the ultra wealthy themselves choose, and even then your vote literally doesn't matter in choosing which of the candidates the ultra wealthy put forth.
+In summary, America is not a democratic country, it is an [plutocratic] oligarchy in disguise.</t>
+  </si>
+  <si>
+    <t>I agree with a lot of what you're saying, but just a casual run through US history turns up plenty of examples of mass movements leading to change that the elites didn't want: Ending slavery, popular election of senators, ending Jim Crow laws, women's' suffrage...just off the top of my head.
+Yes, the rich have more power than regular folks. But don't throw the baby out with the bath water; just because they're more powerful than us doesn't mean that we're powerless.</t>
+  </si>
+  <si>
+    <t>While I agree with what you are saying about the rich controlling a lot of society, I disagree with the statement “things only change when the owner class wants them to.”
+There is a historical precedent for people toppling regimes and enacting change, albeit verrrry slowly. India, the US, and even more modern examples like Tunisia have done it through protest and often through violence. When people unify, things change. Look at the slow change happening because of the BLM movement, look at WSB spooking hedgefunds and bringing up discussions on market regulation of all things. Again, it’s slow, but it’s there. Workers unions fighting for rights during the Gilded Age are another great example.
+In the end, that is one of the cornerstones of democracy itself. There are violent revolutions to overthrow other systems, but changes in democracy are slower and (hopefully) less violent.</t>
+  </si>
+  <si>
+    <t>You should edit to indicate willingness to change your view or the post will likely be removed by mods.
+To your point though: ain't no way the rich class wanted Trump. Versus Hillary even, but I'm more thinking vs Rubio or Romney or Jeb Bush - a predictable quantity.
+We have structural problems that make democratic processes operate to polarize two parties and toggle between them rather than consistently govern to a popular middle. Even so, broadly popular policies tend to get enacted &amp; stick (e.g. Social Security).</t>
+  </si>
+  <si>
+    <t>A significant portion of Russia's economy, which in turn directs a lot of Russia's military and covert activities, is controlled by a powerful oligarchy. Putin was installed as the leader of Russia to be a puppet for that oligarchy, and Putin's move toward centralized authoritarianism was as much about securing his own safety as it was about gaining more power for himself. That's why popular political opposition, such as Navalny, are dealt with so harshly by Putin -- there is a legitimate risk to Putin's life if the oligarchy chooses a new/early successor for Putin. And that's why Putin had Sergei and Yulia Skripal poisoned on UK soil, it was to send a message to the Russian oligarchs living in the UK that they weren't beyond his reach.
+Now compare the situation in Russia to the US. Are they similar? Not by a long-shot. American politics and authority is very different.That's not to say business interests and the wealthy don't have more rights and opportunities than the average American, in practice at any rate. Business interests and the wealthy have had and continue to have an incredible effect on political discourse, law, and American society, and sometimes that effect is unfair and/unjust. But it's not an oligarchy, if anything American society is moving toward a corporatocracy, but there are elements, movements, and aspects of America that are contrary to this notion as well. In short, despite its failings -- and there are many -- America is politically and socially diverse, or mixed.</t>
+  </si>
+  <si>
+    <t>It's not helpful to think of things in black or white. Think of democracy like a spectrum, in fact there's a scale called the Democracy index. On one side you have countries like Congo and North Korea. A tier up is China, and then Russia. On the other side you have countries like Norway and Canada at the top, a tier down is France, and the next tier down is the US. We are categorized as a flawed democracy, and all the things you stated are contributing to that. (Our score actually trends down and we went from full democracy to flawed democracy in 2016) We're not a shining example of democracy like some people believe, we rank 25th (right below Japan) out of 167 countries. However, we're without a doubt the most powerful country and relatively democratic compared to the rest of the world as a whole.</t>
+  </si>
+  <si>
+    <t>The average person has a negligible impact on legislation passed. Even billionaires who spend excessively on lobbying don't usually get what they want passed. They only realistically have leverage over three or so of the five-hundred-odd folks in Congress. Individuals, both wealthy and not, have way more influence on the local level.
+I'm also unconvinced that the ultra rich can do whatever they want. Martha Stewart went to jail. A bunch of people in Trump's orbit went to jail and a lot of them are going right back. People say that rich people don't go to jail and point to 2008, but that was an outlier. People went to jail over the dotcom bubble and the Savings and Loans and RISDIC. Folks are going to jail for various financial crimes as well. The issue is that it usually takes years for people to go to jail. So, people spend years complaining "no one went to jail" only for people to actually go to jail for it after everyone stopped paying attention.
+I'm unaware of this one. Which prominent leftists in the US have been assassinated by the government in the past 50 years or so?
+There are a lot of leftist regimes that do a lot of bad things, is it unreasonable to oppose movements funded by and modeling themselves after regimes that literally commit genocide?
+McConnell has 15% support of people who don't vote for him. He wins among people in his district. There's a reason why I, a resident of Georgia, shouldn't have a say in who California elects. Just as Texas needs to shut its goddamn whore mouth about who I vote for.
+Come on, that's OBVIOUSLY not true given the success that Trump and Sanders have had. If it was true than Bloomberg (who had substantial support among the wealthy) would have been able to buy anything at all with the billions of dollars he spent. Self-proclaimed socialists get elected, usually in local races where your electorates skew definitively left or right rather than national or state wide races where you have an electorate that's fairly evenly split. Even in the Bluest of Blue states you're only talking about 70%, whereas the bluest of blue electoral districts are 90-ish% leftist. Most states are pretty evenly 50-50 split, and that has way more to do with the Urban-Rural split than questions of wealth.
+The fact of the matter is that hard leftist stuff just isn't that popular outside of relatively niche communities.</t>
+  </si>
+  <si>
+    <t>I want to discuss just one specific point in your comment:
+This is simply not true, It is gross hyperbole and you should reconsider. I am 39, and have made good decisions. I went to school on student loans, but I got a useful degree not something unemployable or useless. I don't buy a brand new phone every time they come out. I made good decisions. I did not have a child out of wedlock, I do have a job, and have had one since I was 15. I have no debt but a house, and am currently on track to own, debt free, 2 different houses, within the next 3 years. If you want to think the "oligarchy" controls things, that is fine. Since this is so prominent in your beginning, it makes the rest of your post sounds like whining from someone who doesn't want to be held accountable for the decisions they made. Can you please provide me with an example of how a policeman forced you to make a stupid decision? How about one of the oligarchs you refer to? Please be specific in either case, including what kind of gun did they hold to your head?</t>
+  </si>
+  <si>
+    <t>How are you defining democracy?
+Democracy is simply a system where people vote. There is no qualitative judgment associated with it. Democracy can have good law and it can have bad law.
+The examples you’ve listed — corporations, wealth gap, etc. — have no bearing on whether the U.S. is a democracy, it has minimal bearing on whether it is a good democracy, and speaks only to the quality of the U.S. laws, not whether they were democratically enacted.</t>
+  </si>
+  <si>
+    <t>One thing to think about - What is the biggest way the wealthy influence politicians? Answer: campaign contributions. What do the pols do with the campaign $? Answer: Try to influence YOUR vote. It all comes back to getting your vote. And it doesn't have to work. Look at 2016 - Hillary outspent Trump Like $500M vs $300M and lost. At the end of the day, the power is in the peoples hands.
+Don't get me wrong, I see a lot of issues in accountability and governance, and I see where you are coming from. Its one of the reason's I am a conservative, I don't trust government and want it to have less power rather than more because it can use that power in screwed up ways. But in the end we are still a democracy. Which, as Churchill once said, is the worst kind of government - except for all the others.</t>
+  </si>
+  <si>
+    <t>How much of this is because it’s what the majority of Americans have historically (if indirectly) asked for? Most Americans are not active in their government, so forces will naturally serve those who are - and money augments that. You provide safety, middle class income and leisurely pursuits, you get a disengaged populace.</t>
+  </si>
+  <si>
+    <t>You say that as if its a bad thing. BLM pushed out police in a few blocks in Seattle (CHAZ). In a couple weeks, 2 black people were killed, and even more were shot, very likely by white supremacists. It turns out that the police were protecting black lives all along.
+The US invading countries isn't a failure of democracy. The people voted for these warmongers after all. The people who got invaded don't get to vote to not get invaded.
+The ultra wealthy aren't a monolithic entity. Trump obviously had his wealthy connections but far more billionaires opposed him rather than supported him: Bloomberg, Bezos, the Lincoln Project, etc.</t>
+  </si>
+  <si>
+    <t>Not only are you wrong, your ideas are harmful. Voting has a huge impact, its really not corporations that choose laws, its the politicians who want to get reelected.
+Also I am so tired of this meme of "police just want to uphold the status quo". What does this mean? Should the police not protect property? If I was being robbed I would want the police to defend my stuff. Also if I am being stabbed, the police would help me. They can do both, and they do do both.</t>
+  </si>
+  <si>
+    <t>I believe you are exaggerating, and furthermore that doing so contributes to the very widespread alienation from politics that supports the status quo of near-oligarchy.
+Aside from that disagreement, I share most of the views and feelings you expressed. I'm deducing (particularly from your foreign-policy views) that you probably identify as a Progressive and/or Dem-Socialist, and generally support the positions of AOC and Bernie. So do I. (If I'm wrong, I'd be very interested in seeing a concise summary of the policies you do support.)
+But the feeling I don't share, that "Average Americans have a negligible impact", is one you share with tens of millions of Americans who strongly disagree with many of your other views. The hundreds who stormed the Capitol share your feeling that elections are fake, and that's why they resorted to violence. But if they had succeeded in overthrowing the elected government, I'm pretty sure you'd find the result even worse than status quo.
+But that's not my challenge to your view: just because an idiot or ogre partly agrees with you doesn't make your view wrong. My challenge is this: for the last 4 decades, when Republicans take power, they enact policy changes that enrich the 10,000 families (the 0.01%) at the expense of the 100 million families near or below median income. Those policies are: lower taxes on the rich, less regulation of pollution and workplace safety, less power for workers to organize--the list goes on, you could add to it.
+But it's also true that every time Democrats take power, they roll back at least some of those Republican policies, and actual conditions eventually start to improve for the 100 million. Here are some supporting links: race, economy, labor, inequality. But not for long: only till Republicans win enough elections to get back in power and start the process over again. And of course the Democrats are limited in the degree they can enact even the mildest of Progressive policy, because their party depends on corporate support, which will shift entirely to the other guys if the Dems go "too far".
+So is there a way forward? If there isn't any, then your view and my view and whatever daylight between them are irrelevant (though you at least have the consolation of being right). Or maybe, though you don't say so, the only way forward is violent overthrow of the elected government. That would have to involve mass-mutiny on the part of the US military and all levels of police (otherwise they would quickly put down the insurrection, however large). So then we would have at least temporary rule by a junta of anti-government military and police. I'm guessing that would be no fun at all. Though I could be wrong.
+The other way forward, which I propose, is that ever-increasing numbers of Americans politically educate themselves and engage in politics and in other ways influence social conditions. Vote in every election for the candidate who's most Progressive. Contact elected officials. Organize in the workplace. These are the things my grandparents did over 100 years ago, when they fought alongside Debs in the Socialist Party. They won many victories (working conditions were much worse in 1900 than in 1920, and they continued to improve until 1980), but when that party faded from power they worked with the Democrats. Eventually, they forced the Democrats to enact some Progressive policies, especially in the 1930s and '60s. For example, poverty dropped by half in the brief life of LBJ's war on poverty. Unfortunately, LBJ's other war alienated a large part of the electorate (including 10-year-old me), while his civil rights efforts alienated another part. The 'Pubs scooped them up, and here we are.
+And what do I mean by "politically educate themselves"? Who the hell has time for that? I'll tell you who: the most politically educated demographic in America today is Black Women (I thought about doing a CMV myself, on that thesis). They vote at higher levels than just about anybody, and they have a clearer picture of the effect of actual policy on their lives than anybody making &lt;$1M/year. And they get smarter every year. They elected Doug Jones to the US Senate in 2017, and Warnock and Ossoff just this month. You're better off joining them than fighting them.
+But maybe it's hopeless, and I'm wrong. But if there is a way forward, it's either pushing the Dems, or starting a new party built from scratch starting at the local level, or violent revolution. I say pushing the Dems is the best bet, but I'm totally open to other suggestions. Except for giving up--I'm not open to that.</t>
+  </si>
+  <si>
+    <t>You provide a lot of examples of things that are wrong with the United States, or bad things it does, but I’m not really sure how most of them support your claim about “democracy.”
+You do mention “fake elections every four years.” Can you expound on that? It seems that the overwhelming majority of Americans are able to vote in elections that openly choose their representatives at the national, state, and local level.
+There are certainly problems with elections. But which are the ones you consider big enough to make the US “not a democratic country”?</t>
+  </si>
+  <si>
+    <t>I would simply argue that things can change, but you need to do more trying to call for change and less doomsaying that change will never come.
+Demand better. Expect better. Accept no less. Advocate for it, argue for it, change minds, inspire people to believe change can happen and use the tools of democracy to make it happen. That's how democracy works, and it only works if we care enough.
+So, change your view?
+I challenge you to expect your bv world to be better, and accept no less, and you'll see, like others before you, like great people of history who saw change happen, that your view is born of apathy and fear,not reason, and that's why it meeds to change.</t>
+  </si>
+  <si>
+    <t>Bernie Madoff is currently incarcerated for running a huge ponzi scheme, he was once worth on the order of 100s of mil (depends on how you calculate net worth). Raj Rajaratnam was sentenced to 11 years in prison for insider trading. There are certainty cases of wealthy individuals getting way with crimes but there are counter points as well.
+The US is third in median disposable income, that American's are not so good at saving money isn't the fault of other people. I am under 50 (by a lot) and don't have permanent debt. The condition you describe is not the condition of the median American.
+Please cite a source for a "prominent leftist" in the US who has been associated by the US gov in the last 40 years.
+This figure is for national support, or do you consider the concept of states to be "gerrymandering". I don't have say in who Kentucky elects as their senator and am very glad that Kentuckians don't have a say in who is my senator (I don't live in Kentucky).</t>
+  </si>
+  <si>
+    <t>The Cambridge study you cite looked at whether the opinions of the public, business, elites, and others correlated with actual governmental policy. Other researchers analyzed the same data and found some contrary conclusions.
+From this Vox article, here are some points:
+The rich and middle class Americans agreed 90% on issues.
+When they disagreed, it usually wasn’t by much; only around 11% pts.
+When they disagreed, the rich’s preferences won over the middle class roughly half of the time (53%/47%). On economics, 57/43, and 51/49 on social issues.
+The rich’s wins were only slightly more conservative than the middle class.
+The poor’s preferences didn’t fare well if only they supported it, but they still agreed 80% of the time with everyone else.
+Only a 7% variation in policy outcomes determined by the preferences of rich, middle class, and poor.
+These results do not paint a picture of an oligarchy (literally or figuratively). To the contrary, they suggest that our democracy roughly reflects what most people want, with some exceptions.
+Also, it’s debatable whether it would be a good thing if public policy preferences were perfectly proportional to policy outcomes:
+As the article points out, most people don’t care about policy and aren’t politically engaged, and most don’t want to be. It’s time consuming and confusing. For example, I do not want to be more informed about surgery techniques, it’s a waste of my time unless I’m a surgeon.
+Therefore, sometimes what is most popular isn’t well thought out or feasible (The Wall, for example). Part of the assumption in a representative democratic republic like ours is that lawmakers and other elites (academics, scientists, experts, etc) should be entrusted to design policy that is actually beneficial and effective.</t>
+  </si>
+  <si>
+    <t>Which is of course exactly what people craving power for themselves want you to think. Here's a life tip, the person shouting the loudest for change is the one that wants to rule the worst. The US is a country where those who participate are the ones who get what they want.
+Which again is what you're supposed to believe. In reality you have plenty of impact on policy if you use the tools available to all. For example I belong to two special interest groups. Yes, even a middle class person that once survived off Little Ceasar's pizza I was so poor can belong to one. One is the NRA and the other is the Aircraft Owner and Pilot Association. I have a commercial license so I have an interest in aviation related policy. They regularly fight against outrageous taxes on aircraft and attempts to push out general aviation in favor of the airlines. Back in the 2000s the government tried to reorganize FAA policy so that we'd have to pay user fees to use ATC services and there'd be an airline dominated airspace classification board. Guess what? Neither of those exist because a 400,000 member group fought against a push by airlines. We lobbied and lobbied hard for that win. If you vote in local elections, attend city council meetings, sign petitions, join groups that lobby for your causes, and vote in primaries and state elections you will see the change you want. It takes participation. After all, how is someone supposed to know what you want when you never take the time to tell them?
+These are issues with every country and have been for thousands of years. The wealthy always have been the wealthy and no amount of legislation will change that. The old master merely become the new ones. Ask the Soviet Union, they lost the Tsar and gained a Politburo that had it's own lanes in the ring highways of Moscow. Even the upheld Nordic countries have their issues with wealth inequality. Speaking of which do not confuse social benefits for freedom. The slave in the Master's house dressed to the nines is as much of a slave as the one in the fields. Then on to the police. They are of course supposed to upkeep the status quo. The status quo is order and law and you appreciate it when there is no status quo (aka crime) in your neighborhood. Also don't believe anyone who says the police have no responsibility to protect you. That's a terrible interpretation of the results of a liability lawsuit. Yes the NSA and FBI do "spy" on our own people. Frankly you live in a very dangerous world and we have to make some very hard compromises between freedom and security.
+While it is true that we had a hand in many coups it's also better if you know why. During the Cold War we had seen what happened when "leftist" groups took control or attempted to. From Eastern Europe to Iran in 1946 to North Korea and beyond we saw the Soviet supported groups take control and become brutal authoritarians and confrontational if not outright hostile to us and it's neighbors. This is when Realpolitik came in to full swing. Make note it was not just us doing this. The French supported (and rumor has it paid off terrorist groups to not attack them) who they wanted to, the British supported who they wanted, and the Soviets supported who they did (first "leftist" groups then just anyone anti-western). International affairs are not some black and white "we're right, they're wrong" situation. Even Denmark will go against it's principles. As for those we "invade" let's look at the obvious one, Iraq. People will say it was a War for Oil (note: This is an old Soviet propaganda term), a war for revenge by Bush, and that Saddam was a stabilizing force in the region. You should especially scoff at the last one since he started two wars and fired SCUD missiles at Iraq during the Persian Gulf War to try and trigger an Israeli response. Since 1991 Iraq had planned to assassinate George HW Bush, had committed genocide, imprisoned numerous political prisoners, refused to allow IAEA inspectors in to suspected WMD sites, and fired at US aircraft in UN mandated No Fly Zones. You can't be a ward of a country that does all that indefinitely. As for Iraq being stable I can tell you this, no dictatorship is stable. It's always one man's death away from chaos. Why do I bring this up? To show you that the world is bigger and more chaotic than a simple "we're an oligarchy that invades other countries" narrative.
+Let's just put it out there, Gerrymandering is simply redistricting you don't like. Even a completely non-biased committee will be accused of bias if it drew up districts. Everyone likes to win, especially politicians. As for those "fake elections" there are more than just the election every four years. As noted before there are numerous others all the way from Sheriff to Governor. They are the one's that will most effect you. In reality the President isn't nearly as powerful as made out to be, especially in your day to day lives. For example I'm from NY and I live in Ohio now. When I flew home for Christmas I saw the stark differences. In NY there were National Guard members at the gate area making people fill out paperwork where as in Ohio there was no such thing. Which such policies have made people in NY affectionately refer to the Governor as King Cuomo. As for who is chosen that is entirely up to you. Take the 2016 election. The Republican Party wanted to put Jeb Bush or Ted Cruz on the ticket. It was only when Trump gained popularity did they even consider him a real candidate. That's why you should vote in primaries. They're how the parties chose the candidates.
+America is not an oligarchy, it's a representative democracy and it's only up to you to participate or not. The fact that the wealthy understand the need to do so means they get what they want. Just as it always has been. From merchants meeting with the chief of the local tribe to lords petitioning the king to settle a dispute all the way up to a lobbyist meeting a Senator on legislation about taxes on aircraft you have to make your needs known otherwise you can never get what you want.</t>
+  </si>
+  <si>
+    <t>I believe that what we have is more of a corporate-ocracy, in which the corporate interests are served by the puppet show oligarchy, that is ran in such a way that the people are convinced that everyone has a vote, and that their vote is their only way to make a difference, the ruse of democratic idealism does not make it so.
+Never has this been more evident than over the past month when twitter, facebook and the social media mega corpses, banned the outgoing president after giving him 5-6 years to run amuck like a banshee on their platforms. In lossing the election, he also lost the support of the platforms that once enabled him to get his message out. As the tide has now turned so must the optics of the mega corpses, least they come under too much scrutiny from the public. Had Trump remained active, the outcry of the majority would have been too much for regulation to ignore, thus they have given us an insight into the operation of the self government of the corporate-ocracy, as long as they are allowed to call the shots of who stays and who goes, of what is acceptable and what is not, then government is like the tale of the dog. Take any time Zuck has been in front of congress for questions, have you ever seen such a shit show? I am convinced they do the questioning as a gimmick, the idea of accountability, as opposed to actually holding anyone to account.
+Good write up though OP, it gets people thinking about it, and that is what is important at this stage. Realize that we have an illusion of Democracy, but are living in late stage capitalist society, post truth, and pre collapse, perhaps in collapse now, just inadmissible.</t>
+  </si>
+  <si>
+    <t>These things might be shallow to you, and that's exactly the problem that cultural appropriation represents.
+Let's back up a step. You're correct that the concept of cultural 'ownership' is problematic. Cultures freely borrow from one another and create depictions of one another, and this is probably not only fine but impossible to stop even if we wanted to. The issue is that different cultures in the modern world have differing access to the means of cultural production as it were. Big movie studios catering to the mainstream culture can basically do whatever they want and depict whomever they want, so long as it fits the tastes of the mainstream culture and thus is profitable. Tiny minority cultures on the other hand control no massive movie studios and nobody caters to their tastes. Their desires for representation in media are immaterial to the mainstream culture sort of by definition - if they did have control of the media, they wouldn't be a minority culture. Add into this the fact that every aspect of human existence and social relations is permeated by the recent history of colonial domination and subjugation and you can see why there might be a 'yikes' or two lurking somewhere in the ways that we, as the mainstream culture, produce and consume media and culture.
+So here's an example: there's this small tribe. They have a few symbols that have survived the era of colonialism with them. These symbols had, at some point, deep religious and cultural significance, but nowadays, this group mostly uses these symbols as a kind of in-group identifier, a signal to one another that they still exist and have a definable identity in the cultural sphere. Suppose now that these symbols become super trendy in the mainstream culture. The meaning of these symbols is completely lost, because the mainstream doesn't give a shit about the original meaning - after all, this is just clothing and hairstyles and jewelry and other shallow stuff like that, right? So it's fine. Maybe some of the usage of the symbols is meant to be positive homage. Maybe some of it is unintentionally derogatory, recalling racist stereotypes from the colonial past. Either way, the result is the same - the ability of the original group to exist in the cultural sphere is completely destroyed. Their symbols have been taken and imbued with new meaning by the mainstream culture, and the small minority has no ability to compete in the 'war of meaning' that ensues. You can tell people "hey that symbol actually means xyz," as many times as you want but if it's being printed on thousands of hairbands every minute or it appears a in a Disney film where it just signifies the villain or whatever, then you're screwed. You can never win - you don't have the same access to the means of cultural production. This is why some people think we should have a bit of a think about cultural appropriation, especially when the victim is a group that was historically oppressed.</t>
+  </si>
+  <si>
+    <t>Culture is simply the way a group of people do everything, from dressing to language to how they name their children. Everyone has a culture.
+It should never be a problem for a person to adopt things from another culture, no one owns culture, I have no right to stop you from copying something from a culture that I happen to belong to.
+What we mostly see being called out for cultural appropriation are very shallow things, hairstyles and certain attires. Language is part of culture, food is part of culture but yet we don’t see people being called out for learning a different language or trying out new foods.
+Cultures can not be appropriated, the mixing of two cultures that are put in the same place is inevitable and the internet as put virtually every culture in the world in one place. We’re bound to exchange.</t>
+  </si>
+  <si>
+    <t>when people talk about cultural appropriation, it's one of two things, usually:
+Members of a dominant culture financially profiting off of things created by another culture, while members of that other culture are not able to get nearly as much money from it.
+Members of a dominant culture take up something associated with another culture but are ignorant or disrespectful about it, and thus the item or practice in question is changed. Let me use a dumbed-down example here. Let's say dreadlocks are important spiritual symbols in Jamaican culture. White fratboys might think dreadlocks look awesome and get their hair styled that way, completely not knowing about the spiritual stuff. there is nothing inherently bad about this, in and of itself. The problem comes when dreadlocks more and more catch on among fratboys, to the point that they're seen primarily as a fratboy thing... even among Jamaican-Americans. White fratboys can innocently strip another culture's symbol of its meaning, but it's much less likely to happen the other way around.
+One thing that's in common about both of these situations is that neither is based on "don't do that thing because it's not yours."
+Also, both are mostly critical about a set of affairs, not the moral character of specific individuals. If Jimmy is a white dude, the point is not whether or not Jimmy is a bad person, it's that there's an imbalance in cultural status. White individuals learning to be careful about not taking up something they see willy-nilly is a way of addressing this problem, but it's not the central issue.</t>
+  </si>
+  <si>
+    <t>The issue here is that your view of what consists of "cultural appropriation" seems to be skewed.
+A quick google search finds a definition of: " the unacknowledged or inappropriate adoption of the customs, practices, ideas, etc. of one people or society by members of another and typically more dominant people or society. "
+Note UNACKNOWLEDGED and INAPPROPRIATE. Also note that it's generally adoption BY the dominant culture.
+Dressing: Is a white wearing an Asian style of dress cultural appropriation? Probably not. Is a white wearing buddhist monks' robes as a fashion choice to a dance party cultural appropriation? Yes.
+Is a white wearing a mohawk hairsyle cultural appropriation? Probably not. Is a white wearing a ceremonial mohawk dancing dress out to a dinner party cultural appropriation? Yes.
+Is a white man dressing in the fashion popular with african americans cultural appropriation? Most likely not. Is a white girl getting her hair braided in cornrows cultural appropriation? Maybe? It probably depends on how respectful she is of the style and culture.
+If it became trendy to wear catholic rosaries as fashion accessories...this is cultural appropriation.
+If it became trendy to wear Geisha outfits to baseball games...this is cultural appropriation.
+The fair and respectful meshing of cultures and ideas is not cultural appropriation.</t>
+  </si>
+  <si>
+    <t>What you are describing is not cultural appropriation, but a sociological concept called acculturation. This means that you adopt or partake in cultural expressions which you are not raised in. This can range from learning a new language to getting dreadlocks to participating in the ramadan to learning how to dance the Ka Mate.
+There are several ways in which acculturation can happen. One of the most common ways in which it happens in a modern, multicultural society is through bricolage: people adopt all sorts of different cultural traits from different cultures and fit them together into a patchwork cultural identity. For example, one could practice Wiccan rituals whilst also being an avid sitar player that likes to cook Indonesian food whilst learning Swahili
+Another way acculturation happens is through appropriation. In appropriation, a cultural trait is taken from the group it originally belonged to, and made fun of or made a caricature of. This applies heavily to things that the original culture considers to be sacred (in both the religious and non-religious sense of the word), such as the native american headdress, religious idols, and even something like the American flag, or the consitution. Appropriation is often, quite deserved, associated with colonialism. It has a strong connotation of being dismissive of what a cultural trait means to the native group.
+If you are ever wondering whether or not your acculturation comes in the form of appropriation, ask yourself whether or not you are being dismissive of the sensibilities of the culture from which you're trying to adopt something.</t>
+  </si>
+  <si>
+    <t>I think a lot of you are missing the key problem with cultural appropriation. So here’s a dumbed down example without the mind tricks. I’m a black woman right, I grew up wearing braids and many more styles like it , but when I did It , it was considered, ghetto, not put together, ratchet it’s also seen as unprofessional. But suddenly, white girls started doing the same thing and it’s now in magazines, they changed the name to “boxer braids” . “Kim Kardashian braids”, etc. and that is the problem at hand. It’s seen edgy and exotic on every other race except the people who basically made the concept of protective styling up. Many of us can’t even go to work with an Afro, because it’s seen as unkept and wild but, vogue literally has white women in fake afros on the the magazine cover. Lol that’s the problem, yes any race can do whatever they want but, you have to admit , this shit is really fucked up. Black girls really got pure bullied for wearing certain styles and now it’s edgy on white people.</t>
+  </si>
+  <si>
+    <t>I'm gonna be another one that latches on to that "hairstyles" example. Afro-textured hair has very unique issues regarding its upkeep, so some haircuts are pretty much designed to help with it. But with those haircuts being appropriated into a regular fashion, we end up with this:
+Black people's natural hairstyles were appropriated into being a part of "fashion" - which means that they can now be banned for being "too extreme" or "attention-getting", just because they don't fall under the white default.</t>
+  </si>
+  <si>
+    <t>I think one of the ones that feels most solid to me so far is this.
+Group X has been through some shit ye? Long history of oppression, consequences to the modern day etc etc you know the song and dance.
+Well recently there has been a lot of interest in product of group X. Let’s say... food. People are interested in their food, want to buy their food. Wouldn’t it be good and just if group X were able to use what is traditionally a product of their culture to be able to harness this moment in the zeitgeist to help their recover to the level of groups that haven’t been through the ringer like they have? And wouldn’t it be kinda shit if they hadn’t had that opportunity taken out from under them by group Y who haven’t been through the same wringer but do think product is quite neat?
+Idk when I think of it in such concrete terms it feels more solid and reasonable to me</t>
+  </si>
+  <si>
+    <t>I peeked at your profile a bit, so here's a different example. How do you feel about straight men who go to gay bars or to pride because they think it's trendy and then get offended when a guy tries to hit on them? Is there a difference between the straight guys who are still homophobic and will call you a slur in a place you thought you were safe, and the straight guys who understand it's a gay bar and are just here to wingman for a friend and will let you down nicely if you hit on them? Because the former are basically appropriating gay culture to look trendy while looking down on it and sometimes actively hurting the people for who these spaces serve a purpose. The latter are mixing cultures with appropriate respect and understanding of the importance of the space for the people who created it. (Particularly those who respect it enough to only go if they have a really good reason because they understand that just through their numbers, straight people could outnumber queer people at this place and make it useless for its purpose).</t>
+  </si>
+  <si>
+    <t>Cultural appropriation isn't just any adoption of a part of a different culture, its the improper adoption of the culture that is the issue.
+I want you to imagine that something you cherish, a tradition, a family heirloom, something defining for you, gets rubbed in the dirt and desecrated by people that don't know the history and meaning behind those cherished things and stories.
+This is what a lot of the Nordic nations have had to see happen to a lot of their cultural heritage. Nazis and Neo-Nazis have appropriated and ruined so much of our historical heritage through association. Something that used to be defining of us has now been damaged and rendered shameful. Someone has scratched a dick pic into the family heirloom.
+That's why cultural appropriation is harmful. It's not about someone eating an everyday meal like tacos, it's someone not giving something the proper respect it deserves.
+Another perhaps more relatable example would be making a Gi with a black belt a fashion statement. It undermines the meaning and significance of a black belt in martial arts.</t>
+  </si>
+  <si>
+    <t>Cultural appropriation is simply the adoption of an element or elements of one culture or identity by members of another culture or identity.
+That happens all the time. Why is that a ridiculous idea? While there are critics of cultural appropriation, using the term doesn't automatically mean that it's wrong. The term merely acknowledges that the phenomenon of the adoption of cultural elements from other cultures exists.</t>
+  </si>
+  <si>
+    <t>You're taking a very western centric model of culture and applying it around the entire world - IE "Culture is the thing we all enjoy together".
+That isn't universally true. Some cultures develop culture that is specifically designed to say "this is us - if you wear/do/say etc this, you are saying that you are us/you have achieved a task we set etc"
+There are many religious robes, cultural icons, practices, accessories etc that are given out or worn because someone is intending to symbolise that they belong to a particular group or believe particular things. By saying "no, everyone should be able to enjoy/do that" you are undermining the meaning that culture bestows on that item.
+To give you two western centric examples of why this is wrong, consider the Purple Heart and the name "Karen".
+The Purple Heart is an American military honour given to wounded soldiers. If people were just able to wear purple hearts as a fashion accessory, purple hearts that were physically indistinguishable from the ones handed out by the military, then you would not be able to tell the two apart, and in the minds of many/most the purple heart would lose much of its meaning.
+Simmilarly, the name "Karen" has now become a meme, as a pushy and entitled woman, often a mother, who is obnoxious and rude. People who actually have the name Karen now are the subject of jokes, and have to - in some way - respond to the fact that the word used to identify them, a cultrual artifact of a kind, has been appropriated for other purposes.
+Not all culture is built for the enjoyment/appreciation of others. Some culture is built with the express purpose of saying "this is who we are". By appropriating culture of that kind, you are dishonouring it and undermining it's ability to express itself.</t>
+  </si>
+  <si>
+    <t>OP, I think the disagreements here originate from an unspoken difference in understanding what culture is. It seems that from your understanding of culture, it is a fixed set of traditions and practices that eventually whizz and die out so that new cultures can take over.
+That is not wrong per say, but possibly an incomplete and simplistic understanding. Culture, with a capital C, is more akin to a web that a spider has spun. Just as this web of significance, symbols and meanings attached, is the framework from which the spider (Man) accesses all parts of the world, so is this web constantly re-spun, modified and edited by the spider. Without man, there is no culture. But without culture, there is no man either. Symbols can lose their specific context, or be diluted in meaning to belong to a larger group of people. Traditions can be lost to time, or lose its purpose as technology advances. But culture doesn’t just...die. It is the framework through which all the aforementioned happens.
+I agree with you in saying that accusations of cultural appropriation can sometimes come off as absurd, trivial or insignificant. This happens especially when people don’t really understand what cultural appropriation actually refers to, resulting in a noisy amount of nothing being said. It becomes especially apparent when we start talking about culture “belonging” to a specific group, and when everyone starts disagreeing about every term in that sentence (what is considered culture? What does belonging mean? How specific should a group be? How do we identify someone as part of a group?), much more harm is done than good.
+We may agree on that, but to stop at that is to be myopic to a larger issue at hand.
+Cultural appropriation can happen when the symbols, the traditions, and most importantly, the systems of meaning, are reproduced in a way that divorce them from innate ability to express a meaning about something. If we go back to the spiderweb analogy, it would be as if someone came along, cut off the web from the tree, took the spider out of it, washed the web such that it loses its stickiness, and hangs it on some Christmas tree. When someone comes along and says “Wow, this is so pretty! What is it?”, the person replies, “Gee, I don’t know man, but it looks nice!”
+When a symbol (a Christmas tree, a Chinese wedding dress, a Malay night snack, a Jewish child song, etc.) is sterilized, cut off from its roots, and loses its capacity to express any of the meanings and histories normally attached to it, that is cultural appropriation.
+One more thing to note is that cultural appropriation happens all the time, and is not necessarily a bad thing. Symbols can find renewed meanings in new traditions. Traditions can be altered to fit newer conceptions of history. A web can be re-spun, rotated, resized, pasted elsewhere, melded, diluted, etc. A good example is in my country, Singapore, where our nation is composed of different races (Chinese, Malay, Indian, etc.). Many traditions and cultures are celebrated concurrently, and sometimes you see hybridization of there different cultures. Singlish is a “bastardization” of different dialects and languages mixed with english. Rojak is an uniquely Singaporean dish that combines different culinary traditions. Symbols and tradition are repurposed, but they don’t LOSE TOUCH of their capacities to touch lives with their meanings.
+So how much is too much? That is a subjective question, and there will always be disagreements for as long as humanity exists. But I hope to have added some nuance to the way you understand this topic.
+(1) Cultural appropriation exists, and it happens all around us. (2) Cultural appropriation is not an inherently bad or good thing. How acceptable it is depends on (a) the purpose of its appropriation and (b) to what degree it is divorced from its original meaning systems.
+Ultimately this is a problem of degree, not kind. Just as with everything else in life, it’s kind of a grey area.</t>
+  </si>
+  <si>
+    <t>I’d encourage you to search for a previous CMV on this exact topic. There was an answer there that was much better than the ones here.</t>
+  </si>
+  <si>
+    <t>OP I don’t know if you’ll read this but if you do, please know I’ve read all the comments including yours. I’d like to make original points rather than repackaged comments from above.
+Here are 3 things I’ve read you say repeatedly, and people largely don’t reply to your points. Please correct me if I’m mistaken:
+Culture evolution (and fade) is natural and neutral
+You are not personally offended by symbols you hold dear becoming appropriated as long as you know the true meaning
+Appropriation is not the issue, racism is.
+So I’ll say:
+I agree culture naturally evolves. I disagree that how that happens is inconsequential. Some ways of culture blend are respectful and others are harmful. I ask of you, do you feel empathy towards people who are watching their cultural identity fade in real time? If your view is truly survival of the fittest but in terms of cultural symbols and not finch beaks, then I think that’s sad bc that doesn’t take into account literal genocide. For example, the only reason there is even a discussion about Native Americans headdresses at festivals is because those great nations of the past were literally slaughtered. How is that cultural evolution natural? Even if the warring and hostile take over of one culture over another is natural and historically pervasive, you’d be hard pressed to argue that is “amoral” as you say.
+While this post is about “your view,” you are making statements about facts and not opinions, so how you feel about appropriation is not the same as if appropriation is bad or good or neutral. This logical fallacy just was bothering when I read it
+I disagree that cultural appropriation is totally separate from racism. Sure a lot of examples of what is criticized for being appropriative might feel trivial or “PC.” However racism and conversations about appropriation are inextricably linked. Even in this thread, from a birds eye view I’ve read a movement ideologically towards criticizing those who take issue with appropriation, and that has racial consequences. I’d rather see white people everywhere not be allowed to wear dreadlocks if it served the larger purpose of Black people being heard and valued. Take any example of appropriation no matter how trivial it may seem, and I ask what’s at stake? Because I’d rather see every single “silly” criticism be met with compliance especially when it literally makes no difference to the person appropriating. I recognize I’m speaking to a deeper ideology that marginalized people should be heard and valued for their experiences, and if we disagree on that point then it goes beyond this post. However it does link directly back to appropriation bc I see it as a way that oppressed people attempt to make their abstract experience tangible. It doesn’t matter if you can “logically” explain why appropriating a particular thing is bad or good, bc what’s at stake is whether the non dominant people in the conversation are valued and respected. When I read that you disrespect people who go around policing appropriation or using that rhetoric, I challenge you to look past your issues with SJW and ask if the moral grounds they stand for on a larger scale are worth defending.</t>
+  </si>
+  <si>
+    <t>Your point seems to be you projecting your own apathy regarding the importance of culture in other people’s lives, as cultural appropriation tends to be viewed and discussed more casually abroad than it is here in America. I can see why you would have trouble understanding the argument, but here in the US it’s a bit more complicated, and definitely worth making the case that it’s an issue that is harmful to the culture being appropriated.
+In America, the black community is fighting to highlight cultural appropriation because a lot of what is considered their culture in America is a direct result of 300 years of slavery and another 50 years of lawful segregation. The English dialects, the cuisine, the music and the fashion were all born in a vacuum essentially, with little influence from whites, aside from the laws forcing them to remain separate from the rest of the population.
+Fast forward to today, and white people are dominating industries by making money off of black cultural hallmarks like food, fashion, and especially music, while much of the black community still, to this day, are suffering from the financial setbacks of slavery and segregation. This is a common theme in America, demonstrated especially through the appropriation of jazz and rock music. Both were heavily pioneered by black musicians that weren’t allowed to play concerts in most places at the time because of laws on segregation, yet jazz and rock music managed to gain massive popularity and are now primarily white genres, with no homage or royalties paid to the black musicians that created it. That’s why in America, it’s super tacky and unbecoming as a white person to affect yourself in black cultural fashion.
+Your “melting pot” analogy regarding American culture is actually pretty outdated American propaganda that is also inaccurate in this case. It would be one thing if white people were integrating these cultures as the result of efforts to be more inclusive, however it has nothing to do with cultural integration. Black culture is literally the result of black exclusion from mainstream society for the vast majority of this country’s history. Now all of a sudden white people are making huge amounts of money off of all the things black people did to find community among themselves during that vast majority of this country’s history. White people are profiting hand over fist from cultural hallmarks born out of white-perpetrated atrocity and oppression.
+While you are entitled to your view on cultural appropriation, it seems to ignore the predatory tendency it has in America to further marginalize the cultures it seeks to borrow from, as well as the effects it continues to have on black wealth as much of their “intellectual property” has already been monetized and saturated by white people.</t>
+  </si>
+  <si>
+    <t>Banning things that people want tends not to work (think alchool or the war on drugs).
+Like most enviromental concerns it's better to tax (thus building into the price the externalities) then to ban/restrict.</t>
+  </si>
+  <si>
+    <t>My view:
+Glitter and sparkles, below a certain diameter, pose enough ecological, ethical, and human health problems to warrant legal control.
+My reasons:
+Ecological- Glitter and sparkles are ostensibly no different than microbead plastics which were banned for ecological concerns. Microbeads were traveling through the water systems and ending up in the guts of fish. Glitter and sparkles, while visually distinct, are used in many of the same aplications. Glitter, along with its many other applications, is used in bath bombs and make-up, both of which end up in the sink.
+Ethical- Glitter and sparkles do not ask for consent. Everyone knows that glitter and sparkles get everywhere and are almost impossible to fully remove. It's so well known, that Mark Rober used glitter and sparkles as a non-lethal booby trap against porch pirates. Glitter can leave whatever surface it is on and attach itself to you. Pick up one piece of glitter paper, or a Christmas ornament you didn't know had glitter on it? Well, now it's on your hands and everything else you touch. Washing your hands vigorously rarely removes all the glitter, and it now is going back to problem 1. You've washed microplastics into the ocean. Cool. If you don't get the glitter off your hands, it can end up in your food, on your phone, in your electronics, in your clothes, and maybe even in your personal projects, paintings, or other work. While glitter can be sealed, preventing the non-consensual spread, it rarely is. I have had to throw out entire reams of paper because glitter touched them and now I can't put them through my printer without damaging it.
+Subpoint- imagine it was legal to leave a wet layer of paint on merchandise in the store. The paint MAY be dry, it MAY not be dry. You don't know until you touch it. That sounds insane, right? Well, it's the same thing with glitter. You don't know if it's sealed until you touch it, at which point it's too late.
+Health- Glitter has been known to be a health hazard and can be lethal, or at least dangerous, if not treated quickly. Glitter and sparkles below a certain diameter can end up consumed, adding to microplastics that are already building up in our systems. It's inarguable that glitter and sparkles, by their very shape and size, are not contributing to this problem.
+What will not change my mind:
+Whataboutism arguments saying, "Well this thing is also a microplastic, should that not be controlled?" I would simply say, "yes, it should. " I believe microplastics and other plastic waste is a danger on all fronts and should have more controls.
+Claims that glitter can be easily cleaned and managed if you "just do this...". No. It really can't. Companies often do not seal their glitter products. If glitter was easy to control and remove, then it wouldn't be used as an annoying trap.
+Victim blaming statements like, "just don't buy glitter products". Even if you went through life not buying or purposely touching glitter, you would still touch it at some point. It's on art supplies, children's toys, and knickknacks. It's in holiday decorations, soaps, makeup, and cheap T-shirts. If a product on the shelf is within two or three feet of something with glitter on it. It will also be contaminated.
+Sentimental arguments like "glitter is pretty" or "it's useful for decoration". I did not say ALL glitter should be a controlled substance, just below a certain diameter. It should not be possible to pick up extremely fine glitter particles (diameter TBD) without also purchasing a sealer or other substance to manage the application and spread of the glitter. It should not be possible to buy fine glitter particles in any basic store like Walmart. It should be an 18+ product purchased at a more specialized store, similar to how flammable substances are handled. If someone wants to decorate with glitter, I would absolutely say that they can, but only with larger particles that are more easily seen and managed. Additionally, companies could still use glitter in products but MUST be required to seal those products with a varnish or glue.
+Things that WILL change my mind:
+Evidence that a law already exists to curtail the current use of glitter and sparkles.
+Evidence that glitter and sparkles are all biodegradable, and currently do not pose a microplastic threat. (Although this does not address the other two concerns) They must break down in the environment to a sufficient degree that they do not pose a threat.
+Evidence that legal control of microplastic substances is ineffective and that more harsh measures should be used. We all know that companies will do what they must to make a buck, so it's likely that any law about glitter or sparkles would be circumvented quickly. Evidence that a legal restriction, like the one on microbeads, would be ineffective would help change my view, but it would only make me feel more strongly that glitter and sparkles are dangerous and problematic.
+Evidence that glitter and sparkles are used in scientific applications to such a degree that easy access to them is requisite for some very important task.
+Evidence that glitter is not a health risk to humans in any way, and that previous examples of glitter damaging humans, or contributing to human microplastic contamination is not happening.
+Other logical arguments I haven't thought of.
+Thank you for reading- Please change my view.</t>
+  </si>
+  <si>
+    <t>I would just like to address a myth. You don't collect a tax to fund something specific. This tax won't grow the amount of money invested in this thing it will go into the big money pool and then will be allocated to the necessary space.</t>
+  </si>
+  <si>
+    <t>In general, I'm a little hesitant to outright ban things that are harmful for a particular use, simply because there might be other, perfectly legitimate uses for the same thing. For example, this is a perfectly valid use of glitter:
+https://en.m.wikipedia.org/wiki/Optically_variable_ink
+In this particular application, plastics are necessary to make sure that the optocal properties of the ink do not degrade over time. Glitter might also be useful in signage, to make certain objects more optically visible. There are probably other scientific or industrial uses of glitter that I haven't thought of, and to ban glitter outright seems a little hasty.
+That being said, microbeads are banned for use particularly in soaps and shampoos (the beads in ball-point pens are still perfectly legal, on the other hand). In the same way, we could ban plastic glitter just for recreational purposes.
+As it turns out, biodegradable glitter exists. A law could be passed requiring all recreational uses of glitter to be biodegradable. Other applications, such as when someone wants to change the optical characteristics of something, would still have unfettered access to plastic glitter.</t>
+  </si>
+  <si>
+    <t>Well I don’t know what country you’re in, but in the US, legislation does take tremendous resources to actually pass. Now if you’re arguing that it should just be tacked onto the next bill, then I’d be more likely to agree with you as long as it doesn’t hold up the legislation. As the primary objective of a piece of legislation though, it would be a waste. The issue isn’t one of seeking perfection at the expense of progress, but that it would actually impede desperately needed legislation on all of the micro plastics that are actually dominating our environment. Think about it this way- how much glitter have you personally introduced into the environment this year? Not just you personally, but overall, how much glitter have you encountered through other people? Now consider how many plastic containers you have thrown away or encountered this year. I’m guessing there is no real comparison because the plastics overwhelm the glitter.</t>
+  </si>
+  <si>
+    <t>Well, I don't think microplastics really work the way you think they do.
+You might have seem the post on reddit yesterday about a guy using a microscope to look around his apartment, and finding tiny plastic microfibers EVERYWHERE. Those were probably from plastic (polyester, etc.) clothes and fabrics.
+I don't think your ban on glitter under a certain diameter makes sense. Large glitter just degrades into smaller glitter, and still becomes microplastics.
+Even a family with a LOT of glitter will have only ~a pound of it, whereas they'll have hundreds of pounds of polyester (and other synthetic) fabric in their house. There's also plastic sofa and mattress fillings, etc.
+I think your idea is harmful because it reinforces the notion that we just need to ban things like small plastic beads, and then this issue will be solved. In reality, there are much, much bigger issues that will be much harder to address. Banning glitter does essentially nothing. It's a red herring.</t>
+  </si>
+  <si>
+    <t>Have you considered that it might be better to win hearts and minds in the crusade against glitter as an alternative to, or at least prerequisite to, legislation? If you don't have popular opinion firmly on your side then it becomes a liability to any politician who might support it. But if people start to universally hate glitter then legislation becomes unnecessary; consumers will simply boycott companies that use glitter.</t>
+  </si>
+  <si>
+    <t>Point 1 - I agree with you that glitter used in makeup and bath bombs would indeed seem to pose the exact same ecological risk as microbeads plastics designed for exfoliation. It is interesting that the current law does not outlaw them. Do you have any insight into why these were left out?
+Point 3 - you need better supporting evidence that glitter poses a serious health hazard above and beyond wood mulch which is cited in your linked article as posing the same or worse health hazard. Further the FDA link for the existing law specifically says they don’t have any evidence human health is an issue.
+“The new law does not address consumer safety, and we do not have evidence suggesting that plastic microbeads, as used in cosmetics, pose a human health concern.”
+I think the biggest difference I see between the current law against microbead plastics and general purpose glitter is that the microbead plastics meant for exfoliation are designed for the purpose of being washed down the sink and into our water supply so it’s a pretty direct route from them to fish and shellfish. General purpose glitter is not designed for that purpose and according to your own experience ends up overwhelmingly in the trash to go to our solid waste landfill system.
+So as I see it you have sort of two separate things. You’ve got the glitter in bath bombs that would seem to have a very clear and direct ecological impact as far as I know. And you’ve got general purpose (art) glitter that ends up in the solid waste system for the most part. The first one seems like a slam dunk but in both cases I think to get broad acceptance we need an acceptable replacement. Additionally I think the second one (art glitter) would best be handled not by an outright ban or law controlling their use but by waging a public campaign about how bad it is and to get people to switch to an alternative (similar to “please use reusable bags instead of the brown plastic bags because it’s better for the environment” or “smoking is bad for you and causes cancer, etc”). I credit the huge drop in smoking rates to broad PR campaigns and a changing public opinion that adopted the view that smoking is bad. I think the best way to get rid of art glitter is similar. Look at how many weddings don’t throw rice anymore because of the broadly accepted myth that it would kill birds.</t>
+  </si>
+  <si>
+    <t>The time and effort involved to legislate glitter would be a waste because it’s not a substantial enough problem. Most of the micro plastic comes from plastic refuse breaking down in the environment. Banning glitter would not help our micro plastic problem in a substantial way, would waste energy and resources, and would give people a false sense of having made progress, which will impede real progress.</t>
+  </si>
+  <si>
+    <t>How would you feel about making companies use biodegradable glitter instead? It may still stick to everything but helps the envoirmental factor.</t>
+  </si>
+  <si>
+    <t>First let's define some chemistry.
+In cosmetics there are two types of glitter. "Pearl" and plastic glitter.
+Pearl is a mineral product and has been shown to be RAS, AKA reasonably assumed safe. It's primarily threw minerals, iron oxide, titanium dioxide and mica. In the biz it's called titanated mica.
+The FDA has already limited it's use for anything above 100 microns around the eye. Also few plastic glitters are allowed for use around the eye because of the health Hazzard.
+Reasonably this kind of glitter is ecologically the same as dirt. No harm, no foul. It easily breaks down and is harmless in the environment.
+The other kind of glitter? If it's used in personal care products it's often used outside the scope of the law aka illegally.
+Most your problem would be solved with better enforcement and moving to titanated mica solely.</t>
+  </si>
+  <si>
+    <t>Dude I 100% agree, as a Park Ranger we had some smart family do some bullshit glitter art on rocks on top of a picnic table, then left the rocks. So no I have 4 large stones with glitter glued to them, and a picnic table that I had to vacuum to clean, and still couldn't get everything. It's like they just never once thought about the fact that there will be another family to use this space after they leave. The art didn't even look good, just straight up pink rocks. Wtf</t>
+  </si>
+  <si>
+    <t>Man you really hate glitter.</t>
+  </si>
+  <si>
+    <t>I know festival folks that have stopped the glitter thing.</t>
+  </si>
+  <si>
+    <t>I love glitter and I hate glitter. I love the look and applications of it, but hate the unconsented glitter and the microplastics aspect. Does it stop me from using it, no. But I definitely wouldn't buy a glittery/shimmery bath bomb, and just wash it down the drain.</t>
+  </si>
+  <si>
+    <t>Glitter isn’t a particularly big contributor to micro plastic issues. Banning glitter risks people inflating how bad it is. This may seem like it’s a good thing, but it can end up causing people to ignore bigger contributors as they demonise glitter.
+For example, plastic straws have been under a lot of fire lately because of plastic waste ending up in the ocean. People see them as a major problem and danger (even going to far as to shame people who need to use them) when in reality they only make up about 1% of the plastic in the ocean. This focus has meant that there isn’t as much awareness about sources which are a much bigger problem, such as fishing gear (which is about 80% of the waste).
+If we ban small glitters we run the risk of people ignoring other - larger - sources such as textiles and car tyres. Instead, it would be a better idea to implement a financial incentive for companies to produce (or people to buy) environmentally friendly alternatives.</t>
+  </si>
+  <si>
+    <t>Glitter shouldn’t be made- not because of environmental reasons, but because it’s a shitty fucking decoration.
+It would take quite a bit to target it specifically, so I’d rather see efforts put forward in arenas that matter more, and that we would see glitter disappear as a side affect of other problem products being targeted by legislation</t>
+  </si>
+  <si>
+    <t>I don't think it's hypocritical to find fault in some things that are illogical but not others. You could be well-informed about the shaky foundations of religion but not about something else.
+I don't know your ex, she might've been hypocritical if she attacked the same reasoning people use to justify religion that she used to justify her belief in astrology - but that's not necessarily the case.</t>
+  </si>
+  <si>
+    <t>So I thought of this because of a girl I "dated" in college, she was pretty anti religion but believed in astrology, but the CMV isn't strictly about her or astrology.
+In my opinion of you mock, or belittle people for their religious beliefs while simultaneously believing in things like astrology, ghosts, or "spiritual" things in general (I'm not sure what the correct term is) you are an hypocrite.
+I'm not saying religious ideology can't be criticized, but the argument that it's silly to believe in something based on faith is hypocritical if you believe the things mentioned before.</t>
+  </si>
+  <si>
+    <t>There are lots of reasons that make sense for disliking organized religious practice that don't apply to astrology. Going to war over your faith (involving literal killing, not internet arguing) is a big one. It would depend on what their reasons were for disliking or making fun of religion.</t>
+  </si>
+  <si>
+    <t>Religious people who mock other religions fit the same description. Do you consider them hypocrites?</t>
+  </si>
+  <si>
+    <t>Non-religious people "believe" in a lot too. I believe in man-made climate change. I believe there are clear reasons why it should be easy to see that I'm right and others are wrong.
+Believing my views are right, I might mock people who I believe are wrong. A Christian might mock a Muslim for being wrong, and it wouldn't be hypocritical UNLESS you're viewing it from a perspective of an atheist (or other religion) that already assumes they are both wrong. But an astrologer that actually believes astrology and thinks Christianity is hogwash isn't any more hypocritical than a Christian that mock crystal healing believers. And personally, I think there is plenty to mock about astrology and "crystal healing" even for people like Christians. Not all beliefs are equally absurd, especially from the perspective of the people that hold them.</t>
+  </si>
+  <si>
+    <t>Much religion is based on faith, indoctrination, upbringing, and personal experience. Ones belief in Astrology can come from any number of introduction. If a person has no reason to accept Religion, but has a belief system and personal experience validating Astrology, that doesn't point to them being a hypocrite. Religious people discredit things like astrology all the time. Are you willing to call the out religious folk who do this as hypocrites?</t>
+  </si>
+  <si>
+    <t>I'm going to take the semantic argument approach to this:
+Hypocrisy doesn't mean what you seem to think it means.
+It's a form of lying about what you believe, not some kind of abstract inconsistency in what you believe. And it especially doesn't mean jack shit about whether someone is correct about what they believe. Nor does it matter what they say about someone else.
+Someone is a hypocrite if they lack some virtue that they, themselves, claim that they have. Period, end of story.
+So it depends entirely on why and how they make a claim in support of making fun of religious people.
+If they do it by saying that it's silly to believe anything without personal knowledge of some specific type of evidence for it, and maintain that they aren't silly for believing something that they don't have similar evidence for, then and only then are they "hypocrites".
+But I'd argue that's pretty rare.
+Example: you are not a hypocrite if you say smoking is dumb and still are a smoker -- if you agree that you're dumb for smoking.
+Hypocrisy is all about claims of a virtue that you hold, but do not, not anything about what someone else is doing.</t>
+  </si>
+  <si>
+    <t>If your basis for disliking religion is, say, institutional concentration of and wielding of power and social control, then it isn’t necessarily hypocritical to find irrational stuff like astrology and ghosts appealing.
+If your reason for disliking religion is that it’s ultimately rooted in magical thinking, then giving credence to new age and supernatural stuff is hypocritical</t>
+  </si>
+  <si>
+    <t>That's a very self-centered view: "either believe in everything I don't believe in, or none of it." Is it hypocritical to be a Muslim but oppose Christianity? To choose one scientific theory over another? The categories you've chosen are arbitrary.</t>
+  </si>
+  <si>
+    <t>I'm not religious, I don't believe in any religion at all. Although, I have had some pretty fucked up experiences, some whilst experimenting with psychedelics, and some while going about my every day (non intoxicated) life.
+These experiences have led me to believe that there might be some higher power, or something strange that science has yet to explain. Something involving other consciousnesses.
+I don't believe in religion because I need proof, I need to see it with my own eyes, or to be presented with factual data or science that disproves the theory of there not being a god. Since I've experienced something "spiritual", or whatever, I believe in SOMETHING, but it's not religious.
+Am I a hypocrite?</t>
+  </si>
+  <si>
+    <t>Consider the moral systems that go with religion. Every religion comes with a code of conduct of what is "sinful" or prohibited. Astrology and the like do not. Therefore, if someone wants to make Nietzsche memes trashing your slave morality, its not hypocritical.
+Consider the systemization and structure of religion. Religion has organized leaders spouting policy doctrines and ample, ample history to make fun of. From the King separating from the Catholic faith just to make the exact same faith but let him divorce his wife, to the Crusades, to rampant pedophilia and anti-gay movements, to the Russian Revolution-era of promoting religion because it meant people would work harder. No one has sieged empires in the name of Astrology, and thats another bit to make fun of that isn't hypocritical.
+Consider the Jesus figure or God/Allah types in the sky. While Astrology thinks there is some association between planetary alignments and behavior, religions imbue reincarnation, miracles, and bearded men in the sky. While it is dumb to believe in something with so little empirical evidence, its not hypocritical to then make fun of religion unless its explicitly for doing the same. And even then, not entirely because Astrology is a sort of bad-science rather than religiosity. Fortune telling, ghouls, and spirits make this last paragraph more hypocritical, but the first two are still covered.
+Side note: Astrology is stupid.</t>
+  </si>
+  <si>
+    <t>People who make fun of astrology, but believe in things taught by religion, are hypocrites.
+Thought this from this angle?</t>
+  </si>
+  <si>
+    <t>I know this isn’t going to change anyone’s mind, but I would be absolutely shocked if I met someone who made fun of religion yet believed in astrology lol</t>
+  </si>
+  <si>
+    <t>People of one religion mock people of different religions. Believing in one supernatural thing doesn't mean respect for other supernatural beliefs.</t>
+  </si>
+  <si>
+    <t>Believing in ghosts is harmless.</t>
+  </si>
+  <si>
+    <t>I just want to note that there's nothing logically inconsistent with believing in something like ghosts and the non-existence of a deity. It's perfectly possible for consciousness to arise from material processes but not to require material processes for its continued existence. We "see" images of stars that no longer exist in the night sky; the light wave can live longer than the thing that created it. It's at least possible that ghosts are something similar. Thinking of a continuation of consciousness as living on as a ghost is, of course, farfetched, but not logically inconsistent with a belief in God or something like it. There can be ghosts and no God (though I don't think there are either).</t>
+  </si>
+  <si>
+    <t>So your premise is that if people criticize one particular thing as being illogical, then they have to be perfectly logical and consistent in every other aspect of life. Otherwise, their criticism of that thing is null and void?
+Yes, I realize that you didn't say "null and void". You said that they are hypocrites instead. Two points to be made here:
+So what? Just because people are inconsistent or even hypocrites doesn't change their original assertion of religion being bogus in any way. Many people use your line of reasoning as a ad-hominem attack, which is attacking the person rather than the argument. What's your point here? Are you discrediting the person to back-handedly support religion? Or are you saying that people have their illogical quirks and foibles and religion and astrology can be clubbed into the same bucket? So we should all be understanding of all these illogical things, especially when they are harmless? Note that if this is the point you are making, fair enough. But then spell it out this way, because it has its own nuances and complexities.
+For example, organized religion is very different from the private practice of religion. Organized religion has objectively caused massive levels of violence and suffering, across religions and across time. Astrology has also caused grief and suffering but it is a drop in the bucket compared to organized religion. However, if you're talking about people's private beliefs and what they choose to believe, then fair enough. So comparing organized religion and astrology is false equivalence. It is a bit like comparing a military grade missile or bomb to a pocket knife in terms of how it has impacted humankind.</t>
+  </si>
+  <si>
+    <t>Everyone believes their own brand of bullshit is special and holds lower standards of evidence for stuff they believe in. This is far from unique to religion/spirituality.
+There's all sorts of nonsense people believe about all sorts of things because they read a single article or heard it from a friend. Some of us scrutinize our beliefs more than others but none of us are exempt from believing BS so we're all hypocrites to some degree.
+To know how much of a hypocrite she is I'd need to know exactly what she believes, how she came to those conclusions and whats supporting arguments she has.</t>
+  </si>
+  <si>
+    <t>I'm going to take these out of order.
+This is a strawman. There is no meaningful constituency for the argument that the *only* goal should be income inequality. I believe that income and wealth inequality are particularly bad problems in our society, but that doesn't mean I think that any way of addressing that would be good, because other things are important too. The most efficient way of achieving that one goal is, obviously, the destruction of the human race, but no one is advocating that as a solution to inequality for this reason.
+I believe what you are referring to is what is called the marginal propensity to save. It is true that the wealthy have a higher propensity, and marginal propensity, to save (meaning that as a proportion of the money they have/make, they spend less and save/invest more). However, this is not necessarily a good thing. Consumption is necessary for the economy as well. Many of the recent economic problems we have had are due to a demand deficit, i.e. consumption is too low. How many industries are millennials killing these days? This is largely because younger people don't have much money. It is also independently clear that investment is too high. I work in finance, and in the profession it has been clear for a while now that there has been a massive shift in power from investors to companies. The IPO boom, asset bubbles and prices, the rise of unicorns, multiple share classes, SPACs, etc all are indicative of the fact that investors, the ones who supply the money, have decreasing negotiating power relative to those supplying vehicles for that investment (that is, companies), and a central reason for this is a *massive* increase in the supply of investment dollars. We have too much investment and not enough consumption. The obvious solution to this is to move money from investors to consumers; that is, down the income/wealth distribution. Now I am not claiming that this is the main reason to decrease the income and wealth gaps, but the point is that the current distribution is causing economic problems, even from a mainstream economic perspective, counter to your argument.
+Let's imagine that we lived in a world where everyone's needs were taken care of, and still had massive income/wealth inequality of the kind we have today. What would happen is what is happening now. The wealthy would use their massive wealth to maximize their cultural, economic, and political power. They would use that power to increase their wealth, which would increase their power, and so on. We are all familiar with some potential mechanisms for this. They would start and expand wars, give themselves and their companies tax breaks, steal from their employees, strip and privatize the welfare state or whatever exists in its place to support the people, and ultimately society would no longer have such a strong baseline standard of living. This is in fact exactly what happened to the United States since the post-war boom. Of course there were massive wealth disparities then as well, not to mention massive proportions of the population that were left out of the boom, often intentionally, but the same story can be told for its beneficiaries. There was, for a while, a historically large middle class, but the mechanisms of extreme wealth accumulation and the political power of that wealth have grown in tandem over the last 50+ years to the extent that even that secure middle class existence is increasingly unrealistic for a massive proportion of the population. The point here is that wealth is power, and in a democratic society where we value all people, it is necessary to prevent anti-democratic interests from exerting undue influence over our society, and extreme wealth is the most obvious and powerful such interest. They are likely to use that influence to support their own ends, usually at the expense of the rest of the populace. We have clear and direct evidence of this in our immediate past. When such powerful interests exist, no societal arrangement is stable that does not benefit those interests.</t>
+  </si>
+  <si>
+    <t>I believe that society should aim to have a good baseline quality of life, rather than income equality.
+First of all, if the baseline is good, who cares if some people far exceed that baseline? Why does it matter how much income varies if the lowest in society are still OK?
+Secondly, the richest in society, often referred to as 'the 1%', often use their income the most productively, investing in new business ventures which boost the economy and benefit everyone.
+Finally, if income equality is the target, everyone being equally impoverished would be considered a good outcome. However, if a good baseline is the target, everyone being at least OK financially would be considered a good outcome.
+Prepare to change my view on this: I'd love to hear your opinions on this one.</t>
+  </si>
+  <si>
+    <t>income equality' is a REALLY BAD term implying everyone should have equal income (terrible name)
+really it's to combat the wildly UNEQUAL shift that's happened in the last 60 years, our grandparents enjoyed a robust safety net and good wages because wealthy people were taxed, now they're not.
+the goal is to partially level the field, not completely flatten it. the motivation for this is because the bottom baseline is unlivable, because it all went to the top.
+none of this misperception is your fault, it's a TERRIBLE NAME that would lead any logical person to conclude what you did (equal means equal)</t>
+  </si>
+  <si>
+    <t>I agree, and I’d also add that material quality of life is only part of the issue; socially many of us are in really bad shape. While we see growing numbers of homeless and car-living people, we don’t see the isolated people, even as they’re right in front of us. Yet like the homeless, the isolated are shunned due to the same mammalian instinct to isolate the weak from the herd.
+Baseline quality of life includes a friend or two and achievable relationship prospects and progress for those who need it.
+The ability to attain a fulfilled social life is growing more difficult, and is going unnoticed by those who still have theirs, even as the mass shooters are as in everyone’s face as the homeless laying on the sidewalk or holding a sign.
+I’m convinced we’re not going to see a “free market” individualist solution to the social evaporation going on. Lonely.gov needs to be a thing.</t>
+  </si>
+  <si>
+    <t>Based on the other comments, you're arguing against a strawman. No one is literally arguing that all income should be strictly equal - rather that the disparities should be reduced to reasonable levels. Having billionaires while millions are unable to afford food and healthcare isn't healthy for society. These people are kept functionally in slavery - if you can't afford to take a day off work, you can't afford to take an active role in society. You can't take care of your health or your future, and you can't educate yourself.
+Finances aren't the only (or even the primary) form of risk. Bill Gates was able to take the risk of dropping out of college and starting a business because even if it went bust, he still had well-off parents and friends to fall back on - he could have just gone back to college and continued with his wife. A poor student who's the first in their family to make it to college doesn't have that luxury - they have no such fallback. They don't even have rich family friends to provide the initial investments. There are entirely different classes of risk.
+A healthy society requires people who are educated and able to participate in it. The baseline for participation is for people's basic needs (food, housing, healthcare, internet access) to be stable. If you're constantly worried about whether you can pay your next bill or if a trip to the hospital will ruin you, you're not able to get to that kind of stability. Income inequality is about the fact that far too much of productivity gains are given to the few rather than to those actually responsible for them. It's not about risk, it's about labor and exploitation.</t>
+  </si>
+  <si>
+    <t>Isn't the point that income equality, or atleast minimizing the disparity between incomes, will lead to a higher baseline quality of life?
+Regarding the baseline being good, people won't care, that makes sense assuming the baseline is a fixed point, how would that baseline be defined? Is it just enough to eat? Does it mean owning your own home? Does it mean earning above a certain amount? Is that fixed or does it depend on your geographical and socioeconomic circumstances?
+What you say about the 1% I feel is misleading,
+People outside of the 1% cannot have as much of an impact as they do not have the funds to do so, so I think you have missed the point. And you say "often", which is a bit ropey to me. How often do they actually do this? And is this compared to how often they spend money lobbying or using corruption to further their own goals as opposed to society as a whole?
+And when you mention that if income equality is the aim, then everyone being impoverished would be considered a good outcome, I agree, but that's only theoretically. When you consider that the actual outcome would more likely be no one is impoverished. The idea is to spread the wealth, not remove it, the total wealth available hasn't changed, just moved.</t>
+  </si>
+  <si>
+    <t>Because humans are social animals that seek validation and if one groups of people is constantly denied that validation by being kept at the bottom, that's rather destructive as it can easily lead to depression and/or aggression.
+Not to mention that money entitles you to someone else's time. Either by buying services or by buying goods that had cost them time and passion to make, so a massive economic inequality also always includes a social inequality with the corresponding tension. Not to mention that it has an influence on democracy as well. If one person like Rupert Murdoch being able to buy an entire media apparatus to push his conservative agenda that's not the same right to free speech as a poor person standing on a soapbox. The ability to draft laws and write studies supporting your bullshit or again standing on a makeshift soapbox.
+It doesn't have to be 100% flat everybody the exact same, not everybody needs glasses, prosthetic knees or whatnot, a person doing physical labor needing more food than one working a desk job is stuff that everybody can understand without feeling invalidated, but if one person makes as much as 10000 other people you're incapable of arguing for that with special needs or special abilities and that leads to tensions.
+Not really, paying people to push money around is not productive. Productive is what people actually produce and the most productive work is done by those who receive the least benefit for that.
+No the target is everybody having a roughly equal income AND not be impoverished. Also how exactly do you plan to raise the baseline of society with the rich consuming 99% of the stuff? I mean how much do you have to grow to retain that distribution and still have the bottom half not starving? Or do you limit the scope of what you consider society and simply don't care about the 99%?</t>
+  </si>
+  <si>
+    <t>A single person sure as fuck shouldn't be able to amass millions in personal wealth. Hands down, the caste system capitalism is creating/worsening is fucked. If you think it's working... You are fucked too.</t>
+  </si>
+  <si>
+    <t>Hmmmm. What I've heard from anthropologists is that perceived quality of life is often far more important than overall quality of life. I sort of see the point, people in reclusive towns in rural areas seem to be pretty happy as long as they don't compare themselves with others (pretty sure Amish people could be an example but idk).
+I personally take anthropologists takes on stuff with a grain of salt (they believe sapiens are like 800,000 years old lmao) but I haven't read the scientific literature regarding the matter. I imagine there must be some interesting correlations between the Gini index, per capita income, and average happiness index; food for thought.</t>
+  </si>
+  <si>
+    <t>There is no evidence to support this claim. In fact all the evidence points to the contrary. You're regurgitating a myth about "trickle down economics". The reality is that the wealthiest actually do not use their money productively while the poor and middle class spend close to 100% of their money into the economy creating growth, jobs and wealth. There is so much info on this and so many studies done on it is baffling that you are making this claim.
+I'd love to hear where you got your data from here or ask if you've ever examined this point more in depth before formulating your view.
+"A London School of Economics report by David Hope and Julian Limberg examined five decades of tax cuts in 18 wealthy nations and found they consistently benefited the wealthy but had no meaningful effect on unemployment or economic growth." But I can link you many more sources that discuss this claim in depth if you'd like to go over them.
+How do you achieve this? What constitutes a baseline and who decides it?
+Is housing a baseline? Is food and water? Is the internet? Is a cell phone? Is an education? How much of an education? Who pays for all this? How?
+Your view is vague but fails to examine the issues with what you are saying. In order to provide "a good baseline" you need money. In order to get money you need to tax people. If you are taxing people who do you tax? The poor or the wealthy? Taxing the poor more runs contrary to our view of giving people a baseline who are already struggling to make ends meet. Do you see the logical loop we are in here?
+Income inequality is a problem when it savages the "baseline quality" of life of millions to enrich a small few. That is what is happening today and what has been becoming worse for years and years. Productivity has gone up, but workers have less rights, less representation, pensions are rarely seen outside the public sector, housing has gone up, cost of living has gone up and wages have not kept pace at all. What is the cause of this? Well you see money is zero sum. That means that if productivity is going up, there should be MORE money now than ever so why does the middle class and low class have less than it ever did? The answer is simple, that is because more of it has gone to concentrated to a small few. This is a trend measurably and outlined very clearly.
+So let me ask you, what do you think happens if more money is siphoned from the middle and low classes into the hands of the super rich? The societal effects are extremely detrimental. The baseline quality of living goes down. It is already documented that millennials are the first generation in an extremely long time that will have a lower quality of living than their parents. This is a product of this trend and it will only get worse for future generations if it continues.
+This isn't necessarily the target. You are straw manning a bit here. Yes there are many people who believe all income should be 100% equal, there are also far more people who don't believe this.
+It is more of a spectrum. Income inequality can be measured. In economics there is something called the "Gini Coefficient" which measures income inequality and how severe or not it is.
+"The Gini coefficient measures the inequality among values of a frequency distribution (for example, levels of income). A Gini coefficient of zero expresses perfect equality, where all values are the same (for example, where everyone has the same income). A Gini coefficient of one (or 100%) expresses maximal inequality among values (e.g., for a large number of people where only one person has all the income or consumption and all others have none, the Gini coefficient will be nearly one).[2][3]"
+What the Gini Coefficient can help us see is that countries with more income inequality have worse health. https://jech.bmj.com/content/59/2/158
+Countries with lower Gini coefficients have less relative deprivation, that is the sense of deprivation one feels from having less than others. In turn these countries also generally have higher levels of overall satisfaction. https://www.jstor.org/stable/1883197?seq=1
+tldr
+who decides baseline
+who pays for the baseline, how?
+higher income inequality has negative effects on a populace, while lower income inequality has positive effects. goal should not necessarily be pure income equality, or unfettered inequality but it is reasonable to say that lowering income inequality should be the goal at the very least. to what degree is up for debate.</t>
+  </si>
+  <si>
+    <t>People that still believe the 1% is using their income productively by investing in the economy and boosting it is delusional, they have created and tailored a system where owning lots of money is the easiest way of getting more of it (because of banks, deregulation, tax havens...), and it's not by creating jobs because if there are any they'll be exported to the cheapest country where they have no or little interest in the well being of their workers because that costs them money. Trickle down is bull shit! And bailouts for billion dollar companies are crap too, where are their billions when they need them in dire times?
+So do not to trust them, especially when management and executives get raise after raise each years in the rage from tens to millions of dollars while the workers that have to 'be more productive' each year get less and less or downsized. Fuelled by the greed of the shareholders that rewards them for more profit but blissfully ignoring that aforementioned profit is extracted from somewhere else.
+Working (as in having a job) does not pay off anymore and it's their fault. Tax wealth and profit more and labour less. Just look at the American tip culture in bars and restaurants, customers don't have to pay your wages, your boss does. No-one should have to have multiple jobs, rely on food stamps or have to pay an arm and a leg when they are sick. Good education should be free too but the 1% knows that educated people are bad for profits because they might actually start to demand what they are owed.</t>
+  </si>
+  <si>
+    <t>if by using their income productivley, you mean spending money union bashing (something directly detriminetal to the baseline quality of life or more precisely the material conditions of the working class), buying out competition to absorb into their monopolies to destroy competition (something that allows them to face less ccompeition and thus offer less to their workers), amongst other practices that harm the working class, then you're correct.
+But thats not what you meant? The "meritocracy" of american and on a wider scale, capitalist dream, is a sham for the most part. The owning class, shrinks every year but grows in wealth as crises and market monopolisation accelerates and you think this is because theyre smart as opposed to basic observations made by many economists of the tendancy of capital to accumulate and consolidate.</t>
+  </si>
+  <si>
+    <t>Well, the position is that a baseline quality of life generally correlated with a baseline income. The baseline we have now is pretty damn low, you can hardly even buy a single Big Mac for an hour of work on minimum wage.
+Although, you certainly make a good point (My views are pretty similar to yours, I’m just playing devil’s advocate). People vote with their money and buy products on Amazon, then complain that Amazon makes too much money.</t>
+  </si>
+  <si>
+    <t>I mean sure, in the most abstract theoretical way possible. If this was a video game and you could install a mod to set a minimum quality of life. Unfortunately in the real world somebody has to pay for it. Is that a burden that really ought to fall on middle class families? Mom or dad picking up a few extra shifts of overtime so they can maybe pay down the mortgage a little and buy nice Christmas gifts for the kids? Or maybe the guy with the $400m yacht wouldn't really see that much of a reduction in his quality of life if he had merely a $30m yacht.
+(I mean, don't ask Congress the answer to that question, because it'll be that we should simply borrow until eventually someone figures out how to pay it off.)
+We're never going to achieve complete economic equality, nor would we really want to. But to the extent that you enforce a minimum standard of living, the wealth gap is often a pretty good measure of who's paying for it.</t>
+  </si>
+  <si>
+    <t>They use their income most productively because they have the most income to use on capital-gains projects. People who live check-to-check don't have any money to invest. The causation is not that wise investors are more likely to become rich; it's that rich people just happen to have capital to throw around. There's nothing special about rich people, so keeping them around doesn't yield the benefits you seem to believe they do.
+Rather than letting the lion's share of our national capital be the private plaything of a handful of rich elites, why don't we actually live up to the promise of democracy for the first time in our history? Let the people decide how to invest the money, not the oligarchs. Guarantee you that the people will vote to invest the money in public works projects that benefit everyone.</t>
+  </si>
+  <si>
+    <t>I get where you’re coming from. But the problem with income inequality is that the rules of society aren’t unbreakable. They aren’t written in stone — so to speak and billions of dollars start to warp the laws of governments the way massive objects warp the laws of physics in spacetime.
+The issue isn’t mere envy (although for some I’m sure it is). The issue is that with large enough wealth accumulation, it threatens democratic self-governance. It’s hard to really understand just how much a billion dollars is. If you haven’t seen it, check out the Bezos wealth shown to scale demo. What makes a government work is a structure of incentives and ownership of some common infrastructure and the ability to legislate and enforce laws. Given enough money, a person can be functionally above the law. Billionaires realistically have that much money. Look at how Jeffery Epstein lived. That’s not possible but for massive wealth inequality.
+In another more abstract sense, money is power and power corrupts. Not just the people who have it but the structures around them. Democracy works because it diffuses the corrupting force of political power over a large number of political offices and the massive number of voters who control access to that office. If any one office accretes too much power, it can threaten that democracy. Concentrated money is just as corrosive. Wealth inequality can erode democratic institutions and has in many kleptocracies.
+Ultimately, how resources are distributed is an effect of the laws that shape society. Make the laws slightly different, and different people end up on top. Theses aren’t inevitable outcomes of hard work and “deserving” to win. Sure, people who work hard tend to do better in a just society — but black-hole level wealth is not the intended outcome here, nor is it required to have a functioning economy. Ultimately, it’s a threat to one.</t>
+  </si>
+  <si>
+    <t>Do you believe that it’s fine if someone lives longer, just because they’re richer? Or is expected lifespan one of those things that is included in “the good baseline”? If so, how long should the expected lifespan be to meet the good baseline?</t>
+  </si>
+  <si>
+    <t>Here's the problem with massive income inequality: power.
+It's not about some people having a much nicer life. That's going to be true regardless of income inequality anyway, because people aren't the same.
+The problem is the 0.01% having massive degrees of power over large numbers of people's lives, both political power and economic power.
+If a small number of people control the only way for anyone to rise up out of the minimum baseline, while at the same time having disproportionate influence over government they are basically feudal lords.
+It doesn't matter than they have yachts, it matters that they control the government through the politicians and have domination over people's economic lives.
+But I'm not going to disagree that we should strive for a baseline. That's going to eventually require some kind of Universal Basic Income, because too many people are being replaced by automation... and indeed it would be beneficial if no one had to work to survive and thrive.
+But that last bit is a problem... no matter what baseline level you set, people deserve to thrive at least at some reasonable level that society can afford to provide, not just survive on beans and rice living in a hovel... and the question is... how do you set this minimum baseline? What constitutes "sufficient" housing, food, clothing, communications, entertainment, and most especially healthcare?
+And most importantly, who's going to decide that? If that decision is going to essentially be made by the 0.01%... then we're back to feudalism.</t>
+  </si>
+  <si>
+    <t>Essentially yes the aim should be to have no poverty and anything else is secondary. Most people and systems would agree with that aim the argument is more about how you go about this. Communism tried to eliminate poverty by the even redistrubution of wealth. In part due to horrible mismanagement, the rich became poor or dead, and everyone except the party members remained poor. Which is another problem, in the current society wealth is power, in a communist system no-one has much wealth so other things like authority becomes an even greater source of power, Russian communism for example had no safeguards to prevent that being abused.
+Reaganomic Capitalism the idea is to enrich the wealthy and then the money trickles down until there is no poverty. what actually happened is that the wealthy took the money and then leveraged it to get more money security and resources and almost everyone else, except corrupt policitians, got poorer. It's masked by advances in technology which have exponentially increased the overall value of the economy and the available goods, without that everyone but the 1% or even 0.1% would by now be eating mud with a stick
+They pollute the most, by far, and spend money disproportionately on exported luxuries, which takes money out of the local economy.
+If no one suffers it would be fine to have very rich people the problem is that people suffer because there are rich people, those without economic power suffer want because the labour and resources they need are instead used for the luxuries and wealth security of the rich.</t>
+  </si>
+  <si>
+    <t>Income inequality started to grow more drastically around the 1980s and it has continued to grow at an alarming rate since then. One reason for this is corporations began focusing more on increasing shareholders’ value by any means necessary. This often meant cutting employment and wages to as low as they possibly could. It also often meant that whenever there was an increase in profits, they would often use money for stock buybacks, which became legal in 1983, boosting their stock value as opposed to investing these profits in higher wages. This sounds like a reasonable thing to do, but none of the gains in profits have been going to employees anymore. And since executive and CEO pay is tied to the company’s stock price, this is even more of an incentive for them to buy back their own stock as opposed to reinvesting the money into their workers. We have seen the trend of the CEO to worker compensation ratio growing from 20:1 in 1965 to now 320:1 in 2019. Have CEOs and executives become that more productive as compared to their workers?
+Now to your first point, there are many reasons why I’d say income inequality matters even if people’s basic needs are met. One reason is the relationship between wealth and power in this country. To understand this, we first need to understand that markets don’t exist in nature. They depend on laws and rules which come from legislatures and chief executives who enact laws, administrative agents and departments who implement laws, and courts who interpret laws. In other words, our government is constantly changing how the market and our own society works. Now, we need to understand the vicious cycle of wealth and power. Concentrated wealth at the top provides more clout to get changes in laws and regulations as well as their interpretation and enforcement. Often, these changes in laws and regulations will be made only to increase the wealth at the top. And then, this generates more wealth and power at the top. We can see the results of this cycle in the rise of corporate election spending. For example, Proposition 22 was the costliest campaign taken on by the gig work companies. They had the resources to add their own proposition to California’s ballot because they were worried about their profits being cut, and they spent an exorbitant amount of money influencing public opinion on this. Essentially, I’m trying to argue that even if everybody had their basic needs met, do we really want to live in a country where the preference of the average American only has a minuscule impact on how our country is run?
+To your second point, I think others have pointed out already that we have seen the results of trickle-down economics in the past 4 decades. It turns out, most of the wealth accumulated does not go back to employees, but rather it gets hoarded by those at the top by an increasing amount each year. We have seen that despite the increase in America’s wealth and economy and the rise of the stock market, the majority of gains goes to the top. So with the natural increase in costs and expenses each year because of inflation, the average American is losing purchasing power since their wages are not following suit. With no purchasing power, economies will come to a halt, often resulting in a recession. Instead of relying on the 1% to decide which business ventures to invest in, I’d rather have the average American make enough money that they can decide to take on their own business venture or project on their own.</t>
+  </si>
+  <si>
+    <t>There are many other reasons (phrased here in the first person to match your own examples, not necessarily to reflect my own views):
+I am not convinced that I can see the factors at play clearly enough to know which outcome is desirable. What if I prefer one party's policies, but think the other is actually more likely to produce favorable global conditions in the long run? How can I pretend to know what is best for the future of an entire country?
+I view the act of voting as a complicit act of corruption. Political parties are by their very nature corrupt and possess perverse incentives. Voting actually is what signals I am content with this system, not the other way around.
+I think both parties ignore the biggest issues. Lobbying, war on drugs, factory farming, [whatever other issue], neither major party has taken any sort of stance on these.
+I think voting for any person is abdicating freedom by saying I am ok with someone else voting for me. In the US at least it is a representative electorate, thus my vote is for a mere proxy, which I view as a grotesque abstraction for enacting the will of the people (especially if coupled with the aforementioned misaligned incentives).
+I view voting for the Presidency, whose principle responsibility is commander and chief of the military and executive branch, as a patently absurd proposition. This is a position which actually warrants appointment based on experience. The codes for nuclear devices should not be won via a popularity contest.
+I am frankly super annoyed by the holier than thou "vote or die" type preachers who blindly believe so strongly in their own candidate they cannot fathom how anyone could not, and continually straw man and weaken discourse via political pandering. So I don't vote out of spite.
+This is by no means exhaustive, but should at least explore some other lines of thinking abstainers may have in their minds that do not fit cleanly into either of your buckets.</t>
+  </si>
+  <si>
+    <t>I was speaking with a friend of mine earlier this week about voting. I had already filled out my mail ballot, and asked him how he was going to go about voting for this election. He told me that he was not planning on voting, and gave two points on why he made this decision:
+"Voting for the lesser of two evils is still voting for evil."
+"[He] would vote for a third-party, but because they're not likely to win, why bother wasting time to go vote when it won't really matter?"
+These aren't verbatim quotes, but that's essentially what I understood he was saying. He wasn't interested in pursuing that conversation further with me, and truthfully neither was I, but I was still curious about the implications of this decision.
+From my current perspective, I can see two stances being argued based on the decision not to vote:
+"I don't like the stances of the two major candidates, and I refuse to vote for one just because I dislike another candidate more. I disagree with the ways that either of the two major candidates would run this country, and choosing not to vote says that I refuse to support either candidate." This seems to be the stance of my friend, who to my knowledge has done at least some research into both the Republican and Democratic presidential candidates. He disagrees with a number of the positions that either candidate holds to on various issues, and justifies his decision to not vote primarily on this.
+"Not liking the stances of the two major candidates is not a good justification to not vote, especially since there are third-party candidates to choose from as well. Though I may not agree with either of the two major candidates, choosing not to vote says that I am content with the way in which the government is currently run, or at least content enough that I do not wish to see it changed." This is more of the stance I would take on the situation. I personally have not done enough research on my own to feel comfortable with arguing one major candidate over the other, and that's on me. Even still, I felt it important to cast a vote, and I did so.
+The primary distinction between these two arguments is this: the first says that the implications of not voting are that a person disagrees with both major candidates, and thus are staying neutral. The second says that the implications of not voting are that, even if a person disagrees with both candidates, he/she is accepting enough of the incumbent candidate's stances; that doesn't necessarily mean they support the candidate in question, but they don't see a need to change how the government is currently run.
+To clarify again, I'm not asking about whether or not we should vote, and I'm not asking about whether or not it is acceptable to vote for one of the two major candidates simply because we dislike the other more; I just want to know what choosing not to vote should imply to an outsider's perspective. My personal perspective is on the second point, though I would be interested in seeing a defense for the first, or even an entirely separate, stance on this topic.</t>
+  </si>
+  <si>
+    <t>I would argue that there is really no good reason for an outsider to make any assumptions about the motivations and intentions behind someone's vote (or lackthereof). First of all, it's not really an outsider's business, and they don't really need to understand another person's motivation.
+Secondly, and probably more importantly to this particular post, I think there are actually quite a few reasons someone might decide not to vote. Here are a few off the top of my head:
+They live in a place where their vote is not likely to make a meaningful difference, so they feel disenfranchised. For example, a Republican in California can reasonably assume that their state is going to go to the Democrat regardless of whether or not they vote.
+They might feel genuinely conflicted, uncertain, or too ignorant. In your post, you mention that you don't feel confident arguing one candidate over another, but you voted because you felt an obligation to do so. Some people approach that situation very differently. Some people feel that they should not vote unless they are confident they understand the implications of their vote. I myself have refrained from voting for this reason. And even this year, I left parts of my ballot blank, voting only for areas where I felt I was informed enough to be comfortable weighing in.
+They might have their focus on a particular issue that they don't trust either candidate to address. For a random example, let's say that both candidates favor the death penalty, and a person's conscience won't let them vote for anyone who favors the death penalty.
+They might be fed up with the status quo and/or tired of voting for the lesser of two evils. This touches on your friend's logic and, I suppose, the meat of your point. To address one of your claims real quick, you mention that not voting means they don't see a need to change the way the government is currently run. I would argue that they might see a NEED to change the way that the government is run, but they don't see a PATH to actually make positive changes. "I don't like the current system, and I would like to see it change, but I don't see how our alternative option here is likely to make the changes I want to see.
+You don't trust the system to actually count your vote, so you don't bother. This is especially valid in this current client where claims of potential voter fraud, lost ballots, and corruption are flying in all directions.
+And to clarify, I'm not trying to suggest that these are all good reasons. You could argue that 1 is defeatism, 2 is laziness, 3 is tunnel vision, 4 is pointless stubbornness, and 5 is defeatism again. So you can debate me on these particular points if you want, but their specifics are sort of a tangent for me.
+The main point is that someone choosing not to vote could mean any number of different things. Just like someone choosing to vote might mean any number of different things.
+As an outsider, why do you feel the need to make assumptions about the motivations and intentions of other people at all?</t>
+  </si>
+  <si>
+    <t>The building you're standing in is falling down around you. Do you:
+run towards the stairs knowing you're not going to make it out?
+Toss yourself out of an open window knowing it's also certain death?
+Make peace with yourself in your final moments because no matter what, you die.
+I felt wrong last election. Maybe others didn't see it but for me, I was voting for the lesser of two evils. I have regretted it for four years. The stigma of my vote has followed me as I've watched what happened to our country. I will not do that again. I have voted every election since becoming an adult but this isn't even an election in my eyes. It's a battle between two people who shouldn't hold that office. One of them will win and I can't be a part of electing either. I've been sick all day over this thought, it doesn't feel right, but it wouldn't feel right to have any hand in what I see now as electing someone to office in such underhanded politics as I feel we have.
+You say that you blindly picked a side. You have that right, just as I have the right to not vote, but I really don't see either of us as having done right by our country in this situation. That's not me blasting you, but it's how I feel. One of us refused to go to the polls and one of us chose blindly. Neither of us are blameless in the outcome.</t>
+  </si>
+  <si>
+    <t>I guess in your friend’s defence one of the principle reasons for not voting is that voting reinforces the mandate of the winning party/candidate</t>
+  </si>
+  <si>
+    <t>Where I disagree is that I'm not sure where you're getting the idea that someone not voting means they're content with the current system.
+If someone chooses not to vote, it could easily be a matter not of them not wanting the system to change, but believing it simply won't change, regardless of who they vote for.
+For an extreme example, imagine if the two candidates up for election were literally 100% identical. Say the same things about the same topic, and are basically clones of one another. In a case like this, someone could easily conclude "Well it doesn't matter who get's elected, because it's going to be basically the same thing either way, therefore there's no point in voting."</t>
+  </si>
+  <si>
+    <t>"Just change something. Anything. For change's sake."
+I don't think just making changes for change's sake is wise.</t>
+  </si>
+  <si>
+    <t>Voting is just a corrupt mechanism that allows populations to believe that they are in control when in fact it is the opposite, and these populations are controlled into voting for one of two candidates that ate essentially the same candidate. Bipartisanship has ruined the democratic process in government of many countries.</t>
+  </si>
+  <si>
+    <t>Let's pretend we are roommates in a world where bars, restaurants, etc are open without restrictions. We are relaxing on the couch watching TV and I ask "Should we go out and do something or stay in?" If you are satisfied with the current state of staying in and want that to continue, which would best express that? Would it be saying "I don't care, you pick" or "Let's stay here"? Because it seems like you are saying the former is the best way to say it, while I would argue the latter is the best way.</t>
+  </si>
+  <si>
+    <t>I think there's a third category, laziness. In fact, I'm convinced this is the only reason people choose not to vote; they simply cannot be bothered to go through the motions and are trying to cover it up with reasoning and arguments about "evils."
+Just go vote. It doesn't take that long and isn't hard. Even if it was meaningless, you've wasted more time on reddit today alone than the time it would actually take you to drive to your polling center, scribble on the ballot, and hand it in.</t>
+  </si>
+  <si>
+    <t>I disagree. This was the first year I voted.
+Last presidential election I wanted to vote but I worked two jobs for a total of 55 hours a week. I spent roughly 80 hours a week working on school either in class, or doing projects or networking, and I rode a bicycle to all these things, averaging 40 miles a day for a total of 3 hours a day that also required me to eat, shower, and sleep more than most people.
+I just didn't have time. All these other things were more immediate priorities. Lots of people have other priorities.
+Then before that election, I just didn't believe in the voting process. I still don't, but mailed in in case I'm wrong this year. My vote gets sent off for other people to count in a way in which it could physically be lost or altered, to be counted up against a ton of other people's votes to conglomerate into an electoral college vote to be counted against other conglomerate votes. Unless I live in a swing state my vote counts very very little. And if my state population compared to it's electoral votes is high, it counts for even less. And the candidates we are voting for got to their positions by being in a social network of rich people who don't understand my issues and have no reason to care about my issues. Plus I feel alienated by both primary political parties.
+So it's easy to feel like every vote is a vote against yourself, and simultaneously does not realistically impact the outcome very often, or that the system is rigged from the start based on the candidates who are available and the shady election process.
+I voted this year because I had time to fill out a mail in ballot, so why not? But only for candidates I had researched. Blind party line voting doesn't seem constructive either.
+But there is certainly more reasons other than contentment to decide not to vote. Also protesting by not voting is valid just like voting third party is valid protest.</t>
+  </si>
+  <si>
+    <t>There are plenty of reasons to not vote, and being content with the way things are currently running is not one of them.
+If someone is content with how things are running, they would continue to vote for the current candidate/party to maintain the state of affairs that they are happy with.
+As for why someone might not vote, one of the absolute best reasons not to vote is summarised in your post.
+If you can't argue the merits of one candidate over the other, you don't know enough to vote, so you shouldn't.
+Choosing not to vote may be that you don't know enough to vote, or that you dislike all the options, among a host of other possibilities. In a two party system, a third party vote really is a wasted vote, so much so that you might as well not bother.</t>
+  </si>
+  <si>
+    <t>At a certain point, who holds the responsibility?
+If, every year, I find every candidate I am given the option to vote for is a bad choice, is it my responsibility to vote anyway or the decision makers' responsibility to provide me with someone worth voting for?
+If a vote is a representation of speech, then for it to be free speech, I must also have the option of staying silent if I choose to do so.
+Without the option of staying silent if that is what best represents my voice, I don't have a freedom of speech. I have either an obligation or a requirement to speak, and that is distinctly different from a freedom of speech.
+If both or all candidates are bad, then not voting best represents my voice and that's what I should do if I want my voice to be heard.</t>
+  </si>
+  <si>
+    <t>Your stance overlooks a key factor. (Several, actually)
+Abstaining sends a message to the least bad candidate. That a vote must be earned, and that they have failed to earn it. This is exactly what low voter turnout means.
+Your vote is not likely to change anything. Like, really not likely. Like, lottery jackpot unlikely. In fact, as elections get closer (where your vote is more likely to impact), the likelihood that the election will be decided by precisely 9 Supreme Court votes increases. This is even more pronounced when talking about a third party.
+The closest analogy would be, let's say you have three choices to combat global warming.
+A) write a dissertation on what needs to be done, and throw it in the garbage, hoping that an influential person fishes it out of the garbage before it goes to the dump.
+B) post your dissertation on conspiracy flat earth forums.
+C) do neither
+Would it be fair to say you support global warming if you don't choose a or b? Or do you recognize that neither solve the problems that need solving, so neither earn your support?
+It is a reasonable position to say neither candidate solves the problem. It is reasonable to withhold your vote from your party until your party returns to the ideals it professes to have. Change doesn't happen when you swallow the party line. All that happens is you get caught and reeled in.</t>
+  </si>
+  <si>
+    <t>Well for one thing there’s a hell of a lot more on the ballot than just who is running for president. All of that affects your life potentially even more than who is in the White House.
+If we had more participation in democracy we could actually eliminate the two party system and the “lesser of two evils problem”. If people just vote their conscience third parties would be strengthened substantially. Also third-party votes are not wasted because politicians have to court that block of voters. The stronger those third-party blocks are the more strength their policy positions gain.
+Abdicating your power to vote, which is your only power in government in a democracy, is giving it away to special interests and powerful lobbies. We can’t think of it like “it’s only one vote so it doesn’t make a difference.” When you vote your actually strengthening the block of voters that think just like you and when you don’t vote you’re weakening that block.
+Also, you can’t really say you’re happy with the way things are currently because they might change depending on the outcome of the election. You’re just being apathetic and unconcerned about the way things are run. Which is actually abdication of responsibility.</t>
+  </si>
+  <si>
+    <t>I would argue the opposite is true. By voting you are contributing to the, already broken, system and stating "I am ok with how things are being run."
+Participation is compliance. Not voting can take many different forms, and have many different reasons - however voting at it's core says "I see nothing wrong with this system, nor being forced into choosing 2 bad things. I vote for lesser bad."
+Voter turnout is a key indicator of the vitality of a democracy. With this fact in place it's harder to understand why so many people vote at all. Especially given what seems to be a large majority of people unhappy with both candidates.</t>
+  </si>
+  <si>
+    <t>As someone that always votes third party, in a very blue state I know my vote is going blue, whether I vote third party red, blue or don't vote because of the electoral college. I vote third party because I hope one day my fellow countrymen come to their senses. But I know for now it will have no effect on the election. Seeing how little press coverage actually decent candidates get and how the debates intentionally lock them out is discouraging. I also don't see a big difference on the issues I actually care about if you are talking republican or democratic parties. For me the biggest issue is that I'm against American imperialism and both parties are pro imperialist. My second biggest issue is that I want lobbyists out of government. Both parties insiders get rich off lobbyists and ignore the general electorate regardless of their statements to the contrary. The third biggest issue is I'm against infringement of civil rights, both parties supported the patriot act, want to put Snowden in jail, and are cool with upping levels of centralized control. Everything else they argue about to me never seems to really change .</t>
+  </si>
+  <si>
+    <t>So, I think this stems from the idea that caring about race is an option. For people of color, who are treated differently because of their race - it isn’t an option not to care. And given recent history, it’s a bit silly to act as though race is not a factor in the opportunities people receive. You yourself don’t have to treat races differently for racism to be an ongoing issue - if the people of the very recent past put into place systems that subjected people of color to poverty, to limited home ownership, to disproportionate imprisonment, we have to acknowledge the ongoing ripple effects that has today.
+If somebody grandparents were subjected to Jim Crow, and their parents denied homeownership due to practices of redlining, of course that would impact them today. Acknowledging differences in aggregate experience among races is very different from saying ‘this person is inherently, genetically different due to their race.’
+When California in 1996 passed proposition 209 prohibiting affirmative action programs, the result was that people of color were harmed. (edit: removed hyperbole ‘nobody was helped’ because it was distracting to some people)
+So is it worth it to repeal affirmative action programs just on this odd, hyper-literal interpretation of ‘judged not by the color of their skin’ alone? I don’t think it is.
+The problem with color blindness in the way you’re describing, is that it simply doesn’t work to solve problems rooted in recent history. And that’s not to say that you specifically, individually are responsible for the actions of your ancestors - it’s just that our ancestors created a problem that continues to cause suffering today, and needs action to be undone.</t>
+  </si>
+  <si>
+    <t>The way I see it, a true meritocracy in which people are judged purely by the content of their character, not unlike what MLK envisioned, is the only way to ensure true racial and gender equality. For example doing away with hiring quotas in the workplace and instead hiring based soley on their merit, as well as not flying into a craze every time a traditionally white character in a work of fiction is cast as a non-white actor (as long as race is not important to the plot) as well as not v oting for a politician simply because you hare a superficial character trait such as race or sex with them (Kamala Harris, Hillary Clinton etc) are just some examples of this. True racial and gender equality is marked by race and gender being a complete irrelevance and instead a person's merit being the only reasonable metric to judge them by.
+I get the counter argument, which typically goes something like "If we all pretend to be colourblind we won't see racism when it happens" and frankly I find this ridiculous. Firstly, not caring about race and sex doesn't literally mean that we pretend we can't see race and sex. Obviously we can, it just means we don't care about it. Second, we don't have to dichotomise not caring about race with refusing to acknowledge racism when it happens. We can do both. Third, there would literally be no racism at all if everyone was "colourblind". Obviously that will never happen, but the more people that support this idea the better, as it means we come closer to eliminating racism.
+Remember what Morgan Freeman said- "How do we stop racism? Stop talking about it. I'm going to stop calling you a white man and I'm going to ask that you stop calling me a black man."</t>
+  </si>
+  <si>
+    <t>I would argue as a hiring manager who has gone through training for this issue, merit is perceived and often ambiguous. Like others have posted, there have been studies where one candidate sent in two resumes, one with a more ethnic name and one with a more white name. The white name received more callbacks. I’m not saying the recruiter is racist- it’s that they have subconscious beliefs about the “merit” of applicants just based on their perceived race. The only way to overcome these biases is to have these checks and balances in place. There is typically never a # of hires needing to be non-white, its just a metric we look at strongly and try and change our recruiting tactics based on benchmarks.
+Institutional racism sexism etc. has done enough damage that we need to do what we can to actively close the wage and education gap.</t>
+  </si>
+  <si>
+    <t>Fun fact, did you know that MLK was in favor of affirmative action?
+https://harvardllr.com/wp-content/uploads/sites/16/2019/11/Oppenheimer_Vol21.pdf
+The modern view of MLK is a carefully constructed illusion in service of the status quo. All the rough edges got scraped away and ignored in order to create a perfect advocate for not changing anything at all, an impossible standard that no future protest can reach.</t>
+  </si>
+  <si>
+    <t>There is still an amazing amount of inequality in this world when it comes to minorities. Not Celebrating achievements and history with cultures is not the answer to combat racism and prejudice.
+If your answer to combatting inequality is to shrug your shoulders, and say "I don't know why you were passed up that for that promotion," because you're "colorblind" is being just as ignorant as what you're trying to get.</t>
+  </si>
+  <si>
+    <t>Your idea that having a colorblind society is great in theory - in a vacuum - but it does not take into account the context. Countries have a history of colonization, defeat and bias towards the majority. Laws and societal norms are formed by these majority, usually causing the minority undue negative treatment.
+A colorblind society is almost impossible in most countries; that's not the way they are set up. You'd have to ignore hundreds of years of oppression, civil rights, suffrage, slavery, poverty, etc to get everyone to agree that a meritocracy is legitimate. As it is now, I imagine most western countries would call themselves a meritocracy, but only few a select portion of the population.</t>
+  </si>
+  <si>
+    <t>Im a white dude from Minnesota who very openly supported Kamala Harris in the primaries, so Im not sure why you paint her support as only being from ‘sharing a characteristic’ with her.
+If you see a successful woman, poc, etc. in politics and assume they are only getting votes fir that reason, that tells me far more about you than it does about them</t>
+  </si>
+  <si>
+    <t>If we all go "colorblind", bias in hiring will not suddenly disappear. Targeted violence won't disappear. The wage gaps won't disappear. This is a simplistic "solution" to rooted problems. To be colorblind about race, first all need to be treated the same, or else we'll be simply adding another layer of ignorance.
+Being colorblind without fixing root issues will be just going blind to the problems.
+And also, for a meritocracy to happen, a true one, everyone needs to have access to the same healthcare, education, quality basic necessities. No discrimination would need to exist for meritocracy to be actually real, so no bias against minorites, against any gender, sexuality, etc. Meritocracy only exist in the perfect ideal scenario, which is not realistic.
+Morgan Freeman's sentence was heavily criticized, and seriously, stop using what one black person say as a token and proof of your argument. Could you provide anything that supports your view?</t>
+  </si>
+  <si>
+    <t>Not going to change your view because I think this is the ultimate goal. But if we want to achieve let's say total nonchalance between men and women, it's not going to happen if we do nothing in our societies.
+Let's say X country's parliament is 85% men. Tomorrow there's a new law saying it has to be 50%/50%. Of course it's going to feel forced at first but with the years people will get used to have more women in their parliament and even without the law a more homogenous parliament could be obtained. It's like women's right to vote. For us now it's absolutely normal that women can vote, but if we didn't have feminists that fought for women's right to vote, nothing would've have changed. This can be applied for racism, homophobia, islamophobia, antisemitism....
+I have two more concrete examples I have myself lived. I live in a country where people are / were heavy smokers. When I was a kid, people were allowed to smoke anywhere they wanted. Then it was restricted to some areas. Then you couldn't smoke in public areas at all. My mum was a smoker and it pissed her off, she was so annoyed. Now I'm only 22 and if a single person were to lit a cigarette in a train or a restaurant people would flip their shit. Without those laws nothing would have happened. Same thing happened with plastic bags in supermarkets and stuff. When I was a child, they stopped being free. Nowadays it's totally normal for us to bring our own bags when grocery shopping. I know those two things aren't racism or misoginy or whatever but I really thing we would have to use the same method to get to complete indifference.
+I'm a queer white women so I'm not going to pronounce myself over issues that doesn't concern me but I like to think of myself as a feminist and indifference and nonchalance between men and women is definitely a goal I'd like to achieve in the future but I'm convinced this isn't going to happen without concrete actions now.</t>
+  </si>
+  <si>
+    <t>Morgan Freedman choosing to ignore problems will not solve them.</t>
+  </si>
+  <si>
+    <t>While I agree.. This is the ultimate star-trek endgame for racism, and it can't come soon enough.
+But we aren't there yet. Affirmative action is a necessary stepping stone. We need it to heal the scars of the past and the ongoing harm done by extant racists. Those lingering socioeconomic effects will take a generation(or more likely several) to iron themselves out after the last racist dies.</t>
+  </si>
+  <si>
+    <t>People talk about Hillary Clinton and Kamala Harris as if they aren’t intelligent, qualified human beings with years of experience, and they only reason they are in the positions they were/are in, is because people felt the need to add a female/POC to the ticket to check a “diversity” box. In a meritocracy, they’d win.</t>
+  </si>
+  <si>
+    <t>The language with which you talk about this issue demonstrates a fundamental misunderstanding about neurological processes. You're not alone - virtually everyone on the planet is misinformed about how "racism" works. It's not always overt. Most "racism" is subtle, and almost always goes unnoticed by the individual.
+There's an innate something in the human brain that stratifies other humans by their similarity to its caretakers, with the most similar at the top and most dissimilar at the bottom. This (presumably) dates back to the days of yore, when humans formed tribes for survival. You trust your tribe more than you do the tribe that looks different than you. The humans with that instinct survived, and passed the trait on to their children. The humans without that instinct smiled at the newcomers, then got bashed in the skull before he had a chance to reproduce. That's... the theory, at least. It's virtually impossible to know the process by which a genetic trait became standard, but we can make an educated guess.
+Don't believe me? Here's a study where they literally stuck people (Chinese University students) in an fMRI and tracked their levels of empathy towards images of people in pain. They categorized the images as "Asian" and "Caucasian," two fairly distinct groups. Unsurprisingly, there's a racial bias. The study demonstrates that the subjects cared more about the people they considered to be "theirs" than those that are "others." This result is not an aberration - variations of this study have been performed all over the world for something like thirty years, and they all have the same result.
+The reason I highlight this particular study, though, is because this group of study participants was sourced from Chinese University students who spent much of their childhood in the West, surrounded by Caucasians at school. Their results still demonstrated a racial bias towards Asians over Caucasians, but it's less significant than in other studies performed on Chinese adults who have never left China and do not associate with anyone who isn't Chinese. This indicates that your sense of "others" isn't based on your genetics, but rather your experiences. The author of this study hypothesizes that racial bias can be somewhat mitigated by forcing associations with a diverse population during a child's formative years. Science also says that the process needs to start as early as possible - by three months, infants already begin to demonstrate an innate racial bias towards the predominant ethnic group that attends to their needs. Again, this data is sourced in the article and very, very well known. It's not controversial, or a fringe theory. This is the kind of psychology study with hard, empirical evidence of its claims.
+As weird as it sounds, science says the most effective method of shifting a population towards racial equality is to directly contradict your stated goal and give special priority to minority applicants in order to integrate otherwise diverse groups. While hiring minority applicants may not directly benefit your [whatever it is you're in charge of], there's a net gain to society as a whole if you consider moving towards true racial and gender equality a net positive. Laws have been passed to encourage the practice for the same reason they require us to pay taxes, smoke outside, and follow the speed limit - while it might inconvenience the individual, it's better for society. Forced integration of workplaces, tenements, and particularly nurseries or schools is supported by science to be an effective means of reducing racial bias.
+Note that I didn't say "eliminating racial bias." The issue with this stated goal is that seeing those unlike your caretakers as "others" is a genetic trait, not a learned one, and short of raising all children in a nursery surrounded by caretakers from across the world there will always be a preference towards your caregivers at a young age. That's the real conundrum - you're never going to erase the impulse because humans don't have any environmental factors that will cause it to breed out. I don't like this conclusion, but it's the only one you can rationally draw from the available data.
+So, these short-term solutions aren't short-term. They're sold that way, but science does not support the idea that we'll eventually create a society without racial bias through affirmative action and similar programs. Science supports the theory that we can lessen racial bias through integration, but cannot eliminate it. Once your brain gets locked into a paradigm of "Us" based on your caretakers as an infant, you're never wholly able to eliminate it.
+I don't have a solution, obviously. I mostly just want you (and, really the world as a whole) to understand the issue more comprehensively.</t>
+  </si>
+  <si>
+    <t>Why your argument fails.
+Because humans are incapable of NOT seeing skin color, gender, sexual preference, race, religion etc. It's humanly impossible, so the logical resolution is to acknowledge these things and program our brains to accept them as all equal.
+We are not robots, we can't not see differences. What we can do is teach that these differences should be celebrated instead of feared, and we should strive for equality of opportunity.</t>
+  </si>
+  <si>
+    <t>The thing is that the way we teach our history has a direct connotation with how we see morality. By celebrating slave owners(by statues in public spaces, for example) we are affirming our support for them. When you say that Edward Coulson was a great guy(which is what you are inadvertently saying by putting a statue of him up) that we should look up to him and are supporting his life - which he spent with the helping his company transport "84,000 African men, women and children" to be sold as slaves.
+In modern-day, it's not like his slavery trade is a carefully kept secret. It's the main thing that the general public knows about him. Statues make statements, and the statement this statue makes is very much dependant on the modern context. Maybe in the past, people could look at this statue and think about his money donations, but now we look at the statue and see a slave owner who made his fortune on the backs of dehumanizing other people.
+Statues are symbols. This statue represents reinforces a backward morality. The harm of this is having people who are descendants of those slaves seeing the current society supporting these ideals.
+In terms of "suppressing history" there is a difference between teaching history(keep his name in books! Put the statue in a museum with historical context!) and glorifying history. Statues in public spaces glorify history. We have to make the decision as a society, that yes, slavery is wrong, thus we must not tolerate the glorifying of a proponent of slavery in a public place</t>
+  </si>
+  <si>
+    <t>Today a statue of Edward Colston was torn down by protestors because of his involvement in the slave trade. See - https://www.bbc.co.uk/news/uk-52954305
+The reason he had a statue is due to his philanthropy and historical importance to Bristol. Wording from the plaque on his statue:"Edward Colston (1636–1721), MP for Bristol (1710–1713), was one of this city's greatest benefactors. He supported and endowed schools, almshouses, hospitals and churches in Bristol, London and elsewhere."
+More info - https://en.wikipedia.org/wiki/Edward_Colston
+I understand why people are angry and I don't think we should be celebrating bad aspects of the past. Slavery is wrong! However, we shouldn't hide from the past either and I don't think people are wholly good or bad. I think the best way to judge someone is by the context they lived in.
+No argument about right or wrong would be complete without mentioning Adolf Hitler. He was an evil person by modern standards, and also by standards of his time (hence the world war to stop him). So monuments to Hitler aren't appropriate even if he also did some good things (https://www.quora.com/We-all-know-the-evil-that-Hitler-did-What-good-if-any-did-he-do).
+Colston on the other hand was a slave trader at a time before the Abolition Movement really started in England. Donating money to education, places of worship and the care of the sick/old is probably considered good in any time period or culture. So in his day he would have been seen in a positive light.
+We should judge people by standards of the time they live in, not by the standard of today. Celebrating the good aspects of a historical figure who did wrong by modern day standards is unfair and risks suppressing history. Change my view!</t>
+  </si>
+  <si>
+    <t>The problem with the OP's statement is that it assumes that people in the past didnt know right from wrong, or that standards for right and wrong were somehow different than today. Based on this false premise, we give people from the past a free ride because we assume they didn't know any better. "Culture" may have been different. Customs and traditions may have been different. But slavery and oppression are the same down through the ages. Don't ask the rich if something is right or just. Don't ask the class in power if the way they treat the lower classes is fair or acceptable. Ask the slave, the downtrodden, the poor, the workers, or the immigrant for their opinion of how they are treated. Did the rich man who is respected and honored as a philanthropist help the situation of the poor, sick and suffering. Hunger, want and hopelessness are the same no matter what age they occurred.</t>
+  </si>
+  <si>
+    <t>I think the rubric still fits. And also captures how celebrating them is becoming more questionable.
+Washington and Jefferson are celebrated for the founding of the country. This is often seen as separable from the issues of their slave ownership. You can celebrate one while condemning the other.
+The founding of what's now the most powerful country in the world is thought of as a massive thing. Their ownership and profiting off of hundreds of slaves is terrible, but it's hard to say it eclipses forming the country.
+Where it gets dicey is when you question if these things really are separable. There are controversial takes that the country was founded primarily to benefit these big land holders financially. And Washington and Jefferson made their financial wealth by forcing slaves to labor and stealing the products of that labor. It's also worth questioning if slavery would have ended earlier in America if we hadn't revolted and formed a country with a massive economic dependence on it. And further, the founding and early years of the country very much have slavery as an issue front and center. So aught we celebrate people who founded a country with such an integrated horrific abuse?
+I understand how people are unforgiving that they achieved and maintained their wealth and influence on the backs of slaves, and made a country deeply intertwined with slavery. I can see how people view this as inseparable and possibly even eclipsing of what we celebrate them for.
+I especially sympathize with people who are viscerally reminded that the heroes we hold up as founding a nation with "liberty and justice for all" saw them as sub humans who would be property for a century.
+Long story short, if you're asking me personally, I think celebrating their contributions is fine if we also provide context for their abuses. But I also think my opinion is less important the the opinions of communities they thought were subhuman and were abused by the country they founded.</t>
+  </si>
+  <si>
+    <t>Speaking personally, I wouldn't care much about a statue of him being torn down. But I know many think otherwise, and I think there's a valid difference to be made between the two. Owning slaves is only a small part of what made George Washington significant. It's a terrible thing that he did do, but the things people celebrate about him have little to nothing to do with it.
+Coulson, on the other hand, has slaves playing a pretty central role to his story. Even if you purely look at his generosity to the city, his slave trading is only one step removed from that story.
+Of course, it it still honoring (or in some people's cases, basically worshiping) someone who owned slaves, but there's a stronger argument against it in that case.</t>
+  </si>
+  <si>
+    <t>I think the argument as to whether we should judge people by modern standards is separate to the argument as to whether we should keep statues of them around on public display.
+People are complex, as you say. There are few historical figures that really hold up as good guys under modern scrutiny. Not Gandhi, not Mother Teresa. That's a good thing; it's a testament to how much we've progressed that we can see things in a new light, that we don't idolise people forever.
+Do people really think when they erect statues to beloved figures that those statues will remain up forever, that those figures will be beloved forever? The guy in question seems particularly problematic. His philanthropy was made possible only by the hard work of the slaves he owned. Nameless Africans toiled to give a better life to those who benefited from his generosity. And by the continued memorialisation of him, he's still standing on the backs of those nameless folk - or rather their descendants - in statue form.
+A statue is a powerful statement. Power, authority, respect, immortality. Ripping one down is an equally powerful statement. It's less about the man himself and more about saying, "We have changed, we don't respect your idols, we don't value the things you valued, we won't be subjugated to sit beneath the monuments to the old world anymore". It's happened forever throughout history and will continue to happen as long as we continue to evolve.</t>
+  </si>
+  <si>
+    <t>Even if you accept your premise that he shouldn't be judged by our standards, a statue is designed to honor someone. And we definitely don't need to honor people such as Edward Colston.
+I also think that we need to acknowledge a difference between "good" and "great." George Washington and Thomas Jefferson both did terrible things (specifically, owning slaves), meaning that it's hard to call them "good people," but they also did great things (such as establishing the U.S.). So it makes sense to honor them for their achievements, so long as we also acknowledge their flaws.</t>
+  </si>
+  <si>
+    <t>Pablo Escobar did a ton of charity as well, and was beloved for it by locals.
+He was also responsible for a massive amount of murders of innocents. Some by his own hand directly.
+It’s not like they thought slavery was moral. They just saw it as a necessary evil. People like him were using their charitable donations to buy respectability.
+“Oh we can’t judge John for his child trafficking and murder- he built a hospital!”
+Yes, we can. This guy was judged at the time. That’s why people like him spend so much on charity.
+See: Koch’s Walton’s Sacklers Carnegie etc.</t>
+  </si>
+  <si>
+    <t>Not by the people he enslaved. They probably saw him in a pretty negative light, they just didn't have a lot of opportunity to have their opinions recorded for posterity in between dying on his slave ships. So if we really want to "judge him by the standards of the time," shouldn't we at least return a bit of historical agency to the people he brutally enslaved and say that he was, at the very least, a mixed bag even by the standards of the day</t>
+  </si>
+  <si>
+    <t>I would make the argument that the existence of this statue and the plaque commemorating him was already and somewhat profoundly suppressing history. The statue made no mention of the fact that Colston's "company transported around 84,000 African men, women and children, who had been traded as slaves in West Africa, of whom 19,000 died on their journey to the Caribbean and the Americas." (WIKI SOURCE] To commemorate this man in only a positive light, as the plaque in his statue did, is clearly a profound example of the whitewashing of history, which is just another form of suppressing history.
+Lets be clear, while abolitionist movements don't exist in ancient history, throughout history (and even ancient history) there have always been people speaking about the evils of slavery. Here are some examples that demonstrate people have been speaking out against slavery for all of history: In 5th-century BC Euripides wrote, "Alas, what an evil slavery has always been." In 4th-century BC Aristotle wrote about a vocal anti-slavery sentiment: "Others affirm that the rule of a master over slaves is contrary to nature, and that the distinction between slave and freeman exists by law only, and not by nature; and being an interference with nature is therefore unjust." Bishop Gregory of Nyssa wrote of the inherent sin in the institution of slavery in the 4th century AD. Outside of ancient history, in 1315 the king of France, Louis X, decreed that any slave who set foot on French ground would be freed, and this decree was used to free slaves who set foot in France during the following centuries.
+I get that you are coming to this topic with good intent, you don't want history to be suppressed, but in my opinion, talking about "slavery," as a general topic, as if it was fine by the standards of the past, is a force for suppressing not only history, but current events, because not only were people speaking out against slavery before abolitionist movements (otherwise how would these movements have begun?), but also by many estimates there's as much or more slavery existing today then any other time in history.
+Consider the de-humanizing effect of this statue and it's plaque as it existed--Imagine being a person who is a descendant of a slave who Edward Colston's company trafficked, or descendant of any slave, and living with this statue, and it's plaque, in your city. Imagine knowing that all of the positive effects of this person's existence, espoused right there for all the public to see in that plaque, were built on the backs of your enslaved ancestors. Imagine walking by that statue every day, being reminded by it's presence that your history has been suppressed, that the historical figures who are idolized built their wealth on the backs of your people, but your people are not even a footnote on the statue's plaque--your people are invisible, and the history of your people are, right in this very example, being suppressed. Imagine witnessing innocent children gather around to read the plaque, knowing how much of that history is whitewashed, and knowing that you would be considered unseemly and scary if you ever approached those children to fill them in on the rest of the history that isn't being told... Imagine being a person from an invisible history who must remain invisible today only in order to maintain your own personal safety.
+When you say that "in his day (Colston) would have been seen in a positive light," you're not acknowledging the fact that even today there are people who, knowing full well his contributions to slavery, still see him in a positive light. White supremacists aren't just the loony people we make fun of on the internet, they're also elected officials, police officers, community leaders, and many people's neighbors.
+Historical statues, and monuments, aren't for the people they are commemorating. Colston doesn't give a shit about his statue being dumped in the river. He's dead and gone and without any opinions on the matter. His statue existed for the people of today, and today people decided to stop suppressing the ugly side of history, and start acknowledging that historical figures like Colston don't belong on a pedestal if that pedestal doesn't also affirm the evil institutions where he accumulated that wealth that he is so praised for donating to some worthy causes.
+History is full of "philanthropists" who donated to worthy causes but also perpetuated and supported institutions of pure fucking evil. Your argument that we should "judge people by standards of the time they live in" is, in my mind, an argument for the suppression of history. You think Colston wasn't reviled by people of his time, that every single person in his time loved and admired him? That argument is implying that the people who he helped traffic into slavery, the people whose lives were broken and squandered and ended by slavery, didn't hold an opinion that matters.
+The tearing down of this statue really isn't a case of suppression of history. It's literally an acknowledgement that history and historical figures have been whitewashed--it's an act against the suppression of history.</t>
+  </si>
+  <si>
+    <t>The statue exist today for the people who see it today. The values it represents have to have meaning for the people seeing it today.
+To counter your Hitler, what if there was a man cheered by his community for driving all the jews from his city? Even the king and catholic church said this was a noble thing? Should the statue be kept because the people of his time thought he was good?
+The statue exists today still because we still see philanthropy as good. But we're increasingly seeing the slave trade as horrific.
+When I see stuff like this, I ask:
+Is the terrible thing separable from the good thing? We can celebrate a mathematical achievement even if the mathematician turned out to be a bad person.
+Does the terrible thing overshadow the good thing? It's hard to celebrate the math if everyone's first thought is "that mathematician murdered all those children."
+I think he fails both.
+His philanthropy and his slave trade are not unrelated things. He became wealthy trading slaves, and used some of that money for philanthropy. A completley horrific treatment of other human beings. They really are not separable.
+His slave trade far eclipses his philanthropy. He made life for people at home marginally better using some of the funds he gained committing completely atrocious treatment of people. People looking at the statue can't not see a slave trader who also did some good philanthropy.</t>
+  </si>
+  <si>
+    <t>I find the approach in Philadelphia the best.
+Philadelphia often has statues of Founding Fathers and revolutionary heroes. However, there are often additional plaques acknowledging their wrongs too.
+Like "This person fought for freedom of XYZ. However, he was also a slave-owner". Or "This person had great achievements in this field. However, he was also cruel &amp; abusive to his wife and children." "Liberty Bell was a symbol of liberty. However, not all people had liberty." "This person was a great feminist. However, this was limited to white women, and she said racist things about black women."
+I don't think the negatives should be forgotten or dismissed as "contemporary sensibilities". There can be a compromise where plaques clearly mention and acknowledge the wrongs done in addition to their achievements and contributions.</t>
+  </si>
+  <si>
+    <t>Slavery has been morally dubious since - always.
+While the ancient Greek, Romans, and Egyptian used slaves, it is incorrect to argue that the practice wasn't criticized in its own time.
+The ancient stoics famously wrote about the immorality of slave holding.
+This idea that, they didn't know better, is questionable, seeing as prominent authors at the time were arguing against the practice. Yes, they ultimately didn't transform their society, but they still represent that idea in their own time.</t>
+  </si>
+  <si>
+    <t>While I understand people's wish not to erase the past, I think a statue such as this does not fairly connote the reality of the past. If anything, it lauds the achievement and generosity of a man who built his fortune, literally, on the backs of others.
+Bristol being built on a fortune made from such misery isn't something the city should be remembering fondly. And the placement, size, and pose of this statue suggests no regret and the history and message that statue should be sharing to the people of today is absolutely, 100%, not a sense of pride.</t>
+  </si>
+  <si>
+    <t>I think this is a copout view that allows one to justify autocracy and violent past of ruling class people. For instance, slavery was seen as a horrendous, human right abuse for centuries and those people who kept slaves knew this. Genocides against native people brought by Christopher Columbus was always seen as a crime against humanity by others. Animal right movements and the case for vegetarianism have been advocated since the days of Mahabhira (7th century BCE). Our innate moral compass on what is a right and a wrong behavior hasn't probably changed much for thousands of years. It is just that the weak and exploited people are finally getting their voices heard.
+Also what was right and wrong is very different than what was legally accepted--the later is simply a testimony of how far the ruling class pushed the society to justify their oppressions and exploitations. Justice and morality based on compassion (which is innate to us and many other species) would more or less make a clear timeless distinction on what is right and wrong, yet these historical figures acted against that. Thus they need to be judged by the compass of compassion.</t>
+  </si>
+  <si>
+    <t>Bristolian here.
+Colston can be remembered in the Bristol museum and the history books. There has been no concerted effort to erase him from Bristolian history completely. Were not Nazis. The issue here was having him openly displayed on our streets, which was an insult for many of my fellow Bristolians which includes a large contingent of Black British and Afro-Carribean Bristolians who are descendants of slaves under the trans-Atlantic slave trade.
+Bristols part in the slave trade is remembered and documented well behind the close doors of our local museums such as the Bristol museum and M-shed. Not out in the open as in the case of the Edward Colstons statue, a prolific Slave-Trader, whom up until today, was the ugly exception in the cities blatant commemoration of slavery, personified by a man who built his wealth and lasting legacy off the backs of slaves. It was a point of controversy and frustration for many in our well-integrated city and it had to go. There are still some buildings and streets that bare the name 'Colston' but after seeing todays outpouring of support for the toppling of his statue, Im confident they will be replaced eventually.
+Another one of the visible legacies of the cities history of slavery is the wealth-gap between some of the cities affluent areas such as Clifton where the slave merchants would have resided in the 1700's and the poorer areas such as St.Pauls where there is a large community of Afro-Caribbean Bristolians. The latter however is a celebrated Bristol community, famous for its food, music and festivals such as St. Pauls carnival, similar to Nottingham Hill, and overall plays to the cities strength in championing diversity and integration. The Afro-Carribean community play a huge role in what makes Bristol so great.
+At the very least you could say that proudly displaying this statue of Colston is insensitive to this large community of Black-Afro Caribbean Bristolians and descendants of slaves who have contributed a lot towards putting Bristol on the map.
+You should ask yourself if the memory of one dead guy should take precedent over the emotions an entire community.</t>
+  </si>
+  <si>
+    <t>Learning about people doesn't equate celebrating them. I would argue against celebrating any human being from the past, because all humans are flawed. Americans should, for example, celebrate the founding of the nation, but not celebrate the founding fathers, because they were flawed. Most of them were slave owners, and some of them were philanderers. You should celebrate the civil rights movement, and not Martin Luther King Jr.
+Why celebrate anybody? They are dead. Their feelings won't be hurt if you criticise them, they won't feel joy if you dedicate a holiday to them. The benefit of hindsight, and looking at history from more enlightened times, is that you are able to divorce yourself from the emotions of the time.
+For example, if one were to criticise Hitler during his time, his fans would surely be able to also point to racist and anti-Semitic policies in the UK and US. And they would have been right. But now, looking back, we are able to criticise both Hitler as well as other similar anti-Semitic policies in the Allies, because we are no longer emotionally attached to those times.
+We should learn about historical characters, and learn about both the good and bad things that they do. But we should judge all of them by our understanding of what is moral or not within our time, while maintaining an understanding of what the cultural norms were during their time. Celebrating them or condemning them shouldn't be a thing, we should look at their words and actions.
+TLDR: Learn about historical figures from the view of history, but let's not hero/villain worship anybody.</t>
+  </si>
+  <si>
+    <t>Bullshit.
+Look back at the writings from people of those eras. They knew what they were doing was wrong. They made excuses for it and found ways to justify it.
+read accounts from slave transporters and how they casually mention raping women and children and killing those who resisted. The guy wrote the song Amazing Grace mentions watching a 12 year old girl hang herself off the side of a ship as she would rather have died than continue to be raped. This I believe was the event that turned him into a Christian and lead him to writing the song.
+Some things are always good and some things are always evil and you can clearly see the people of the era acknowledge it back then.</t>
+  </si>
+  <si>
+    <t>This point of view ignores two key facts about the arguments in and of itself. The first is that “modern values” are not universal or monolithic, and neither were historical values. When you make the argument “we shouldn’t judge the past by the present” you have to inherently choose viewpoints that you find more important and more relevant to the discussion you’re having.
+Because modern values are not universal, you have to choose what value you are saying is modern. Now Granted “slavery is bad” isn’t exactly a fringe idea, but there has to be, just by the law of large numbers, someone who thinks slavery is OK. So we have to ignore the people who think slavery is OK to have our “modern values” include the value “slavery is bad”.
+So if you can agree with the above statement, you can also understand how “historical values” were not universal or monolithic. in order to say that “slavery was OK in their time” you have to purposefully omit the viewpoints of anyone who disagreed. You mentioned how this was well before the abolitionist movement was big. however abolition is a white centric idea. While whites were just beginning to debate whether or not slavery was OK, there were thousands of black people who were literally enslaved and they sure as hell didn’t like it. And you can bet they let everyone know they hated it. Slave revolts were a thing. You don’t revolt against things you like.
+There were, perhaps unsurprisingly, slaves who thought slavery was wrong and probably told the people who were capturing them, dragging them onto ships, and taking them from their homeland, that they didn’t like this. The people who did this had to do it over the objections of the people Who’s lives they were ruining. If a person who is a slave can say “slavery is bad” and you are in the slave trade (whether you’re capturing people, simply trading them, or owning them.) you have to contend with the question “is it OK?”
+Here’s an analogy. There are five people standing in a room and you are one of those five. one of them looks to you and says “I am going to hit you with this baton until I break your leg. If anyone in this room objects to it, I will not do it.” So you obviously say “I do not want to be hit.” However, the other four members do not raise objections so that man begins hitting you with the baton. So you say it again “I don’t want to be hit!” And the man says “everyone here seems to be OK with me hitting you, so this isn’t a problem.” And so you say “I don’t want to be hit! I’m in this room to!do I not count as everyone?!” And he says “no you do not count as everyone.” And he breaks your leg.
+The point I’m hopefully illustrating for you is that to say modern or historical values, you have to ignore someone. in this case you’re ignoring enslaved people and assuming that the other things he did were more important to the people around him. To the poor of London he may have been a saint, but to the people who he sold at auction he was a monster. Both of those viewpoints are valid and are true. And so if we pick the viewpoint of a poor Londoner we can say he deserves a statue. However if we take the viewpoint of enslaved person we can say he should never be given a statue, and should be demonized for the atrocities he committed against human kind. You’ve got to pick one of those viewpoints in order to hold your argument. at that point it’s just Anubis weighing your heart on his scales. Does the admittedly good act of promoting almshouses and the church outweigh the sins of enslaving and trading in humans.
+All we have is our personal viewpoint, and in my personal view, giving to the poor is not as good as enslaving people is bad. enslaving people is a hell of a lot worse.
+And to your point about erasing history. A statue that only mentions giving to the poor and the church erases the fact that he owned slaves. which was more important? If I saw a statue of a man I never knew (and I didn’t know who he was until today) and read the plaque and it said “he gave to the poor and churches” I would think he is a saint. that’s the job of the statue, to make the man a saint when he was a monster.</t>
+  </si>
+  <si>
+    <t>Yes and no.
+No: we should not judge, say, George Washington for owning slaves in the same way we would judge Bill Gates if he turned out to own slaves. Both are bad, but one is clearly more problematic than the other. Historical slave ownership still isn’t excusable, but to overlook the historical context is to make grave errors of understanding.
+On the other hand, yes: we should absofuckinglutely judge Thomas Jefferson by modern standards. He knowingly started a sexual relationship with a teenager, whom he owned, when he was in his 40s, then continued to keep both that teenager and the kids of that relationship as slaves until he died. And it was just as wrong then as it is now. That’s why he hid it to the utmost of his ability, and did such a good job that it took historians 200 years and advanced maternal RNA analysis to sort it out.</t>
+  </si>
+  <si>
+    <t>We don’t have to celebrate flawed individuals once we realize they no longer represent the ideals that we want to hold up as admirable. Having a statue is essentially saying “this person represents the things we admire.” If we don’t agree anymore, then keeping it up would be counter to everything we hold dear. It’s okay that we learn as a society, but that’s all the more reason to replace those figures with ones we find more fitting... it’s not like we’re lacking amazing people throughout history to honor!</t>
+  </si>
+  <si>
+    <t>I applaud the clever approach, and think it makes an excellent subject for a paper. I also philosophically agree about the importance of protecting private encryption.
+I think you are stretching too far when taking your premise as an actual practical constitutional argument. I also think that approach, if it were adopted, might be more detrimental than supportive to the goal of protecting private strong encryption.
+Encryption might be an "arm" based on government statements, but that hurts the goal more than helping. The citizenry doesn't have the right to bear chemical or nuclear weapons. We cannot buy tanks with functional turrets. We cannot buy rockets with explosive payloads, and are not even allowed to build rockets with guidance without permission. We need a permit from the federal government to own silencers and automatic weapons.
+There is no movement to restrict the public from all encryption, it is strong encryption that is at the center of debate. If you successfully argued encryption was equitable to arms, you just gave the federal government all the judicial precedent they would ever need to restrict strong encryption or force backdoors.</t>
+  </si>
+  <si>
+    <t>I have written a 60+ page legal journal article on this topic and I'd like some feedback.
+Important Edit: My paper is the law school capstone paper of a 2.9 GPA student. If you want to read a published paper on the topic, a commenter who is more educated has been published on this topic. Please see the article here: https://repository.uchastings.edu/cgi/viewcontent.cgi?article=1001&amp;context=hastings_science_technology_law_journal
+The second amendment was introduced during the era of the Wild West, an era of rapid improvement in weapons technology. Lawmakers understood that citizens needed to be allowed to purchase and use the most up-to-date forms of weaponry in order to protect their land from citizens and foreigners alike.
+There is a new digital frontier, in which threats and their contexts are evolving at a rapid pace. US citizens are finding that their data is tracked, stored, and utilized down to the most granular details. The US government has already expressed interest in "back door" technology to render encryption futile against it.
+If the second amendment can protect the right to purchase and use encryption against both domestic and foreign forces, citizens will have a constitutional basis to assert the right to secure their data.
+Justice Scalia famously found within the second amendment the right to personally carry a firearm, despite the militia language, which had previously been construed as limiting language.
+With this all in mind, it bears consideration that the second amendment may also protect the individual right to personally "bear" encryption.
+CMV?</t>
+  </si>
+  <si>
+    <t>I believe historians of America would largely take issue with use of the term "Wild West" in this context. While the term is not canonical to the field, it generally is employed to describe the frontier during the period of rapid westward expansion starting in the early to mid-1800s and ending in the early 1900s. While the nascent colonies always had a western frontier, the "Wild West" is not thought of as predating the Constitutional Convention.
+Ergo, I think your view that the 2nd Amendment arose during the time of the "Wild West" is, while not precisely incorrect, at least something that experts would contend is grossly imprecise.</t>
+  </si>
+  <si>
+    <t>Encryption being classified as an "arm" ended under Clinton under pressure from the exploding tech sector. They (quite justifiably) wanted the ability to export their products without ITAR issues, but that was impossible while encryption was legally classified as an arm, so they changed it. Edit: in principle we could reclassify it back to being an arm, but that would do some pretty serious damage to the internet as a whole (including the economics of the tech sector) if the only market available to American tech companies was America and its closest allies.</t>
+  </si>
+  <si>
+    <t>He really didn't. at the time of writing the Constitution the militias were made up of every able-bodied man who was not a slave. The militia part doesn't actually invalidate the individual part, since everyone was part of the militia.
+You present an interesting argument but I imagine the counter-attack to that argument would be that a DOD classification of what an arms is is not legally sufficient in other contacts to justify that right. The classification of encryption as an arm must come from Congress or from a regulation that has gone through the federal register process. Otherwise it's simply DOD's opinion, and not legally binding.</t>
+  </si>
+  <si>
+    <t>With the caveat that I haven't done any research: There is absolutely no chance this could succeed as an originalist argument, and the individual right to bear arms depends almost exclusively on an originalist case.
+Cryptography is not a new field. It was present in the founding era (see https://www.theatlantic.com/science/archive/2017/03/h3ll0-mr-pr3s1d3nt/521193/).
+Your article will need to address whether the founding era meaning of "arms" fairly embraced cryptography of the era. It might need to need to address the 4th amendment prohibition on search and seizure except where reasonable and why encrypted documents (and any method of deciphering them) would be categorically unreasonable to seize. If not categorically unreasonable to seize, in what sense is there a recognized right to cryptography that's different from the recognized right to be secure in houses, papers, and effects?
+If the historical evidence doesn't show that "arms" ever embraced cryptography—and I don't see how it possibly could—you'll need to explain why we should depart from the originalist foundations of modern 2nd amendment jurisprudence to extend the meaning of "arms" in the present day, even though there's no historical evidence that the original meaning of "arms" included "sending or receiving encrypted messages."
+Every justice who might be sympathetic to the general framework of an "evolving constitution" argument would use it to curtail the scope of the 2nd amendment, not expand it. Which is another way of saying your argument, as I understand it, is unlikely to cohere.
+I obviously can't judge your work without having read your article, but I think you've picked a thesis that's an extremely uphill battle. Like a young physics student who decides his thesis project will be a unified field theory.
+I think you'd have a better shot at finding a constitutional right to cryptography under some penumbras theory that includes the 4th and 2nd amendments. Might be too much for the methods you're willing to embrace.</t>
+  </si>
+  <si>
+    <t>I had no idea that the Wild West era began before 1791</t>
+  </si>
+  <si>
+    <t>Let’s stipulate that encryption is a form of arms. You have the right to bear arms, although that is already limited (no nukes, for example), but that doesn’t entitle you to the technology behind every form of arms. If I build a super cool laser gun, I am not infringing on your constitutional rights by not telling you how it’s made or by not giving you one.
+We already have the right to bear encryption regardless of the second amendment and it’s impossible to stop. Half the messaging apps for your phone have it. I was offered a job as a cryptologist for a non-government organization. That job would not have put me on the wrong side of the law.
+Finally, your argument rests on a faulty syllogism. The constitution uses a different lexicon than the US government. I know how wrong that sounds but it’s true. The government doesn’t have the power to implicitly declare encryption to be arms in the constitutional sense. It would take an explicit act of Congress. Otherwise, inter-office memos could reinterpret the constitution. But that’s what SCOTUS is for.</t>
+  </si>
+  <si>
+    <t>I am a strong proponent of information freedom, and the idea of banning or censoring math is mind-bogglingly absurd to me, until I remember it is always about power, not safety.
+Its on that part I think you should reconsider your view: your argument rests on adopting the position of people you oppose philosophically. That is dangerous ground because even though you have exposed them as hypocrites, using an argument that is only as consistent as it works in their favor, is guaranteed to lose. Even if you could get them to admit their hypocrisy, you are still leaving them with the authority.
+2A, just like the first, are not freedoms granted by the government. They are a reminder of the power government does not have. Violations of either are representative of a corrupt government at all times and in all places. This is why we revere the constitution, within limits.
+If you give them the authority over arms as you describe then they need only change their position to win, or merely continue their hypocrisy without concern for consistency.
+I prefer the argument that "regulating math" can only be harmful towards people using math for (common) lawful purposes that promote safety and privacy while doing nothing to stop or empower the lawless. From that angle there is a strong parallel to firearms, but a universal one, not one dependent on the mood of the director of the ATF or any other alphabet soup creature.
+I would be interested in reading the longer version of your argument I'm case I am misrepresenting your view somehow. Is it published?</t>
+  </si>
+  <si>
+    <t>This is an entertaining hypothesis, but the biggest hurdle for me is that the government using a word to describe encryption doesn't immediately impart all the constitutional protections surrounding the word. I'm hardly an originalist, but I would need more evidence of a connection to the second amendment's intent. (Makes me think of the joke circulating about gyms needing to be open because of freedom of the press.) Second amendment is tricky, because Heller is just a mess of a decision. The justices practically flipped interpretive approaches to reach their preferred results, and so how that reasoning might be extended is murky at best.
+And, as others have mentioned, many self defense tools are not considered arms under the second amendment (locks, shields, etc.). Recognizing a right to encryption under the second amendment would afford fewer protections to citizens than recognizing it as part of a right to privacy. So it's undesirable for policy reasons.
+All in all, you need a better hook than just the word "arms" and encryption's self defense uses, and it would be an uphill battle to trust any article that did try to seriously argue that a right should be recognized under the 2nd amendment. However, I do think the meat of the discussion is worthy and interesting, I would read an article that raises the question and discusses the different conflicts (original meaning, plain meaning, policy, etc.).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on your responses, you seem to have a grasp of the technical side. However, it seems that you have no understanding of the historical context. I'd start with the history of PGP. That's a great intro to the mental gymnastics the US government plays with encryption. Next, I'd move to some good histories. Steven Levy's Crypto is a wonderful read while David Kahn's Codebreakers is the seminal work. While they don't focus solely on the subject at hand, US government control of crypto, they provide a well-rounded history of the subject that explores how basic math can be exploited. Or, for something just about export controls, this article seems to give great coverage.
+If you're willing to take the word of a random dude on the internet who's too lazy to go dig up citations right now, I can provide even more context. I studied combinatorics, a field that is still being slowly declassified. Across the US, the NSA snapped up promising mathematicians in the field, paid them well, and hid their results. In 2010, I attended a talk where a mathematician was able to finally discuss a solution he'd developed in the early 80s. Outside of math, this has long been an issue. Early Lotus Notes and Microsoft Windows explicitly shipped internationally with lower encryption (32 bit, I think), even though the markets they shipped to had their own stronger solutions, all because of the US government's insistence that encryption is an arms export. As you now know, PGP sidestepped that by publishing a book with their algorithm. I'm fairly certain RSA did the same (if not RSA, someone else; I think PGP followed some precedent). On several occasions, the US government has advocated for standards harmful to the public, including DES and the Clipper Chip.
+Again, I think you understand the encryption side. What I think you're missing is the historical context. The internet has ameliorated encryption censorship to some degree, but it's not over. That's why organizations like the EFF still do things like support the Acme protocol.
+</t>
+  </si>
+  <si>
+    <t>I love the concept here. I have never once even considered such a premise and I'm glad that it's the first thing I've read this morning. Novel way to start the day.
+Having said that, it's opening a Pandora's box that we have no business giving to the public.
+The problem with your analogy is that the Enigma machine was a physical object that was attached to other physical weapon systems, specifically communications between planes, ships, and the like.
+I would have no problem with your definition provided that you kept it to physical safeguards. We could think of the "right to bear arms" as the right to bear defensive measures as well, including walls, locks, bulletproof vests, and encryption machines or signal blockers.
+But making it digital presents a huge problem: There are already digital weapons. Stuxnet comes to mind. Russia's fiddling with the Ukrainian power system comes to mind. What distinguishes code for encryption from code for destruction?
+I could easily see a judge in the future using your rule as precedent to allow average citizens to possess and, in some cases, use viruses or malware.
+I believe a better solution is to expand the bill of rights into the digital age with the right to privacy and the right to restrict access to personal information. Other governments have already done this, Brazil and the EU are just a couple of examples.
+Ultimately, trying to put a 300-year-old shoe on a brand new robot foot just isn't going to fit. We need a rewrite.</t>
+  </si>
+  <si>
+    <t>Yes, the 4th amendment would probably be a better foundation here. Since OP is looking for legal basis for his argument, mixing up definitions (ie, what the constitution defines as “arms” vs what the military defines as “arms”) isn’t going to help. Especially when there is way too much precedent for NOT allowing certain arms. Heck, it would probably backfire and we’d get more restrictions.
+The 4th, however, has more room to be interpreted in light of new technology and vulnerabilities</t>
+  </si>
+  <si>
+    <t>The US Western frontier and westward expansion carry a different meaning to many from the Wild West. You should consider dropping the term or spend a chunk of time in the article defending its use and trying to change the commonly held understanding of its meaning in the contemporary US. This seems to distract from your point.</t>
+  </si>
+  <si>
+    <t>I think you mean purposivism or intentionalism. Textualism and originalism are two heads of the same hydra. Your argument wouldn't survive textualist scrutiny because you are invoking unrelated government documents to anchor your argument as to how to interpret an amendment. A textualist would shoot that down without even thinking. They look at the content of the law's text and the source of its meaning, not outside texts. That's what makes textualism distinct. They hate when people even point to the legislative record for that law, let alone appealing to interpretations of unrelated entities developed 200+ years after a statute or amendment was written.
+If you aren't already familiar, I'd strongly recommend you read up on these different methods of statutory interpretation. Your best bet is probably a purposivist argument if you insist on appealing to the modern government interpretation, but purposivism is a dying judicial Philosophy.
+If you want to win over textualists and originalists you need to make an effort to understand what arms meant to the legislators that drafted the constitution. Contemporary law dictionaries. Plain meaning. Every day dictionaries of the time. Common law rulings on arms from the period. Anything that might discuss how encryption or codes were seen at the time (it's worth noting encryption has been used in warfare since at least the Roman republic). Persuasive texts like the Federalist papers. The bottom line for textualists is the ordinary meaning if the text, not some post hoc interpretation that's driven by trying to divine some hidden purpose or intent (which is what I think you are trying to do here).</t>
+  </si>
+  <si>
+    <t>Hmmm you can already pretty easily protect and encrypt your data.
+And you dont need the second amendment for that, the right for property is a basic human right, and the US has a ton of intellectual property laws.</t>
+  </si>
+  <si>
+    <t>The Second Amendment doesn't imply that anyone can carry any type of arms without restrictions - it may be legal to personally carry a firearm, but you can't own a nuke. If also wouldn't apply if the government tried to force gun manufacturers to install a way for the government to quickly disable the weapon - you have the right to bear arms, but not the right to manufacture them to whatever standard you like.
+In the same manner, it doesn't entitle you to backdoor-free encryption. First, it doesn't protect you from the situation where the government tries to force those who implement the encryption to add a backdoor, and it doesn't imply that you can to use backdoor-free encryption, only (potentially) that you can use encryption at all.
+I do think there are other technical and legal considerations that make it very difficult for the government to restrict encryption, but not the Second Amendment.</t>
+  </si>
+  <si>
+    <t>Why bring the 2nd amendment into this? You already can buy body armour and bullet proof vests in the USA without much restrictions or regulations ... these like encryption act more like shields instead of arms . Seems like you are trying to use the 2nd amendment when you don’t need to.</t>
+  </si>
+  <si>
+    <t>You have one HUGE problem to overcome.
+The right to bear arms was designed to allow militia to keep the same armament as the US Military
+All the gun control laws that have been allowed have destroyed the "you get to keep the same armament as the US gov"
+So while I agree encryption could be argued as "arms", the gov bans arms all the time and the SCOTUS allows it so I don't see how this would be different</t>
+  </si>
+  <si>
+    <t>Journal cite? I have access to Hein and SSRN (obviously).</t>
+  </si>
+  <si>
+    <t>Which journal?
+No, it wasn't.
+There is a right to privacy but it has nothing to do with the 2nd Amendment. The 2nd concerns weapons. Encryption is not weapon, you can't harm others with it.
+What does it mean to "bear" software?</t>
+  </si>
+  <si>
+    <t>I think that's an incredibly interesting take, and I'd love for you to be right.
+Unfortunately, allowing it would probably be seen as "legislating from the bench" so to speak. This seems like a matter where the SC would be like "yes but actually... let congress decide". The fact there's a bunch of conservative textualists right now certainly wouldn't help your case. So again while I think you have a point, and I'd love for this to be the law of the land, I think it would likely get shot down in the current SC.
+Since it has wide ranging implications, both in expanding the 2nd amendment power to future such reasonings and for the specific case you're arguing, even non-conservatives would have to be willing to be seen as legislating from the bench, which they've been hesitant to do. I.e. even in a less conservative court, I'm unsure it would pass.
+Or TL;DR, yes, but actually no? Pretty much how I see it.</t>
+  </si>
+  <si>
+    <t>I fully agree with your post, but at the same time this could be a slippery slope. Personally, (covid aside) I think biological weaponry is the new firearm, could an argument be made that everyone should be permitted to use a biological weapon?</t>
+  </si>
+  <si>
+    <t>What else is defined as 'arms' that isn't allowed for civilians to own? A tank? A machine gun? A howitzer? A surface-to-air missile? An MLRS?
+You're going to have to explain why encryption is different than other exceptions.</t>
+  </si>
+  <si>
+    <t>That is one hell of a stretch but unlike most cases... your stretch might just make sense.
+Too limited, though. What other concepts are "arms"?</t>
+  </si>
+  <si>
+    <t>Bro we're still arguing about a comma in there, I don't think now is the time to further complicate things</t>
+  </si>
+  <si>
+    <t>Part 2: I think the best way that the Order's actual way of looking at emotions and passion is best described by Depa, actually:
+Sidenote: #GoodTeacherDepa
+And I think we can see that being a Jedi doesn't mean repressing your emotions: look at Luke! Look at Golden Boy 'two seconds after hearing my father is a genocidal asshole who cut off my hand goes 'yeah no I can't kill him I'm gonna turn him instead with the power of love!' Skywalker! He literally saves the entire galaxy with emotion and love! But it's a selfless love, not the selfish and fearful attachment that Anakin had towards Padme during ROTS while he was spiraling. It's compassion, not attachment. And therein lies the difference. That's why Luke becomes a full Jedi when he faces Palpatine and Vader in ROTJ; he learns to embody the entirety of what it fully means to be a Jedi during that fight in the throne room when instead of fighting he throws his lightsaber down and says "I will not fight you, Father. Let me help you." He chooses diplomacy, redemption, and altruism instead of vengeance. He prefers non-violence to power and control. He will believe in anyone, no matter what they’ve done to him or the people he loves, and would rather die than lose a chance at helping someone become their best selves. His defining moment is an act of embracing his feelings and choosing love.
+Contrast this with earlier in the fight, when he loses control over his emotions and gives into the Dark Side, going buckwild crazy and getting to the point where he slices off Vader's own hand in a parallel mockery of the Bespin fight. Think about why that is what got Luke to stop and back down. He was so much more powerful when he was feeding off of the Dark Side, right? Using his emotions made him stronger, right? Yeah sure...in the short run. But what did he become in those few moments he drew on the Dark Side? What would he have become if he had kept doing it?
+The Dark Side feeds on you. It turns you into something you're not. It whispers at you and tells you you can do so much more, be so much more, if only you would let go and stop adhering to those pesky morals and values and codes. It turns good people like Anakin Skywalker and Jacen Solo into twisted, mottled versions of themselves that no one who knew them before can recognize because they are so trapped under their delusions of grandeur and desperate desire for power. Sith are canonically poisonous and a corruption of the Force. The Sith are not the epitome of the Dark Side. There are Light Side and Dark Side Force Users that exist outside of the boundaries of Jedi and Sith (see: The Nightsisters as non-Sith Darksiders and Ahsoka Tano for an excellent example of a non-Jedi light-sider); more importantly, there must be a balance kept between the Light and the Dark, and this means that both must co-exist in relative harmony (and now we're treading into Anakin as Prophecy Child territory, but whatever).
+The PT Jedi are focused on trying to balance things because the galaxy is TOO dark, not because darkness is inherently bad or needs to go away. Yoda uses the dark side to help try to see through the cloud that’s blocking them, the dark side is so strong that it’s pushing everything out of balance. Of course we see them talking about the dangers of the dark side–because that’s what’s the danger right in the time that we see them in! The Mortis arc in the Clone Wars television series mirrors this conflict when the Dark Side "Brother" starts trying to take over Mortis by killing "The Father," who acts as the control/balance between The Brother and the Light Side "Sister."
+“But the Jedi are light-affiliated??” Yes, technically. But also in canon, we see them be absolutely fine with dark side-leaning Force users, because the Nightsisters exist and that’s absolutely fine. Windu develops an entire fucking lightsaber combat form based around dancing the fine line between drawing on emotions from both the Light and the Dark Side, and that's also fine. The Jedi weren’t and aren’t ever supposed to be light-side only. The Sith are their ancient enemies, not their mirror image. Up until their deaths at Palpatine’s hands, the Jedi always strove towards balance.
+What the Jedi Order's problem was, and why you might feel like the Sith are a better option, is that the Order’s teachings by the time of the prequels did not adequately equip many Jedi to deal with passionate emotions in a constructive and healthy way, since they taught that having strong emotions was “not the Jedi way” and that they should “release those feelings into the Force,” which is not necessarily the best way to deal with all situations. Especially during times of war, which the Jedi were never supposed to be a part of in the first place.</t>
+  </si>
+  <si>
+    <t>I was looking at the Sith and Jedi codes, and it made me realize how full of shit the Jedi are. The Jedi seem to encourage a lack of emotion and strict internal discipline.
+Just look at their respective codes.
+The Jedi Code:
+There is no emotion, there is peace.
+There is no ignorance, there is knowledge.
+There is no passion, there is serenity.
+There is no chaos, there is harmony.
+There is no death, there is the Force.
+The Sith Code:
+Peace is a lie, there is only passion.
+Through passion, I gain strength.
+Through strength, I gain power.
+Through power, I gain victory.
+Through victory, my chains are broken.
+The Force shall free me.
+Now, while certain parts of the Jedi Code, specifically lines 2 and 5, are good, the rest of it seems to be pushing a worldview based on restraint, discipline, and order. Now this in and of itself is fine, but it accomplishes this by restricting the influence of passion. Passion &amp; emotion is the chief governing factor in Humans. Maybe it's different for certain alien species, I don't know.
+The Sith, on the other hand, encourage passion. They use it, control it, and gain strength and inspiration from it. This is their strength, but also their weakness. Emotion can grant power, but it can also blind you.
+So neither the cold, orderly philosophy of the Jedi nor the reckless abandon of restraint of the Sith are necessarily worth following. Passion should never be without restraint, but the abandonment of it by the Jedi is both unrealistic and harmful to it's members. So while I wouldn't endorse the entirety of Sith philosophy, I would certainly endorse leaning into the "Dark Side" more than the "Light".
+I just wrote a 1500 character wall of text on the philosophy of space ninjas. I am a massive fucking nerd.</t>
+  </si>
+  <si>
+    <t>My time has fucking come. Get ready, OP, to be amazed by my dumb knowledge of ridiculous amounts of knowledge about Star Wars lore and my ability to quote obscure af Star Wars books. I am incredibly sorry in advance for how long this got....I got excited.
+So first of all, that's not actually the original Jedi Code. The Original Code is this:
+Both versions of the Code are actively taught and used within the Jedi Order, though the one you cited is the one that gets bandied around far more prominently. The Code I just cited is taught to Jedi Younglings, who recite it during their Initiate Trials before becoming a padawan. With this code, you can see that what is actually being taught within the Order is not an absence or denial of emotion but a moderation of it. Anakin even straight up says this in AOTC:
+Yes, he's using it to rather cleverly maneuver around the Jedi's rules concerning marriage and romantic attachment, but he's iterating a very explicit point: compassion is encouraged within the Order. Compassion is inherently an outpouring of empathy and emotion.
+Sidenote here: romantic relationships do not inherently lead to the Dark Side, something borne out by several relationships in the EU (Luke and Mara Jade, Han and Leia, Jaina Solo and Jagged Fel, Corran Horn and Mirax Terrik, etc). Any close relationship has the ability to turn a Light Sider to the Dark if properly prompted. Remember, it was not Padme that was Anakin’s first step towards the Dark Side, but the loss of his mother. Luke briefly used the Dark Side when goaded by Vader that he would go after Leia, his sister. Corran Horn lost his best friend and nearly turned. Obi-Wan (however briefly) fought with anger and grief and drew on the Dark Side during his confrontation with Maul while Qui-Gon was dying. The nature of the relationship does not matter; the person’s outlook on the relationship and their state of mind is what’s important. Selfless and compassionate love (regardless of whether it is familial, platonic, or romantic in nature) is an entirely different animal from the self-seeking, selfish attachment that the Order warns about:
+What the Jedi are actually attempting to teach Anakin (something at which they fail because their insular and monastic nature failed to account for the different upbringing and thus needs that Anakin would have as a recently-freed slave child who grew up with his mother) is not the denial of emotions but control over them. Basically: "every human being has emotions. It's natural. Your job is to learn how to control them because you wield super powerful magic that can hurt people if you don't control it."
+The Force isn’t just something that allows the Jedi to lift rocks or catch glimpses of the future–it’s how they connect to the entire galaxy. It’s how they see the world around them: the people around them, the life around them. It’s how they feel, it’s how they parse things, it’s how they think. It puts them in psychic connection with those around them (to varying degrees, of course)...and this is why you need to have control. This is why getting drunk off the Force and the emotions around you is a genuine danger and could allow you to hurt yourself and others very badly.
+Feelings linger, and they echo and amplify everything–Luke still feels Rey in the stone seat she sat on, thoughts and feelings imprint into the kyber crystals and become part of the blade, The Tusken village Anakin massacred is still a ghost story to the Tuskens years later and they don't go there because the emotions and hate are still tangible...this is how a Sith bleeds a kyber crystal and creates a red lightsaber (because sidenote: red lightsabers are created via deliberate corruption of a kyber crystal, not found like 'normal' colored lightsabers).
+If a Jedi were to let themselves run wild and stopped asserting emotional control over themselves, it’s like getting drunk off the Force and thinking you’re still totally in control. This is how Anakin spirals in ROTS, and if you read a book like Shatterpoint (or read the new canon Kanan comics) you can see how it happens to Mace Windu's former Padawan Depa Billaba.
+Passion and emotion are fine, but the excess of passion and emotion are dangerous as fuck for powerful Force users. The thing is, the Jedi are given a tremendous amount of power and legal authority.  Their connection to the Force gives them abilities that can very easily hurt others, based on their unbalanced emotions–we see what even just a partially trained Force-user acting out of fear can do, when Ezra Bridger, a barely in-training padawan who got his first lightsaber less than a full episode ago, straight up summons a nest of frynocks and compels them to attack because he's afraid and loses control over his emotions. Vader, a trained force user, knocks Ahsoka Tano right into unconsciousness just by feeling her out! Anakin's actions in ROTS are pretty self-explanatory.
+That’s a lot of power given to one person! Add in that they’re given the authority by the Senate to help people across the galaxy? People who fear them because they don’t understand them? The Jedi understand that they have to keep their shit under control (not repressed, both new and old canon are pretty explicit on the front of how several Jedi have said emotions are necessary, you just need to control them before they rule you) because otherwise they’re going to leave a lot of hurt people in their wake, all the more so when given the legal power they are.  If you have the authority to cut someone’s arm off with your lightsaber because the Force told you it was necessary?  You better make damn sure you’re not doing it out of unbalanced emotions.
+(continued below in Part 2)</t>
+  </si>
+  <si>
+    <t>Listen, kid. It's important to understand why the Jedi exist, and to understand what they are.
+The galaxy is a big place. Children are born, sentient, of every species. The races of the galaxy are as diverse as the plants and animals of every planet, even if a few commonalities like fingers and feet have evolved. Even in basic morphology, there are many exceptions.
+But there is one thing that happens almost without exception. Of all the sentient offspring born in the galaxy, some tiny fraction -- statistically barely measurable -- has the ability to harness astonishing powers.
+And this should make you terrified. Unnatural speed, agility, and strength are the norm for these mutants. They can move objects with their minds, literally choking off your windpipe or your circulatory system, crushing vital organs. Worse, so much worse, they can manipulate your thoughts. Read your thoughts, and even modify them so that you think their commands are your idea. So that you don't even know you were manipulated.
+That, my friend, should absolutely terrify you. If it were up to me, we'd identify the little bastards at the first sign of their "becoming" and put 'em up in front of a firing squad. If we can even get to them in time.
+But these telepathic monsters got their hooks into the Republic. "Protect us," they said, "and we'll turn our powers to the will of those in charge. We'll control our own, and use our highly trained adult masters to hunt down the younglings and bring them to heel."
+Look, I'm not saying the Sith are any better. But with the Sith, you know what you're getting. They wear their powers as a badge of honor. You can see the scars their powers have left behind. They don't need to control minds because they'd as soon kill you as waste time with a bug like you or me. They're not silver-tongued deceivers like the Jedi. And more importantly, they fight for power among themselves, which means they're always culling their own ranks, watching for that bigger fish that's about to swallow them up. They're not organized like the Jedi. They don't abduct and train children. It's a lot easier for the little guy like you or me to avoid them.
+I've been kicking around the enlisted ranks long enough to know that I'm a lot safer on the bottom of the heap with a regular schedule and 3 squares a day. Border security and backwater territory work under the direct control of the regional governor isn't so bad. At least it's far from the conflict between the Jedi and the Sith.
+And I swear, one day, I will find the droids I'm looking for.</t>
+  </si>
+  <si>
+    <t>And yet the Jedi are the only ones that achieve immortality by becoming one with the Force upon death. Even if the Jedi code might be restrictive or even harmful as you say, it offers an immortality that Sith cannot reach even if the Force has "set them free."
+The Sith might get things done for the races of the galaxy in the short term (if you can even have a virtuous Sith), but the Jedi way allows the wisdom of the strongest and purest to endure forever, available to anyone Force-sensitive that they choose to appear to.</t>
+  </si>
+  <si>
+    <t>In your title, you say the dark side is the way to go, but in your text, you come to the conclusion that neither is worth following. So, which one is it?</t>
+  </si>
+  <si>
+    <t>Only a Sith deals in absolutes...</t>
+  </si>
+  <si>
+    <t>The ability to wield power, any power, comes with a cost. This is true even of the force. You can pay now or you can pay later, but you will always pay.
+The Sith front-load the power. You sign on and take the easy, simple way directly to power. Great, you have power. You use said power, and it in turn widens and deepens your connection to that power. Which makes that power stronger. But, you haven't paid for any of that power yet. In the prequels we see flashes, visions, and the dark side pushing people to do things. This is the price to pay. You either buy in to the worst bits of Sith philosophy or watch what you've worked for crumble in front of you. People who took that direct path to power generally have reasons to take the power now. They have a goal they need to accomplish or something (someone?) they want to protect, giving up on that thing that motivates them and allowing that driving motivation to be overturned by others simply isn't acceptable, and so the tool twists its wielder. If all you have is hammers then everything looks like a nail, if not using the hammer also means that all the previous work you've done with said hammer gets undone then of course you use the hammer on skulls as well as on nails.
+When it comes to the Jedi, they're trying to pay beforehand. Their philosophy is all about putting in the work before hand and gaining the separation to tell the force "no" and really mean it. The force is the collective unconscious of all living things, it's something shared by all living things. It has a will and goals that are not your wills or goals and sometimes the only right play is to not play when the force demands it. By earning credit with the force by meditation and action it give the Jedi both power and a free hand to use that power in the proper ways. This is, however, a tortuously slow and tedious process.
+In short, the Sith get a big loan of power and can do one truly amazing thing, but is then forever sacrificing others at the whims of their creditors. The Jedi work laboriously for a very, very long time and can achieve great things only by a lifetime of preparation and self sacrifice to avoid making others pay for their actions.
+In truth both are wrong. The Jedi fail because they lost track of why they are trying to gain power, their world has fallen into a long and protracted dark age and they themselves have atrophied to uselessness. The Sith focus on breaking chains and freedom not because it's what they have but what they want. Sith seek to control the universe around them because they cannot control themselves.
+As in real life, the right answer is to take small loans that make sense to achieve your ends, but to repay it promptly and keep it modest. The real answer is to understand and use our passion, but not allow your passion to override everything else in your life.
+Of course, that is much easier said than done.</t>
+  </si>
+  <si>
+    <t>So, here's my understanding of the force, it doesn't like ambivalence. You can't take half of the sith code and half of the jedi code and just get the best of both worlds. If you want to be a powerful sith you have to embody the traits of the dark side, like passion and the pursuit of power. That lets you tap deeper into the dark side and makes you stronger in it. If you want to be a powerful jedi you have to embody the traits of the light side, like harmony and restraint. That lets you tap deeper into the light side and makes you stronger in it. If you tried to take some of both, you wouldn't be able to tap into the light or the dark as much as someone who was either a sith or a jedi (or just otherwise had those traits), and just in general wouldn't be able to channel the force as much. That's why when Anakin turned he went full blown mass murderer, he needed to embrace the dark side as much as he could so he could channel it better and increase his power with it. If he didn't commit, he wouldn't have been able to tap into the dark side to try and save Padme. There may be some workarounds here and there that let a jedi sorta use parts of the dark side, but that's not really the same thing as being neither dark side or light side.
+Also, just think about it. The force has been around for thousands of years. If it were possible to just walk in the middle and be stronger, or otherwise better, someone presumably would have figured that out, and whatever order they established that wasn't dark or light would have been the dominant power. Someone could maybe argue the jedi code doesn't really embody all of the traits of the light side properly, and that it could be changed, but I think the argument that you should just 'lean' into one side isn't right. If all you do is lean to one side, then you won't be strong in either one.</t>
+  </si>
+  <si>
+    <t>IMO the mistake that the Jedi Order made in the prequels was in cutting off all attachment. By going to such great lengths to do this, they were in fact being ruled by their fear, and IMO this is what allowed Palpatine to cast his dark shadow over the galaxy and cloud their vision.
+Yoda felt certain that if Luke gave in to attachment and went to save his friends in Cloud City, he would die, or fall to the dark side. But those same friends he went to rescue were able to save him from being captured, and later on it was his attachment to his father that allowed him to overcome the darkside and win the war against the sith by refusing to fight.
+Through detachment, the Jedi Order had rendered violence one of the only methods available to them to control the galaxy.
+So in conclusion, Dark Side still bad, Light Side still good, but fear of the dark side is a negative emotion that itself must be controlled.</t>
+  </si>
+  <si>
+    <t>Be a mixture of both</t>
+  </si>
+  <si>
+    <t>The Jedi and Sith are religious/philosophical orders. They have a dogma or catechism that they are taught as they ascend through their training.
+Many other commenters responding to the OP have noted that the dogma of the Jedi has to a significant extent calcified in the very long period of time that the Jedi have been a combination of paramilitary and judicial enforcer for the Republic. The degree to which the Jedi claim a need to train and control all identified Force sensitives and the need to reassure the citizens of the Republic of their relative incorruptibility and reliability have pushed the Jedi Order towards a more and more rigid interpretation of their beliefs. Individual Jedi may, in the course of a career of contemplation, come to understand the Order's philosophy in more complex and layered terms, and may in particular highlight the sentiment that Anakin lays out in AOTC, that a Jedi is defined by boundless compassionate love for all beings (rather than self-serving attachment to a particular being).
+The Jedi Code vaguely resembles both Stoicism and many forms of Buddhism, but with a peculiar twist that has only been touched on briefly in canonical SW. The Jedi do not believe that the Force is an Absolute that lies behind or outside of the universe of lived experience, nor do they believe in detachment in the Stoical or neo-Stoical sense (that one can have no power over others or the world, only the self; so do not trouble oneself to try and control the world). For the Jedi, the Force is first not hypothetical or believed in; it has tangible, observable, empirically measurable existence. Second, through control OVER the self, one can wield this real power in the world. Third, the Jedi very much believe in acting in the world and enforcing their will over others (crucially this is something that their dogma doesn't mention at all.) Fourth, the Jedi Order has an extensive and elaborate hierarchy, which is a bit at tension with the emphasis in their Code on self-control. Fifth, the Force in which the Jedi believe is the energy that connects all life, that it is generated by life itself. And yet the Jedi Code stresses some degree of self-discipline that runs counter to an individual Jedi's lived desires and experience, which suggests that becoming a master of the Force may be in tension with being in harmony with the Force--that this may be the difference between being a Force-user and a Force-generator.
+As a philosophical order, the Sith are even more contradictory, however. As an order, their code actively contradicts most of their observed behavior. Begin with the Rule of Two. Adopted as a pragmatic adjustment to the consequences of defeat by the Jedi, it is essentially an answer to the age-old problem that troubles libertarians and anarchists--about how to organize a political or philosophical movement which disdains the idea of organization. Most of what we know about this is EU and thus now non-canon, but if we go with that information, the Rule of Two has held in some fashion for a thousand years. (The Phantom Menace provides some confirmation in that the Jedi have clearly come to the conclusion that there are no Sith remaining, meaning that the Sith for many centuries have observed its discipline and remained hidden from a very large and powerful group of enemies.) We might wonder whether Sith in this interval have sometimes observed the Rule of Two only partially, as Darth Sidious, Count Dooku and Darth Vader have done (e.g., they have sometimes trained or taken an interest in other Dark Side users as foils/weapons against the other current Sith Lord) but if so, they have done it with great care and restraint.
+So here is a movement whose dogma celebrates passion, power and victory who have for a thousand years instead followed a path of restraint, secrecy and (temporary) acceptance of defeat. Darth Sidious is a supreme example of this tendency. As far as we know from canon, he has had no Jedi training whatsoever, but he behaves in many ways as a Jedi might. He lives most of his life in a very controlled and disciplined fashion, hesitating to use his power openly. He hides his true passion for revenge (and his conception of revenge is quite dispassionate and political: we never get any sense that his hatred of the Jedi is anything but intellectual). He manipulates and makes use of powerful Force wielders who better exemplify the Sith dogma (Maul and Vader, possibly Dooku/Tyrannus as well, though his motives are also a bit more opaque). As the Emperor Palpatine, he carefully systematizes his power and relies only rarely on direct wielding of the Force. He invests methodically in the creation of a weapon that will substitute for the eventual lack of the consent of the governed within the Empire, something he clearly sees as inevitable.
+Dooku/Tyrannus appears cut from a somewhat similar cloth. He's certainly disciplined and careful. Vader, for all that he seems to embody many aspects of the Sith Code, first off all joined the Sith under circumstances of great confusion and ambivalence (rather than passionate certainty and strength), and later wields power under circumstances which are deeply "chained"--particularly including his dependence upon his life-support suit. Moreover, like his master, he claims to seek peace, with some observed degree of sincerity: e.g., his passion is to bring order to the galaxy.
+The Sith Code in many respects sounds like the response of Romanticism to utilitarianism and other rationalist dicta arising out of the European Enlightenment. Except that it seeks power and victory over society. We have yet to see a Sith who pursues personal, individual pleasure and satisfaction, or satisfies his or her whims.
+The upshot of all this in terms of the OP:
+As with many religions or philosophical movements, the simplified content of the beliefs of the Jedi and Sith is a very poor guide to the actual practices of adherents. While many religious or philosophical converts, as well as long-time congregants, may produce an explanation of their membership in terms of the dogma or beliefs of their church or movement, these are often post-facto narratives, often offered in response to a question from an outsider. People join churches and movements because they're raised in them, because they live in a community where that church or movement is powerful, influential or supportive, because of a need for emotional connection to other congregants, because of a more general match between the habitus of the movement and their own that is more implicit and inchoate than a dogma. Or they like one aspect of the dogma and not the rest. E.g. , in imagining oneself in the SW universe, one should feel attraction to Jedi or Sith (or disinterest in both) based on something other than their Codes. The Codes are a poor guide to both.
+Jedi and Sith actually share many habits of discipline and training. They may narrate what they are feeling in very different ways, but both groups set themselves aside from non-Force users (despite the proposition that the Force flows through all things), train incessantly in ways that are quite different from the everyday lives of the vast majority of intelligent beings in their universe, and both groups end up having considerable power over others without apparent need to work with or reference the authority of non-Force-users. Jedi and Sith both seem on some level to be like human beings on our own planet who are capable of deferring gratification, a psychological trait that some believe is tied to successful careers, etc.It is possible to infer that there should be "grey" Force users who behave quite differently--perhaps more as Epicureans than Stoics, who live within the world rather than apart from it, who satisfy their desires and curiosities, who reject discipline. The fact that there simply do not seem to be so far in any version of SW suggests that wielding the Force requires some degree of contradiction or alienation from the Force. Luke Skywalker can be understood to be saying this in The Last Jedi in his apostasy against the Jedi Order: that in disconnecting himself from the Force, he has actually come to understand it far better. (One can also question whether in fact Rey is right that he has disconnected himself, given that Luke very evidently senses what Rey is doing to connect with all life during his "first lesson".)E.g., for the OP, to feel attraction to either Jedi OR Sith is to feel attraction to the idea of wielding a power that arises from life itself by setting oneself apart from that power. This isn't that unusual a philosophical proposition: most arguments that human morality towards the natural world ought to be in some sense "better" than nature itself embody the same contradiction (positioning human beings both as part of nature and as outside of it).</t>
+  </si>
+  <si>
+    <t>One could argue that many Jedi tenets are Stoic in principle. As such, there have been many Stoics IRL that have been extraordinarily successful: Marcus Aurelius, George Washington, General Mattis, John McCain. Even Warren Buffett and Bill Gates practice Stoic principles.
+While I agree that emotions run deep in humans, that does not mean they are the best tool for success.
+As Epictetus would write (summarized): The rules of grammar may tell you what words to use and how to use them, but grammar alone cannot tell you whether to write the words in the first place. Musical theory can tell you what chords to use and how to use them, but cannot tell you whether to play in the first place. Reason alone is the only faculty that humans possess that can analyze itself.
+Even prominent psychological theories revolve around these concepts (CBT, REBT). And these have proven to be extremely effective.
+So yes, while most humans are emotional, Epictetus would say that is because we have become a slave to them and to any who have the ability to manipulate our emotions. The human condition is flawed because we rely on emotions. Rather, we should evolve to rely on reason, and allow ourselves only to experience emotions when beneficial.
+Live long and prosper. /s</t>
+  </si>
+  <si>
+    <t>Firstly the Jedi are not the Light Side and the Sith are not the Dark Side. You can be a LS Force user without following the Jedi Code and you can be a DSFU without following the Sith Code.
+Second, emotions aren't DS. The late Old Republic-era Jedi forbade emotions because they were worried about cases like Anakin's. Anakin's attachment to Padme made him selfish and this led to his corruption. Being attached to Padme wasn't when he turned to the DS, it was when he murdered to keep her. It's not that the Jedi wanted Anakin to never have a partner, they just know that everyone is fallible and attachment is a risk which can have devastating consequences for the Galaxy.
+But you don't have to be a Jedi to be light side. Ahsoka wasn't. You can feel emotions, marry and have kids. You just can't be a Jedi.
+Why not be a Dark Sider though, since you're already not going to be a Jedi? All I have to do is not take it too far, right?
+Wrong. Trying to be a DSFU who doesn't murder people is like trying to be a tobacco addict who doesn't smoke. DSFU get their fuel and all their strength from strife. They have to hurt people and do evil deeds. Anakin needed to murder Jedi to become strong in the DS. And the more you give in the stronger it controls you. It's addictive and you can't be a moderate DSFU as there's no such thing.</t>
+  </si>
+  <si>
+    <t>I guess it's a question of intentions versus result. Imagine you see a child screaming from the window of a burning building and attempt to run in and save them, but it turns out you had unknowingly ran onto a film set with a controlled fire and firefighters on the premises and were never actually in danger. The film was rolling and they caught what you thought was your real attempt to save this child and used it in their viral marketing for the film. Are you not a hero, despite your purest intentions and selfless act, because it all turned out to not be real?
+You may have had no illusions of what you were getting into when you joined the military. That doesn't mean that everybody who joins sees it as clearly as you.</t>
+  </si>
+  <si>
+    <t>I am a military veteran. I served during the Vietnam war. I see nothing heroic in military service. I see mostly kids from disadvantaged socio-economic backgrounds joining the military to escape their dead end lives. And the military offers that, there is no doubt. I served and I'm glad I did. The service helped me out of poverty, but I had no illusions about who and what I was serving. We haven't been involved in an existential war since the 1940s. All of our actions after that, and most of them before, have been to protect and promote the American corporate hegemony. We want docile trading partners, that's it. If you are in the military your only job is to keep the spice flowing. You don't protect Americans. You protect American business interests abroad.</t>
+  </si>
+  <si>
+    <t>I agree with the spirit of what you are saying, but only to a certain extent. The oligarchy is real and a huge problem, but one that’s a problem for the entire world. I also think it isn’t a monolith and the oligarchy isn’t homogeneous across the whole planet.
+To counter your point of view, I’d highlight the fact while US hegemony has brought forth evil and some destruction, it’s also brought forth a period of significantly reduced global conflict. It’s allowed for the global proliferation of technology and increased access to the sun of all human knowledge through the internet and such. The US is an Empire and even though it’s an imperfect one, I believe the US and the West would look very, very different if it weren’t for the US maintaining a certain level of stability.
+People seem to significantly undervalue our global military presence and capability of the US military. Not just presence, but ability to deploy and project force in very short order. It’s relatively unseen in human history.</t>
+  </si>
+  <si>
+    <t>Honestly? You're both wrong. How do I know this? This:
+is as much a fundamental misunderstanding of US foreign policy as thinking we're the ultimate heroes. We don't want anyone docile, we just don't want them to be conniving douche-canoes. I mean if we wanted docile partners then Japan wouldn't have any say in where we want to build bases and the French would just go along with everything we say instead of complaining every five seconds and acting like they're still an empire.
+The truth is somewhere in the middle. They're both heroes in their own right and they do protect business interests. One does not make the other false, this is not a zero sum game. A person can die heroically defending an oil rig that will not only benefit a corporation but the nation they're serving as a whole. They protect Americans by protecting our interests as well. That's just a catch all phrase for anything that isn't a direct action to save lives. After all, everyone loses if a city is destroyed.
+We've tried the exact opposite of what you believe we have. It only turned out worse for not only us but the world. It's personally very annoying to me when Redditors have the balls to tell us we are the world's police because god I wish we were. Then we could have stopped the multiple world wars, since WWI and WWII were not the first world spanning wars, that we keep getting dragged in to. Especially between you France, Britain, and Germany. Being non-aligned and isolationist is not something that works in any place other than in imaginations. So here we are. Having to deal with a world so violent and hypocritical that we can't be neutral and we can't stop others from killing each other because of things so stupid like a prince pissing on the wrong patch of land 2,000 years ago.
+So really, believe what you want. It doesn't change the nature of the beast. A beast that doesn't fit in to the cage of corporate hegemony, nationalism, globalism, or every other fancy term a suit in an air conditioned room tells you explains the world.</t>
+  </si>
+  <si>
+    <t>Fellow vet here brother. I think you are discounting how important "business interest" is to your fellow citizens. The US is the largest and most profitable economic monster the world has ever seen. Look at GDP and avg relative income of Americans vs world. How is not protecting the "corporate hegemony" not protecting Americans? You want to see pandemonium in the streets? Stop the influx of the thousands of commodities that our economy depends upon to function.
+This pandemic has revealed just how vulnerable our global economy is due to JIT inventory manufacturing philosophy.
+Lately...the last 20 years or so due to WOT, we've been nation building fools. Bush, Obama, Trump fools to think we can accomplish what Arabs won't do for themselves. I hope we've learned our lesson with this Afghanistan imbroglio.
+But if you want the US to become some isolationist ostrich and let the rest of the world burn, so be it. But I think we are all better off with our foreign policy acting in our (and our businesses) best interest.</t>
+  </si>
+  <si>
+    <t>The best way I have ever heard it explained by a service member “I’m serving so you don’t have to”. If it weren’t for people like him joining the military, we would all be subject to the draft. In my mind, he is a hero. He is doing the shitty job and taking the responsibility so others do not have to risk their lives for the security of the country and it’s interests.</t>
+  </si>
+  <si>
+    <t>The United States has never been involved in an "existential" war.
+Not being "existential" does not automatically make a conflict "in corporate interests." Fighting existential threats is also not mutually exclusive with defending corporate interests. Fighting existential threats is literally a corporate interest.
+Which corporation did you fight for in Vietnam?
+For the country, not any corporation. You aren't keeping the spice flowing to prop up any particular company. American companies rise and fall all of the time.
+Not mutually exclusive. Anyways, what were the business interests in Iraq and Afghanistan? Kosovo? Syria?</t>
+  </si>
+  <si>
+    <t>I hold a different view. Soldiers are victims of that system. Often coerced by a weak economy and militaristic propaganda and glorification of the military... kids are scooped up into the military-industrial complex's neo-capitalist death machine and thrown out into the trash as adults with little to no support in a country that will glorify them but ultimately doesn't give a damn... Sure, they enforce bad things but more than anything I think most of them need a damn hug for the shit the government put them through.</t>
+  </si>
+  <si>
+    <t>The military doesn’t have to act to serve a purpose. Its mere existence deters violence from other nations.
+If you don’t believe me, let’s shut down the military completely and see how long it takes North Korea to bomb the US</t>
+  </si>
+  <si>
+    <t>People are always saying things like this, as if it’s businesses vs Americans. you do realize that if businesses suffer, everyone suffers right? Businesses are intrinsically linked to how well off everyone is. Just look at 2008 for an example, businesses fails and leaves particularly the middle and lower classes worse off. At other periods, businesses have done quite well and most people are much better off because there is more money to go around.
+So the military may not actually be actively directly protecting Americans, but they are definitely indirectly protecting them, (as well as passively but others have already addressed that).</t>
+  </si>
+  <si>
+    <t>What about Korea? Because of the war we fought there 52 million people don't have to live in shithole North Korea.
+We went there to fight the communists, why we fought them isn't really that important especially since there wasn't just a single reason.
+I think Korean war vets are heroes, they risked their lives to fight North Korea to a stalemate. Given what a shithole North Korea became, and how little the war itself had to do with it's sharp decline into shithollery, I think those men deserve some credit.</t>
+  </si>
+  <si>
+    <t>I'm very anti-military but I don't think it's correct to demonize the average soldier. No one (or very few) join up specifically to "serve corporate interests", they join because they genuinely believe they are serving their nation, and I would argue that even if they aren't properly utilized that is still partially their role in society.
+It's easy to criticize service members during a time when bloodless warhawks are forcing them to wage war in the middle east for seemingly no reason other than to claim oil reserves. What's important to remember is that if the war were a just one, like WW2 or the American Civil War, it would be the same people fighting it, and they signed up knowing that their life could be placed on the line for that very purpose.
+I do think it's a valid argument to say that information is available to us today that shows how the military is not what we think it is, and how they merely establish "docile trading partners", to use your words. But I don't think you should discount the very strong effect that propaganda plays in convincing us otherwise - the school system, the national anthem, every military or superhero movie in existence, etc. If you aren't looking for reasons to dislike the military, you're unlikely to find them.
+In summation, I consider myself anti-military but pro-veteran. Obviously there are counterexamples of the latter part like those Marines who got outed for killing civilians, but by and large I think service members are just doing their best to serve their country.</t>
+  </si>
+  <si>
+    <t>When was the US's existence as a nation ever been threatened and we went to war to fight for it?
+If you're referring to WW2, we entered the war because we were attacked. Being attacked once doesn't equate to the existence as a nation was threatened in any meaningful way. We weren't there yet and never got that far.</t>
+  </si>
+  <si>
+    <t>So when the military is doing aid and relief missions to disaster areas are they still strong-arm enforcers of corporate interests?</t>
+  </si>
+  <si>
+    <t>Army veteran 2013-2018. I mostly agree with you, certainly that serving in the military doesn't make someone a hero, or even good. I served with a lot of shit bags. That being said, I also think the military has changed a lot since the Vietnam era.
+For starters, and this is a painful realization for me, I actually trust most military officials more than civilian leadership, especially political leaders. A vast majority of the officers I served with were pretty critical of the US war machine and how it is used. You saw this with veterans speaking out about abandoning the Kurds and certain groups of Afghanis. I think we also saw this with Gen. Milly's attempt to smooth over mounting hostility with China. I saw some other things while in the Army which showed me how the military has our backs more than the civilian population. After becoming a civilian again, I believe this now more than ever.
+I also agree that we have cynically used our military to maintain an economic status quo. I don't really think the military is to blame for this and I am seeing a bit of resentment because of it. I don't resent the Army nearly as much as I resent out politics and apathetic civilian population.</t>
+  </si>
+  <si>
+    <t>Well yes, Robert Heinlein says it best, force is the ultimate power from which all others are derived. Those those with them largest force command the most respect.
+But I have to ask. You seem to say being in the military was good for you. But then say others shouldn't join the military. Care to explain your reasoning? You also seems to think that the open market principal is a poor choice for a country. But if the country doesn't defend its business interests, how can it expected to dominate the free market? I'm not making a claim on wether the interests are good or bad, this is merely to request you expand your reasoning. And what would you have us do, become global isolationists? While I much prefer that idea, I think others would disagree. So how can we defend and promote our country, and our values abroad, in countries that have a separate moral framework, In your opinion.</t>
+  </si>
+  <si>
+    <t>I feel you have a bigger issue with those making the decisions at the top, not the rank and file that have to follow those orders.</t>
+  </si>
+  <si>
+    <t>I'm just here for Bojack Horseman quotes</t>
+  </si>
+  <si>
+    <t>I did it to get out of poverty. I’m not a hero.</t>
+  </si>
+  <si>
+    <t>I don’t want to make this a partisan issue but frankly I have no choice. Now, before I get into that, I’ll start off by saying that it wasn’t always like this. Sure, we always had partisan politics, but for hundreds of years at least the two sides respected each other. They actually looked for compromise and reached across the aisle. Both parties didn’t agree with each most of the time, but still bad mutual respect.
+I believe this all changed in the 90’s, where 2 specific things happened to create this change. This is where my post gets a bit partisan itself. 1 is the internet. The internet has created a system where each party lives in their own reality of information, and this is deeply hurting the divide. The second thing unfortunately is Newt Gingrich.
+Now, in case you don’t know, when Newt Gingrich became speaker of the house, his plan was to fight everything the Democrats did, sometimes for the sake of it to maintain power. This right here had really never been done to that level before, and because of that we still see things like Republicans trying to steal the election.
+Trump and the GOP are like a computer science teacher trying to find bugs in their student’s code. If the student didn’t explicitly write a safeguard to protect against a certain exception case, the professor will find a way to break the code. It’s something that the student didn’t even consider that the user could input, therefore didn’t bother to write anything for it. This is exactly what Trump and the GOP do when it comes to things like the election process. No one had ever considered delaying certification processes and trying to abuse electors, but because it’s still an option, Trump and the GOP will do it. Another example would be when Moscow Mitch just refused a hearing to Merrick Garland. Something that had never been done for a SC nominee.
+So in short: America and the 2 party system isn’t broken: the Republican Party is broken. And again let’s be clear, I’m not talking about the general public of the GOP. I’m talking about the leaders and politicians, viewing the constitution the same way a computer science teacher views their student’s code.
+I know that not many people will like or agree with this, but that’s what I believe has happened.</t>
+  </si>
+  <si>
+    <t>There are only two teneble options for voting in the American politics. You might be socially liberal and fiscally conservative. You might be a liberal in favor gun ownership but with some background checks or a centrist and have different stands on each of the different issues. But due to having only 2 options you are forced to choose a side. And once you choose a side, you want your side to win and the group think leads to progressively convincing yourself on completely aligning with either the liberal or conservative views. As a result, the left is becoming more leftist and the right is getting more conservative each day, deeply dividing the nation. What we need is more people who assess each issue and take an independent stand. Maybe a true multiparty system could work better?</t>
+  </si>
+  <si>
+    <t>OP, I want to note I’m not a fan of bipartisanship before I say everything I’m about to. I’m just going over the arguments for it that actually carry some logical weight. They are not my own arguments.
+In nations with similar voting systems to ours, what happens a lot is vote splitting. Take Mexico for example. They’re a true multiparty system, but the most popular candidates rarely win their elections because of lookalike candidates. When enough wealthy people both illegitimate and legitimate don’t want a candidate to win they just prop up a lookalike candidate to absorb some of the votes that would go to that candidate. That didn’t work this last time for them, but it has many times prior, and like our politics the result has been more polarization efforts by candidates to stand out more.
+You have to remember throughout our history parties have had more fluid identities than what we’re seeing today because both parties are addicted to one issue voters, which really set in around the 70s. Republicans became the party of saying no a lot and democrats became the party of maybe*, but with compromise. They love creating them with singular decisive issues like abortion. That’s an easy vote to net and those people won’t scrutinize what their candidate does in office besides from what relates to that much, which enables a lot of what are legal systems of corruption in our nation.
+In the ideal bipartisan government they say they believe in, each party should change a lot from decade to decade. They suggest getting over this hump is healthy for the policy quality, but in reality a lot of them get paid a lot of money to play what are essentially “no” politics. Where their core policy direction is about what they reject rather than reform. To perpetuate this more easily, they’ve blocked the expansion of the House and the majority of state legislatures. Because new seats dilute their power and give more opportunities to third parties to gain ground on them. Both institutions have representatives representing many multitudes into the double digits of what they were originally supposed to. Now the modern era has a lot better communication than that was conceived with the understanding of, so yes they should represent more people than they were originally intended to, but no where near as many as they are. This has a problem for the power structure of the Senate too because regardless of which party is in the majority, they shift more powers to the Senate because the terms are three times longer than congressional seats and alternate where some terms have a term that’s two years like a congressional seat rather than the typical six. It’s easy to keep grip on these seats, and they are effectively much more powerful.
+If you really want more parties, it is crucial to support them in state legislatures. I cannot stress enough how much our neglect of voting for those seats enables the parties to systematically block these. Third parties themselves are even somewhat guilty of neglecting these, even though they’d help them gain much more leverage over the two major parties.
+Finally, there is a solution to sorting out a lot of these issues by changing the voting process. Rather than one vote for one candidate in each race, you adopt instant runoff voting, otherwise known as ranked voting. You instead rank candidates one through however many and the higher the number the weaker the support of that candidate, and if you don’t even fill in a rank for them that’s the equivalent of no support. This would improve how our candidates have to compete with each other as representatives so much more, brings more parties onto the table, prevents vote splitting, and it gives candidates way more information on what policies and candidates voters may be interested in for the future.</t>
+  </si>
+  <si>
+    <t>I agree with this, but I believe that changing it requires a different solution. Our voting system is the problem. If you vote for a third party you end up taking away votes from your preferred of the two big parties. Third parties act as spoilers and actually shift power in the opposite direction from what they are attempting. Ranked choice voting, runoffs, and jungle primaries are all attempts to solve the underlying problem.</t>
+  </si>
+  <si>
+    <t>My only remark here would be that, in my opinion, there is no such thing as a two party system. The fact that only the two main parties have even remotely a chance of winning, is a consequence of how people behave when there is a single-turn ballot. In theory, nothing prevents a third party from getting enough votes to win the election. In practice, it can't happen.
+Everything you say, in my opinion, is true, but it doesn't address the true problem. In a two-turns system, for example (which is still far from perfect, of course), people can actually express themselves in the first turn without wasting their voice for their favorite of the two main parties. And as these voices are expressed in the first turn, it has two positive consequences: first, the issues raised by the other parties can be taken into account by the two main parties. Second, well, sometimes you can have surprises. Here in France, we had a bad surprise in the past, the nationalist far right having passed first turn. Of course, it hurts when it happens, but I think it has allowed everybody to be more aware of the situation. And at the time, it was obliterated in the second turn (I'm carefully weighting my words: it was 82 to 18), which puts things in their right place. Also, our current president was not actually candidate under one of the two main parties' label. I'm not necessarily happy about it now, because I would, of course, have preferred to have the president nominated by "my side", but it looks like the direct consequence is that the two main parties we had before are much less relevant now. What I mean is, for decades we had something that very much looked like a de facto two parties system, but cards have been re-dealt, which is objectively good news.
+In a single-turn ballot, none of this is possible. Voting for a thid party is taking away votes from your "side", so the two main parties are over represented at each election, making it more obvious that only one of them can win. That is a vicious circle, hiding the fact that maybe there is a potential for other points of views.</t>
+  </si>
+  <si>
+    <t>I mean this is literally occuring on the lower levels of politics.
+You had 11 options you could've chosen in the democratic primary, with minor to major differences in their policies.
+You can't complain that you're going to McDonald's when you had a vote but then choose to not vote.
+Now you have to accept that you'll be going to McDonald's and choose what's on the Mc's menu.
+They're becoming more leftist and conservative because that's what the people that participate in the lower levels want, the only people that don't get heard are the people that only vote every 4 years.</t>
+  </si>
+  <si>
+    <t>I think you’re confusing our toxic two party system as the cause, rather than a symptom of problems.
+The two party system is an inevitability that is created by our voting system. Thus our voting system is the problem.
+We give a minority of the population (rural Midwestern states) a majority of the Senate. Control of the body is required to pass any legislation or confirm any appointment
+Then our urban voters are packed into districts and states that reduce their representation in the House.
+Then the president is selected in winner take all races by states, where only a handful of states are competitive.
+The whole thing rewards taking control of the senate with a minority of votes, then pandering to the couple swing states to control the most crucial functions of government. Taking the house is harder, but it incentivizes controlling the re-districting processes and driving base turnout more than heathy debate.
+Which is of course divisive and misrepresentative.
+Are you educated? Do you live in a state that actually has a center of excellence in some domain? If so, congrats - your vote is worth way less!
+The solution space here is dramatic reduction of the power of the Senate, switching the electoral college to winning districts (instead of states), and and hybrid of district &amp; at-large reps selected by ranked choice party proportionate.
+That kind of stuff naturally eliminates the two party lock and toxicity.</t>
+  </si>
+  <si>
+    <t>You didn't provide any instances where Democrat voters have moved left in response to the democratic party. Your argument assumes that the Democratic party is responsible for Liberals moving further left, yet public approval of major progressive/left wing issues implies most liberals are already further left than the Democratic party.
+https://www.pewresearch.org/fact-tank/2020/09/29/increasing-share-of-americans-favor-a-single-government-program-to-provide-health-care-coverage/
+https://www.pewresearch.org/fact-tank/2020/02/21/democrats-overwhelmingly-favor-free-college-tuition-while-republicans-are-divided-by-age-education/</t>
+  </si>
+  <si>
+    <t>Counterpoint: in a 2 party system, people are forced to form coalitions with other people who they don't agree with on everything. This can actually encourage moderation, as opposed to a multiparty system which radicalizes people by allowing them to join a party consisting only of people who agree with them on almost everything.
+And furthermore, a 2 party system is arguably no more divisive than a multiparty one, as the only difference between the two is whether coalitions are formed before or after the election. So a 2 party system no more divisive than any other democratic system, and if anything, it's more moderating.</t>
+  </si>
+  <si>
+    <t>The two party system isn't causing the divide. The divide is a natural result of the democratic system used in most modern countries.
+In any system where the rulers are elected by popular vote, the optimal outcome is to win with as little over 50% as possible. When 51% of the voting population get to control 100% of the power, you want to keep the amount of people as close to 50% as possible. The more people you have in the winning majority, the more diluted the power becomes. Going from 49% to 50.1% is worth everything, whereas going from 50.1% to 51% is actively making your ability to please the winning majority worse.
+Given that, in a democratic system you're going to see groups try as hard as they can for as close to 50.1% as possible, the end result of this is going to be two parties close to 50%, vying very hard to sway that last tiny fraction so they can just get over the halfway mark.
+The other main reason is because anyone with a basic understanding of mathematics can see that voting is effectively pointless. The odds of affecting the results are so close to nil that for human purposes, we can just go ahead and call them nil.
+Why, then, do some people still vote anyway? It's because they receive some kind of emotional benefit when they vote. As the population grows and people become more rational overall, the amount of people who realise that voting is inherently irrational drops, meaning that the proportion of people voting based on emotional reasons grows.
+There are two main ways to maximise the emotional impact of voting - making one side seem really inspirational and good and virtuous, such that people really want to vote. The other way to maximise the emotional response is making the other side seem particularly despicable and horrible. You combine both of those aspects and you're always going to get a divided society. You have to make your side seem as good as possible whilst making the other side look as bad as possible. The worst thing you could do is make both sides look similar, because then no-one will vote at all.</t>
+  </si>
+  <si>
+    <t>Democrats are socially liberal and fiscally conservative. Neither party is interested in changing the economic system in favor of labor. Both parties are center-right, but they hide that fact behind a few wedge issues. Both parties love to bail out banks and put bankers in their administration. Liberalism is not leftism.
+However, I agree the First Past The Post two-party system is harmful, preventing a real progressive party from gaining traction.</t>
+  </si>
+  <si>
+    <t>The left is not getting more leftist each day; this would be a reasonable claim if it were happening out of proportion to what the right is doing.
+The right is not getting more rightist each day; this would be a reasonable claim if it were out of proportion to what the left is doing.
+What is happening each day is, the poor are getting poorer and the rich are getting richer, and so the poor are being radicalized.
+Everything else you observe is caused by this. Note that, for the rich, the current system's working great - nothing changes and money continues to get made. So, anytime we talk about the system "not working", we need to remember: "not working" is a perspective. For whom is it not working? For whom is it working well enough? That latter one's your source of inertia, right there.
+People don't have reasons not to be radical when following the rules and doing what 'They Should' impoverishes them.
+Solve the root cause, you solve the problem.
+I guess you can claim the root cause is a poor voting system, but in a country where whether you get a decent education as a child is gated behind your wealth, I claim the ballot box is way too late an occurrence in someone's life to step in and to correct the problem. What oppressor would want to pay $2 for violent police when he could pay $1 for seductive media that works as well, given that he can rely on a majority of the population not being able to spell (much less practice) 'rhetoric'?
+And so America miseducates-to-manipulate its poor, and so we vote against our interests and see each other as the enemy. More parties won't change that.</t>
+  </si>
+  <si>
+    <t>I'll leave you with a quote from our great founder of America, President Washington in his Farewell Address, September 17 1796. "However [political parties] may now and then answer popular ends, they are likely in the course of time and things, to become potent engines, by which cunning, ambitious, and unprincipled men will be enabled to subvert the power of the people and to usurp for themselves the reins of government, destroying afterwards the very engines which have lifted them to unjust dominion." He called it 224 years ago.</t>
+  </si>
+  <si>
+    <t>It absolutely is. You shouldn't not vote for someone because they're part of a certain party. You shouldn't vote for someone because you don't agree with them. I can't vote in the primaries because I'm not either a Democrat nor republican, therefore I cannot vote in the primaries, even though I want to.</t>
+  </si>
+  <si>
+    <t>It is still possible to counter fake news by sharing reputable information, because many reputable institutions do not use paywalls:
+Government departments/agencies
+Some high quality, impartial media organisations such as the BBC
+Crowdsourced information sites such as Wikipedia
+If people don't trust these organisations, why would they trust paywalled newspapers?</t>
+  </si>
+  <si>
+    <t>There has been a crazy uptick in the spread of misinformation in the past years and it surges every time there is a panicked situation like a natural disaster/election/riot.
+Now, with all the major papers hiding their content behind paywalls, it has become impossible to counter fake news by sharing relevant information as the other party can't even access it.
+WaPo's motto literally is "democracy dies in darkness" which is ironic as they are most infamous about hiding even years old articles behind the paywall.
+This is directly adding to the fake news crisis and shouldn't be allowed. CMV.</t>
+  </si>
+  <si>
+    <t>Tabloid newspapers were the protagonists of all original fake news in the first place. They know (as do now, several websites doing the modern day equivalent) that sensationalist and misleading headlines sell copies / gain views. Every week there was an apology buried in the middle of the newspaper for a previous leading story that they knew to be fake. The only difference now is that any Tom, Dick or Harry can create a website; while there was a lot more time, effort and finance required to go to print.
+Newspapers having a paywall isnt starting fake news - newspapers were the fcking pioneers!</t>
+  </si>
+  <si>
+    <t>Your view could be reworded as, "High quality content costs money." And that's true. And it's always been true. But you make it sound as if actual news organizations and journalists are at fault for expecting to be paid for their services. If the goal is to provide high-quality news, that doesn't just come from someone typing "truthfully" on their computer at home, and the costs of running a business like the New York Times, Wall Street Journal, the AP network, or Reuters are not going to get covered by a few strategically placed ads on their websites. Moreover, it is not the job of such companies to try and combat fake news. Fake news is the result of the proliferation of instant, free access to any and all web content, and the inability of the general populace to care about the source of their information. Sure, legitimate newspapers care about being better, and legitimate journalists wants an informed populace, but the onus isn't on them to make their content free, let alone the fact it would be impossible.</t>
+  </si>
+  <si>
+    <t>Newspaper always have been behind a paywall. Before the internet you still had to buy a physical newspaper. Without buying it, there were very limited ways to read it and most of these ways still exists.
+I would even say the opposite is true. Not charging is what lead to an increase in fake news. Without charging for a subscription the only way for a newspaper to make money are ads. And for ads to be profitable you need traffic/views/clicks and to get them speed and headlines are way more important than quality. That lead to a loss of quality in reputable newspapers, which we have seen over the past few years, and in return gave more "credibility" to fake news.
+A subscription based model allows the newspaper to focus on quality as they don't have to compete for being the first to get clicks.
+And linking them to an article hardly ever leads to them reading it. Or they don't believe it because they don't trust the article. (Which partly is because newspapers suffered a loss in reputation, or they didn't trust that source to begin with because of their opinion)</t>
+  </si>
+  <si>
+    <t>You can't blame fake news on newspapers.
+You can blame it on opportunists taking advantage of willful ignorance.
+People expect free stuff on the internet, but gathering the news, reporting it and publishing it is very expensive. We all used to pay for a paper subscription, you should be paying for your online subscription. It's a couple of cups of coffee a week...
+You don't really expect professional journalists to work free do you?</t>
+  </si>
+  <si>
+    <t>Until recently all newspaper news had to be paid for. Then it was almost all made free, and now some has to be paid for. Meanwhile, the internet doesn't like to pay for stuff, so those circumstances give us the news we deserve, that we pay for. You're partly conflating and partly getting it backwards. If you want good news, you have to pay for it.</t>
+  </si>
+  <si>
+    <t>Couldn't the opposite be true?
+Users making it difficult for legitimate sites to make a profit with ads via ad blockers have led publishers to resort to more intrusive methods to turn a profit while putting out higher quality content.
+You get what you pay for which is why NYT, Denver Post and WSJ are paywalled and buzzfeed is free but constantly doing layoffs.</t>
+  </si>
+  <si>
+    <t>How do you suggest we pay journalists so they can feed their families while doing their jobs? Dependence on ad revenue can interfere with editorial freedom. Paying a subscription is generally the best way to ensure relatively neutral coverage.</t>
+  </si>
+  <si>
+    <t>While these two things happened in succession, that does not automatically mean that one caused the other. Without any evidence, that would be a Post hoc fallacy.
+One of the main problems with fake news is that it goes hand in hand with a huge distrust of the "bad Mainstream Media", often ominously abbreviated to "MSM" by those who oppose it. That means that the availability of more non-paywalled content by the MSM would likely not lead to less fake news, because the people who are drawn to fake news are much less likely to look for news by traditional news sources in the first place.</t>
+  </si>
+  <si>
+    <t>Fake news and clickbait has always existed (aka. the tabloids) but during the age of paper, being a reputable newpaper meant you would get people all across the country buying your paper. So you would hire established writers and editors, expensive investigative journalists to interview people, dig through documents, fact check, and all the things that make up a strong journal. But with the internet, writing a fact checked story isnt as important as being first, being loud, and being cheap. The main way people consume media right now is by reading the ttitlea, and spreading the ones that seem to imply something they find believable but shocking, in the hopes someone without adblock will click on them. So being right doesn't matter since garbage papers constantly go viral on reddit, so you fire the investigative journalists to save costs. No ones going to read the body of the article anyways, so lets fire the writers and editors. This move to big papers using paywalls is their attempt to recreate the old subscription model, so instead of getting money for each story, instead you put some money down, essentially saying, the stories I see from this paper seem decent, I will pay to read this until I think they don't deliver good news. By getting this more stable income they hope to go back to being able to rely on a well established and skilled staff to publish well researched and written news. Unfortunately, many people on the internet, including me, are so used to getting everything, from movies to games for free. Many of them see this forced attempt at monetization as something they are proud of foiling, without seeing the impact it can have. Games adapted through the convenience of steam, multiplayer and microtransactions. Movies adapted through Netflix streaming, merch, and viral marketing. Youtube animators started using Patreon. You remember the dark days when very few single player games existed and would have terrible DRM that sometimes crashed your computer. Or when all the great animators on youtube and newgrounds disappeared or would only post once every two years, because they would have to focus on school or work. With news, im not sure how they can adapt to make a living from their work since right now just one person needs to copy paste all their work onto a forum and they lose a big chunk of their income. TLDR, paywalls are an attempt to make fact-checked, well-researched, well-writtennews profitable again.</t>
+  </si>
+  <si>
+    <t>Fake news doesn't flourish because there's a lack of credible news to counter it. The person who shares news from a site like "Free Thought Project" or a fb group like "Bikers for Trump" was never interested in unbiased credibility.
+It flourishes because the internet has made it easy to blast (mis)information to millions of eyeballs, and everyone is going to share the stuff that conforms to their pre-existing worldview.
+Not only is there competition among news sources, there's competition now between the readers to get other readers to see their opinion.
+This also encourages spreading fake news - Real news is dull and has no plot twist. But fake news can be as interesting as you want it to be.
+Critical Thinking Carol says people should stay in and wash their hands. Zany Zachary is desperate to sound smart and plugged in, so he reposts a meme about how it's all a conspiracy by the Deep State and illuminati to control the population.
+Carol's boring narrative doesn't generate any discussion (or click revenue), but Zach's does. In Zach's mind, the obscure website or Facebook group (which was generated by a Russian troll farm) is just as valid as the New York Times.
+There are a lot of Zachs in the world right now, and they would never click on the New York Times link even if it went to a free, carefully researched, factually correct article. Even if they fake interest in your counterpoints, they're not really going to change their ignorant view on things. Because if they were open to facts and knowledge, they wouldn't hold that view in the first place.</t>
+  </si>
+  <si>
+    <t>The 'fake news' crisis was never about issues with actual news. The fake news crisis has always been due to bad actors providing fake propaganda stories to score political points.
+Disinformation is a known tactic in information warfare, and is being used by both foreign and domestic actors, as well as misguided individuals who use it to serve their ideological viewpoints.
+The problem realistically isn't due to real news but that fake news is given equal status as actual news. And while actual information is objective, fake news has every reason to feed the biases of its readers, thus making it more likely to be believed. A neutral source doesn't get 'viral' support behind it. slanted information that feeds biases does. Nor does it get artificially spread. Information that feeds a narrative does.
+That, plus their active attempts to dismiss actual information as 'fake', ensuring that their readers will swallow the disinformation more readily.
+Thus, it doesn't matter what newspapers do. Their job is being actively fought against, all while they are supposed to remain 'neutral'. It's difficult to fight against something when you cannot fight back. Even more so when you are already economically crippled.</t>
+  </si>
 </sst>
 </file>
 
@@ -5736,7 +7046,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5744,6 +7054,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -17317,6 +18630,3100 @@
         <v>974</v>
       </c>
     </row>
+    <row r="916">
+      <c r="A916" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B916" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C916" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="D916" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B917" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C917" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="D917" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B918" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C918" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="D918" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B919" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C919" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D919" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B920" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C920" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D920" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B921" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C921" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D921" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B922" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C922" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D922" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B923" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C923" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D923" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B924" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C924" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D924" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B925" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C925" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D925" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B926" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C926" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="D926" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B927" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C927" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D927" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B928" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C928" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D928" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B929" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C929" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D929" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B930" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C930" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D930" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B931" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C931" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D931" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B932" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C932" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D932" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B933" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C933" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D933" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B934" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C934" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D934" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B935" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C935" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D935" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B936" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C936" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D936" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B937" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C937" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D937" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B938" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C938" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D938" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B939" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C939" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D939" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B940" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C940" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D940" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B941" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C941" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D941" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B942" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C942" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D942" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B943" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C943" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D943" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B944" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C944" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D944" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B945" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C945" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D945" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B946" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C946" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D946" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B947" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C947" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D947" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B948" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C948" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D948" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B949" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C949" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D949" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B950" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C950" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D950" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B951" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C951" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D951" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B952" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C952" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D952" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B953" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C953" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D953" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B954" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C954" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D954" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B955" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C955" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D955" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B956" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C956" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D956" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B957" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C957" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D957" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B958" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C958" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D958" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B959" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C959" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D959" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B960" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C960" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D960" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B961" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C961" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D961" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B962" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C962" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D962" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B963" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C963" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D963" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B964" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C964" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D964" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B965" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C965" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D965" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B966" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C966" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D966" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B967" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C967" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D967" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B968" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C968" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D968" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B969" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C969" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D969" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B970" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C970" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D970" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B971" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C971" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D971" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B972" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C972" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D972" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B973" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C973" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D973" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B974" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C974" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D974" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B975" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C975" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D975" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B976" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C976" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D976" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B977" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C977" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D977" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B978" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C978" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D978" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B979" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C979" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D979" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B980" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C980" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D980" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B981" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C981" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D981" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B982" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C982" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D982" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B983" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C983" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D983" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B984" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C984" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D984" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B985" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C985" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D985" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B986" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C986" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D986" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B987" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C987" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D987" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B988" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C988" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D988" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B989" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C989" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D989" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B990" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C990" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D990" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B991" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C991" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D991" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B992" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C992" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D992" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B993" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C993" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D993" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B994" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C994" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D994" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B995" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C995" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D995" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B996" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C996" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D996" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B997" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C997" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D997" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B998" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C998" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D998" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B999" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C999" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D999" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1000" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1000" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D1000" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1001" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1001" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D1001" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1002" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1002" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D1002" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1003" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1003" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D1003" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1004" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1004" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1004" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1005" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1005" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D1005" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1006" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1006" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D1006" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1007" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1007" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D1007" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1008" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1008" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D1008" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1009" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1009" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1009" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1010" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1010" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D1010" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1011" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1011" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D1011" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1012" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1012" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D1012" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1013" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1013" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D1013" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1014" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1014" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D1014" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1015" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1015" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D1015" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1016" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1016" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D1016" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1017" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1017" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1017" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1018" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1018" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D1018" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1019" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1019" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D1019" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1020" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1020" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D1020" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1021" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1021" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D1021" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1022" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1022" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D1022" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1023" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1023" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D1023" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1024" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1024" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D1024" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1025" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1025" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D1025" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1026" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1026" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D1026" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1027" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1027" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D1027" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1028" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1028" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D1028" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1029" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1029" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D1029" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1030" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1030" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1030" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1031" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1031" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D1031" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1032" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1032" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1032" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1033" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1033" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D1033" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1034" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1034" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D1034" s="2" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1035" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1035" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D1035" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1036" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1036" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1036" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1037" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1037" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D1037" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1038" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1038" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D1038" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1039" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1039" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D1039" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1040" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1040" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D1040" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1041" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1041" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D1041" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1042" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1042" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D1042" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1043" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1043" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D1043" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1044" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1044" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D1044" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1045" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1045" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D1045" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1046" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1046" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D1046" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1047" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1047" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D1047" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1048" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1048" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D1048" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1049" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1049" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D1049" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1050" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1050" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D1050" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1051" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1051" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D1051" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1052" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1052" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D1052" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1053" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1053" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D1053" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1054" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1054" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1054" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1055" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1055" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D1055" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1056" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1056" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D1056" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1057" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1057" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D1057" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1058" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1058" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D1058" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1059" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1059" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D1059" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1060" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1060" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D1060" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1061" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1061" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D1061" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1062" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1062" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D1062" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1063" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1063" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D1063" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1064" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1064" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D1064" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1065" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1065" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D1065" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1066" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1066" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D1066" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1067" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1067" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D1067" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1068" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1068" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D1068" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1069" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1069" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D1069" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1070" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1070" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D1070" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1071" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1071" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D1071" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1072" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1072" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D1072" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1073" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1073" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D1073" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1074" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1074" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D1074" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1075" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1075" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D1075" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1076" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1076" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D1076" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1077" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1077" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D1077" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1078" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1078" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D1078" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1079" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1079" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D1079" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1080" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1080" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D1080" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1081" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1081" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D1081" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1082" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1082" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D1082" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1083" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1083" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D1083" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1084" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1084" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D1084" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1085" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1085" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D1085" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1086" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1086" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D1086" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1087" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1087" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D1087" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1088" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1088" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D1088" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1089" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1089" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D1089" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1090" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1090" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D1090" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1091" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1091" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D1091" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1092" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1092" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D1092" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1093" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1093" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D1093" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1094" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1094" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D1094" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1095" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1095" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D1095" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1096" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1096" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D1096" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1097" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1097" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D1097" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1098" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1098" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D1098" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1099" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1099" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D1099" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1100" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1100" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1100" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1101" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1101" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D1101" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1102" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1102" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D1102" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1103" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1103" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D1103" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1104" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1104" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D1104" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1105" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1105" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D1105" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1106" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1106" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D1106" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1107" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1107" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D1107" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1108" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1108" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D1108" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1109" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1109" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D1109" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1110" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1110" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D1110" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1111" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D1111" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1112" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D1112" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1113" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D1113" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1114" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D1114" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1115" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D1115" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1116" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D1116" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1117" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D1117" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1118" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D1118" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1119" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D1119" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1120" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1120" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D1120" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1121" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D1121" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1122" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D1122" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1123" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D1123" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1124" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1124" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D1124" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1125" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1125" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D1125" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1126" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1126" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D1126" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1127" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1127" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D1127" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1128" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1128" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D1128" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1129" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1129" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D1129" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1130" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1130" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D1130" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1131" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1131" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D1131" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1132" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1132" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D1132" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1133" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1133" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D1133" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1134" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1134" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D1134" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1135" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1135" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D1135" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B1136" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1136" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D1136" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
